--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,29 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Questions" sheetId="3" r:id="rId2"/>
-    <sheet name="Update" sheetId="2" r:id="rId3"/>
+    <sheet name="Work" sheetId="6" r:id="rId2"/>
+    <sheet name="Questions" sheetId="3" r:id="rId3"/>
+    <sheet name="Updates" sheetId="4" r:id="rId4"/>
+    <sheet name="Update" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="TaskIds" comment="It is very important that tasks first be sorted by Done in order for this to work.">INDEX(Tasks[Id],COUNTA(Tasks[Done]) + 1):INDEX(Tasks[Id],COUNTA(Tasks[Id]))</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Add Date</t>
-  </si>
-  <si>
-    <t>Done Date</t>
-  </si>
-  <si>
     <t>Install JabRef on my personal machine</t>
   </si>
   <si>
@@ -48,9 +50,6 @@
     <t>Survey Presentation Of Literature Over Summer</t>
   </si>
   <si>
-    <t>Due Date</t>
-  </si>
-  <si>
     <t>Fill out my vaccine medical form</t>
   </si>
   <si>
@@ -124,16 +123,99 @@
   </si>
   <si>
     <t>How many articles should I cover in my survey presentation?</t>
+  </si>
+  <si>
+    <t>Mark Rucker</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>1111 Forest Hills Ave</t>
+  </si>
+  <si>
+    <r>
+      <t>DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF404040"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Charlottesville, VA 22903</t>
+  </si>
+  <si>
+    <t>479-434-0164 | rucker.mark@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>UPDATE #</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>TaskId</t>
+  </si>
+  <si>
+    <t>Create Task Spreadsheet</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Got Data Validation Working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +231,100 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,22 +336,129 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Currency 2" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
@@ -203,29 +479,75 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hours"/>
+      <sheetName val="Days"/>
+      <sheetName val="Weeks"/>
+      <sheetName val="Years"/>
+      <sheetName val="Rates"/>
+      <sheetName val="Invoices"/>
+      <sheetName val="Invoice"/>
+      <sheetName val="New Budget"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
-  <autoFilter ref="A1:E23">
-    <filterColumn colId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tasks" displayName="Tasks" ref="A1:F24" totalsRowShown="0">
+  <autoFilter ref="A1:F24">
+    <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A8:E23">
-    <sortCondition ref="C1:C23"/>
+  <sortState ref="A14:F24">
+    <sortCondition ref="E2:E24"/>
+    <sortCondition ref="D2:D24"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Task"/>
+  <tableColumns count="6">
+    <tableColumn id="8" name="Id" dataDxfId="0"/>
+    <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due Date" dataDxfId="2"/>
-    <tableColumn id="5" name="Done Date" dataDxfId="1"/>
-    <tableColumn id="3" name="Add Date" dataDxfId="0"/>
+    <tableColumn id="4" name="Due" dataDxfId="5"/>
+    <tableColumn id="5" name="Done" dataDxfId="4"/>
+    <tableColumn id="3" name="Start" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2"/>
+  <tableColumns count="6">
+    <tableColumn id="2" name="TaskId"/>
+    <tableColumn id="3" name="Task">
+      <calculatedColumnFormula>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Work"/>
+    <tableColumn id="5" name="Date"/>
+    <tableColumn id="6" name="Start"/>
+    <tableColumn id="7" name="End"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Question"/>
@@ -233,6 +555,19 @@
     <tableColumn id="3" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Updates" displayName="Updates" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Start" dataDxfId="3"/>
+    <tableColumn id="2" name="End" dataDxfId="2">
+      <calculatedColumnFormula>Updates[[#This Row],[Start]] + (7)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -523,334 +858,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>42508</v>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>42508</v>
       </c>
       <c r="E2" s="2">
+        <v>42508</v>
+      </c>
+      <c r="F2" s="2">
         <v>42507</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42508</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42508</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>42509</v>
-      </c>
-      <c r="D3" s="2">
-        <v>42509</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>42508</v>
       </c>
       <c r="D4" s="2">
         <v>42508</v>
       </c>
       <c r="E4" s="2">
+        <v>42508</v>
+      </c>
+      <c r="F4" s="2">
         <v>42507</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42508</v>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>42508</v>
+        <v>42509</v>
       </c>
       <c r="E5" s="2">
+        <v>42509</v>
+      </c>
+      <c r="F5" s="2">
         <v>42507</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>42509</v>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="2">
         <v>42509</v>
       </c>
       <c r="E6" s="2">
+        <v>42509</v>
+      </c>
+      <c r="F6" s="2">
         <v>42507</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>42509</v>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="2">
         <v>42509</v>
       </c>
       <c r="E7" s="2">
+        <v>42509</v>
+      </c>
+      <c r="F7" s="2">
         <v>42507</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
-        <v>42522</v>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42522</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>42511</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42515</v>
+      </c>
       <c r="E9" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42522</v>
+        <v>42515</v>
+      </c>
+      <c r="F9" s="2">
+        <v>42508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
+        <v>42515</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>42522</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42519</v>
+      </c>
+      <c r="F11" s="2">
         <v>42518</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42522</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42519</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42522</v>
+      </c>
+      <c r="E13" s="2">
+        <v>42519</v>
+      </c>
+      <c r="F13" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42522</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42522</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="42">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <v>42522</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="42">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2">
+        <v>42522</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="42">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42577</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="42">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="42">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="42">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="42">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="42">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="42">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2">
-        <v>42522</v>
-      </c>
-      <c r="D11" s="2">
-        <v>42519</v>
-      </c>
-      <c r="E11" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42522</v>
-      </c>
-      <c r="D12" s="2">
-        <v>42519</v>
-      </c>
-      <c r="E12" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2">
-        <v>42522</v>
-      </c>
-      <c r="D13" s="2">
-        <v>42519</v>
-      </c>
-      <c r="E13" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>42577</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="D24" s="2">
         <v>42583</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>42515</v>
-      </c>
-      <c r="E16" s="2">
-        <v>42515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>42511</v>
-      </c>
-      <c r="E17" s="2">
-        <v>42511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2">
-        <v>42583</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>42583</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2">
-        <v>42583</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2">
-        <v>42515</v>
-      </c>
-      <c r="D21" s="2">
-        <v>42515</v>
-      </c>
-      <c r="E21" s="2">
-        <v>42508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2">
-        <v>42583</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>42518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2">
-        <v>42583</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>42519</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="A7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="A15" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
-    <hyperlink ref="A11" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
-    <hyperlink ref="A12" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
-    <hyperlink ref="A13" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
-    <hyperlink ref="A21" r:id="rId7"/>
-    <hyperlink ref="A22" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
+    <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
+    <hyperlink ref="B19" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
+    <hyperlink ref="B11" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
+    <hyperlink ref="B12" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
+    <hyperlink ref="B13" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B23" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -861,6 +1281,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</f>
+        <v>Create Task Spreadsheet</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3">
+        <v>42521</v>
+      </c>
+      <c r="E2" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="F2" s="43">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2">
+      <formula1>TaskIds</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="B2"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -876,38 +1368,38 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -918,14 +1410,754 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>42515</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Updates[[#This Row],[Start]] + (7)</f>
+        <v>42522</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="5"/>
+    <col min="6" max="6" width="9.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12" style="5" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="11">
+        <f>MAX(Updates[End])</f>
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="12">
+        <f xml:space="preserve"> COUNT(Updates[End])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <f>MAX([1]!Invoices[Start])</f>
+        <v>42500</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="str">
+        <f>IF(VLOOKUP(A18,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A18,[1]!Days[#Data],2),IF((I18=0),IF(WEEKDAY(A18,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Various Bugs</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29">
+        <f>(VLOOKUP(A18, [1]!Days[#Data], 3))*24</f>
+        <v>5.2499999999999982</v>
+      </c>
+      <c r="J18" s="30">
+        <f>VLOOKUP(A18, [1]!Days[#Data], 4)</f>
+        <v>314.99999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <f>A18 +1</f>
+        <v>42501</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32" t="str">
+        <f>IF(VLOOKUP(A19,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A19,[1]!Days[#Data],2),IF((I19=0),IF(WEEKDAY(A19,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Goodyear Reports</v>
+      </c>
+      <c r="D19" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34">
+        <f>(VLOOKUP(A19, [1]!Days[#Data], 3))*24</f>
+        <v>2.7500000000000009</v>
+      </c>
+      <c r="J19" s="35">
+        <f>VLOOKUP(A19, [1]!Days[#Data], 4)</f>
+        <v>165.00000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <f t="shared" ref="A20:A31" si="0">A19 +1</f>
+        <v>42502</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="27" t="str">
+        <f>IF(VLOOKUP(A20,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A20,[1]!Days[#Data],2),IF((I20=0),IF(WEEKDAY(A20,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Goodyear Reports</v>
+      </c>
+      <c r="D20" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29">
+        <f>(VLOOKUP(A20, [1]!Days[#Data], 3))*24</f>
+        <v>3.2500000000000004</v>
+      </c>
+      <c r="J20" s="30">
+        <f>VLOOKUP(A20, [1]!Days[#Data], 4)</f>
+        <v>195.00000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <f t="shared" si="0"/>
+        <v>42503</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32" t="str">
+        <f>IF(VLOOKUP(A21,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A21,[1]!Days[#Data],2),IF((I21=0),IF(WEEKDAY(A21,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Data Imports</v>
+      </c>
+      <c r="D21" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34">
+        <f>(VLOOKUP(A21, [1]!Days[#Data], 3))*24</f>
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="J21" s="35">
+        <f>VLOOKUP(A21, [1]!Days[#Data], 4)</f>
+        <v>29.999999999999972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <f t="shared" si="0"/>
+        <v>42504</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="27" t="str">
+        <f>IF(VLOOKUP(A22,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A22,[1]!Days[#Data],2),IF((I22=0),IF(WEEKDAY(A22,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Moving</v>
+      </c>
+      <c r="D22" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29">
+        <f>(VLOOKUP(A22, [1]!Days[#Data], 3))*24</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="30">
+        <f>VLOOKUP(A22, [1]!Days[#Data], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <f t="shared" si="0"/>
+        <v>42505</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32" t="str">
+        <f>IF(VLOOKUP(A23,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A23,[1]!Days[#Data],2),IF((I23=0),IF(WEEKDAY(A23,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Moving</v>
+      </c>
+      <c r="D23" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34">
+        <f>(VLOOKUP(A23, [1]!Days[#Data], 3))*24</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="35">
+        <f>VLOOKUP(A23, [1]!Days[#Data], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="36">
+        <f t="shared" si="0"/>
+        <v>42506</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="27" t="str">
+        <f>IF(VLOOKUP(A24,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A24,[1]!Days[#Data],2),IF((I24=0),IF(WEEKDAY(A24,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Moving</v>
+      </c>
+      <c r="D24" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29">
+        <f>(VLOOKUP(A24, [1]!Days[#Data], 3))*24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="30">
+        <f>VLOOKUP(A24, [1]!Days[#Data], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <f t="shared" si="0"/>
+        <v>42507</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="str">
+        <f>IF(VLOOKUP(A25,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A25,[1]!Days[#Data],2),IF((I25=0),IF(WEEKDAY(A25,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Moving</v>
+      </c>
+      <c r="D25" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34">
+        <f>(VLOOKUP(A25, [1]!Days[#Data], 3))*24</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="35">
+        <f>VLOOKUP(A25, [1]!Days[#Data], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="36">
+        <f>A25 +1</f>
+        <v>42508</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="27" t="str">
+        <f>IF(VLOOKUP(A26,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A26,[1]!Days[#Data],2),IF((I26=0),IF(WEEKDAY(A26,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Solicitation Import</v>
+      </c>
+      <c r="D26" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29">
+        <f>(VLOOKUP(A26, [1]!Days[#Data], 3))*24</f>
+        <v>5.7500000000000018</v>
+      </c>
+      <c r="J26" s="30">
+        <f>VLOOKUP(A26, [1]!Days[#Data], 4)</f>
+        <v>345.00000000000011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <f t="shared" si="0"/>
+        <v>42509</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32" t="str">
+        <f>IF(VLOOKUP(A27,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A27,[1]!Days[#Data],2),IF((I27=0),IF(WEEKDAY(A27,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Fixing Dup Group Count</v>
+      </c>
+      <c r="D27" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34">
+        <f>(VLOOKUP(A27, [1]!Days[#Data], 3))*24</f>
+        <v>4.25</v>
+      </c>
+      <c r="J27" s="35">
+        <f>VLOOKUP(A27, [1]!Days[#Data], 4)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="36">
+        <f>A27 +1</f>
+        <v>42510</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="27" t="str">
+        <f>IF(VLOOKUP(A28,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A28,[1]!Days[#Data],2),IF((I28=0),IF(WEEKDAY(A28,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Multi Template Support</v>
+      </c>
+      <c r="D28" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29">
+        <f>(VLOOKUP(A28, [1]!Days[#Data], 3))*24</f>
+        <v>4.75</v>
+      </c>
+      <c r="J28" s="30">
+        <f>VLOOKUP(A28, [1]!Days[#Data], 4)</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <f t="shared" si="0"/>
+        <v>42511</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32" t="str">
+        <f>IF(VLOOKUP(A29,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A29,[1]!Days[#Data],2),IF((I29=0),IF(WEEKDAY(A29,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Weekend</v>
+      </c>
+      <c r="D29" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34">
+        <f>(VLOOKUP(A29, [1]!Days[#Data], 3))*24</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="35">
+        <f>VLOOKUP(A29, [1]!Days[#Data], 4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="36">
+        <f>A29 +1</f>
+        <v>42512</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="27" t="str">
+        <f>IF(VLOOKUP(A30,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A30,[1]!Days[#Data],2),IF((I30=0),IF(WEEKDAY(A30,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Multi Template Support</v>
+      </c>
+      <c r="D30" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="27" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29">
+        <f>(VLOOKUP(A30, [1]!Days[#Data], 3))*24</f>
+        <v>4.2500000000000009</v>
+      </c>
+      <c r="J30" s="30">
+        <f>VLOOKUP(A30, [1]!Days[#Data], 4)</f>
+        <v>255.00000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <f t="shared" si="0"/>
+        <v>42513</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32" t="str">
+        <f>IF(VLOOKUP(A31,[1]!Days[#Data],2)&lt;&gt;"",VLOOKUP(A31,[1]!Days[#Data],2),IF((I31=0),IF(WEEKDAY(A31,2)&gt;5,"Weekend","Time Off"),""))</f>
+        <v>Multi Template Support</v>
+      </c>
+      <c r="D31" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F31" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="32" t="e">
+        <f>VLOOKUP(#REF!, [1]!Days[#Data], 3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34">
+        <f>(VLOOKUP(A31, [1]!Days[#Data], 3))*24</f>
+        <v>5</v>
+      </c>
+      <c r="J31" s="35">
+        <f>VLOOKUP(A31, [1]!Days[#Data], 4)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="38" t="e">
+        <f>SUM(D18:D27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="38" t="e">
+        <f>SUM(E18:E27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="38" t="e">
+        <f>SUM(F18:F27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="38" t="e">
+        <f>SUM(G18:G27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40">
+        <f>SUM(I18:I31)</f>
+        <v>35.75</v>
+      </c>
+      <c r="J32" s="41">
+        <f>SUM(J18:J31)</f>
+        <v>2145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;K5B9BD5THANK YOU FOR YOUR BUSINESS!</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -164,9 +164,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Last Weeks Tasks</t>
-  </si>
-  <si>
     <t>This Week Tasks</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Create Actual Update Report</t>
+  </si>
+  <si>
+    <t>Last Week's Tasks</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,12 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tasks" displayName="Tasks" ref="A1:G24" totalsRowShown="0">
-  <autoFilter ref="A1:G24"/>
-  <sortState ref="A2:G24">
+  <autoFilter ref="A1:G24">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A14:G24">
     <sortCondition ref="E2:E24"/>
     <sortCondition ref="D2:D24"/>
   </sortState>
@@ -1003,7 +1007,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>42511</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
         <v>42522</v>
@@ -1548,7 +1552,7 @@
         <v>Create Task Spreadsheet</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3">
         <v>42522</v>
@@ -1580,7 +1584,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1642,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,12 +1937,10 @@
         <f t="array" ref="L7">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="N7" s="5">
-        <v>-6</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="O7" t="str">
         <f t="array" ref="O7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Do I want to rework my course schedule skipping summer 2017?</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2297,7 +2299,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2351,7 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -2359,7 +2361,7 @@
       </c>
       <c r="F3" s="17"/>
       <c r="H3" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="43"/>
       <c r="J3" s="43"/>
@@ -2782,19 +2784,19 @@
       <c r="M25"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="str">
-        <v>Do I want to rework my course schedule skipping summer 2017?</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="24"/>
+      <c r="A26" s="11" t="str">
+        <v/>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="15"/>
       <c r="M26"/>
     </row>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>Task</t>
   </si>
@@ -174,6 +174,45 @@
   </si>
   <si>
     <t>Last Week's Tasks</t>
+  </si>
+  <si>
+    <t>Read all article Abstracts</t>
+  </si>
+  <si>
+    <t>Add hours to Update Sheet</t>
+  </si>
+  <si>
+    <t>Update Publication Plan to Account for summer conference</t>
+  </si>
+  <si>
+    <t>No, I should assume I'll work during the summer and still take another semester after that.</t>
+  </si>
+  <si>
+    <t>Yes, I can. The key is I can't take more than 3 hours under 5000 in Engineering.</t>
+  </si>
+  <si>
+    <t>Yes, look through the catalog and see what interests me then talk to Gerber about it</t>
+  </si>
+  <si>
+    <t>Just depends on where I am in my studies</t>
+  </si>
+  <si>
+    <t>No specific number. Just cover what is interesting to me.</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Organizing My Tasks</t>
+  </si>
+  <si>
+    <t>Messing around with JabRef</t>
+  </si>
+  <si>
+    <t>Finish a complete class plan</t>
+  </si>
+  <si>
+    <t>Organizing Course Catalog</t>
   </si>
 </sst>
 </file>
@@ -382,7 +421,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -444,6 +483,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -452,7 +492,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -523,6 +563,21 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -591,41 +646,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tasks" displayName="Tasks" ref="A1:G24" totalsRowShown="0">
-  <autoFilter ref="A1:G24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tasks" displayName="Tasks" ref="A1:G28" totalsRowShown="0">
+  <autoFilter ref="A1:G28">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A14:G24">
+  <sortState ref="A14:G28">
     <sortCondition ref="E2:E24"/>
     <sortCondition ref="D2:D24"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="8" name="Id" dataDxfId="25"/>
+    <tableColumn id="8" name="Id" dataDxfId="30"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="24"/>
-    <tableColumn id="5" name="Done" dataDxfId="23"/>
-    <tableColumn id="3" name="Report" dataDxfId="22"/>
-    <tableColumn id="6" name="Add" dataDxfId="21"/>
+    <tableColumn id="4" name="Due" dataDxfId="29"/>
+    <tableColumn id="5" name="Done" dataDxfId="28"/>
+    <tableColumn id="3" name="Report" dataDxfId="27"/>
+    <tableColumn id="6" name="Add" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
-    <tableColumn id="2" name="TaskId"/>
-    <tableColumn id="3" name="Task">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G7" totalsRowShown="0">
+  <autoFilter ref="A1:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="4" name="Work"/>
+    <tableColumn id="5" name="Date"/>
+    <tableColumn id="6" name="Start" dataDxfId="13"/>
+    <tableColumn id="7" name="End" dataDxfId="12"/>
+    <tableColumn id="1" name="Hours" dataDxfId="11">
+      <calculatedColumnFormula>Table5[[#This Row],[End]]-Table5[[#This Row],[Start]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="TaskId" dataDxfId="10"/>
+    <tableColumn id="3" name="Task" dataDxfId="9">
       <calculatedColumnFormula>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Work"/>
-    <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start"/>
-    <tableColumn id="7" name="End"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,8 +705,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Updates" displayName="Updates" ref="A1:B2" totalsRowShown="0">
   <autoFilter ref="A1:B2"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Start" dataDxfId="20"/>
-    <tableColumn id="2" name="End" dataDxfId="19">
+    <tableColumn id="1" name="Start" dataDxfId="25"/>
+    <tableColumn id="2" name="End" dataDxfId="24">
       <calculatedColumnFormula>Updates[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -664,14 +722,14 @@
     <sortCondition ref="G2:G21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="18"/>
-    <tableColumn id="1" name="Description" dataDxfId="17">
+    <tableColumn id="2" name="Index" dataDxfId="23"/>
+    <tableColumn id="1" name="Description" dataDxfId="22">
       <calculatedColumnFormula array="1">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="16">
+    <tableColumn id="3" name="Done" dataDxfId="21">
       <calculatedColumnFormula array="1">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Report" dataDxfId="15">
+    <tableColumn id="4" name="Report" dataDxfId="20">
       <calculatedColumnFormula array="1">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -686,14 +744,14 @@
     <sortCondition ref="L1:L21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="14"/>
-    <tableColumn id="1" name="Description" dataDxfId="13">
+    <tableColumn id="2" name="Index" dataDxfId="19"/>
+    <tableColumn id="1" name="Description" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="12">
+    <tableColumn id="3" name="Done" dataDxfId="17">
       <calculatedColumnFormula array="1">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Report" dataDxfId="11">
+    <tableColumn id="4" name="Report" dataDxfId="16">
       <calculatedColumnFormula array="1">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -708,8 +766,8 @@
     <sortCondition descending="1" ref="N1:N21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="10"/>
-    <tableColumn id="1" name="Question" dataDxfId="9">
+    <tableColumn id="2" name="Index" dataDxfId="15"/>
+    <tableColumn id="1" name="Question" dataDxfId="14">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1004,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1345,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>42522</v>
+        <v>42529</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
@@ -1305,7 +1363,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="2">
-        <v>42522</v>
+        <v>42529</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
@@ -1315,7 +1373,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1325,7 +1383,9 @@
       <c r="D16" s="2">
         <v>42522</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>42524</v>
+      </c>
       <c r="F16" s="2">
         <v>42515</v>
       </c>
@@ -1333,7 +1393,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>23</v>
       </c>
@@ -1343,7 +1403,9 @@
       <c r="D17" s="2">
         <v>42522</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>42524</v>
+      </c>
       <c r="F17" s="2">
         <v>42515</v>
       </c>
@@ -1353,80 +1415,85 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>42577</v>
+        <v>42529</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>42529</v>
+      </c>
       <c r="G18" s="2">
-        <v>42518</v>
+        <v>42524</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
       </c>
       <c r="D19" s="2">
-        <v>42583</v>
+        <v>42529</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>42529</v>
+      </c>
       <c r="G19" s="2">
-        <v>42518</v>
+        <v>42524</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2">
-        <v>42583</v>
+        <v>42529</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>42529</v>
+      </c>
       <c r="G20" s="2">
-        <v>42518</v>
+        <v>42524</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2">
-        <v>42583</v>
+        <v>42529</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>42529</v>
+      </c>
       <c r="G21" s="2">
-        <v>42518</v>
+        <v>42524</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
-        <v>42583</v>
+        <v>42577</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1436,10 +1503,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>42583</v>
@@ -1453,10 +1523,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2">
         <v>42583</v>
@@ -1464,6 +1534,70 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>42518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2">
+        <v>42583</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
         <v>42519</v>
       </c>
     </row>
@@ -1471,12 +1605,12 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
     <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B19" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
+    <hyperlink ref="B23" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
     <hyperlink ref="B11" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
     <hyperlink ref="B12" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B13" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B23" r:id="rId8"/>
+    <hyperlink ref="B27" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -1488,93 +1622,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42521</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E2" s="6">
+        <f>Table5[[#This Row],[End]]-Table5[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F2">
         <v>23</v>
       </c>
-      <c r="B2" t="str">
+      <c r="G2" t="str">
         <f>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</f>
         <v>Create Task Spreadsheet</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3">
-        <v>42521</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42522</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E3" s="6">
+        <f>Table5[[#This Row],[End]]-Table5[[#This Row],[Start]]</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="F3">
         <v>23</v>
       </c>
-      <c r="B3" t="str">
+      <c r="G3" t="str">
         <f>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</f>
         <v>Create Task Spreadsheet</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="3">
-        <v>42522</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.52083333333333337</v>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42524</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.71875</v>
+      </c>
+      <c r="E4" s="6">
+        <f>Table5[[#This Row],[End]]-Table5[[#This Row],[Start]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G4" t="e">
+        <f>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42524</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.71875</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E5" s="6">
+        <f>Table5[[#This Row],[End]]-Table5[[#This Row],[Start]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</f>
+        <v>Read all article Abstracts</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42524</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.78125</v>
+      </c>
+      <c r="E6" s="6">
+        <f>Table5[[#This Row],[End]]-Table5[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="F6" s="47">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</f>
+        <v>Finish a complete class plan</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42525</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E7" s="6">
+        <f>Table5[[#This Row],[End]]-Table5[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F7" s="47">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</f>
+        <v>Finish a complete class plan</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F7">
       <formula1>TaskIds</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="B2:B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:G7"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1584,13 +1829,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,25 +1853,55 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42522</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42522</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42522</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42522</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42522</v>
       </c>
     </row>
   </sheetData>
@@ -1710,11 +1985,11 @@
       </c>
       <c r="E2" t="str">
         <f t="array" ref="E2">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Create Linux instance on AWS with R installed</v>
-      </c>
-      <c r="F2" s="2">
+        <v>Introduction to Statistical Learning Chp 2</v>
+      </c>
+      <c r="F2" s="2" t="str">
         <f t="array" ref="F2">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42516</v>
+        <v/>
       </c>
       <c r="G2" s="2">
         <f t="array" ref="G2">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
@@ -1726,22 +2001,22 @@
       </c>
       <c r="J2" t="str">
         <f t="array" ref="J2">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v/>
       </c>
       <c r="K2" s="2" t="str">
         <f t="array" ref="K2">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="2" t="str">
         <f t="array" ref="L2">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42515</v>
+        <v/>
       </c>
       <c r="N2" s="5">
         <v>-1</v>
       </c>
       <c r="O2" t="str">
         <f t="array" ref="O2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How many articles should I cover in my survey presentation?</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1751,15 +2026,15 @@
       </c>
       <c r="E3" t="str">
         <f t="array" ref="E3">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Create thesis plan</v>
+        <v>Create Task Spreadsheet</v>
       </c>
       <c r="F3" s="2">
         <f t="array" ref="F3">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42519</v>
+        <v>42524</v>
       </c>
       <c r="G3" s="2">
         <f t="array" ref="G3">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42508</v>
+        <v>42515</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="5">
@@ -1767,22 +2042,22 @@
       </c>
       <c r="J3" t="str">
         <f t="array" ref="J3">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v/>
       </c>
       <c r="K3" s="2" t="str">
         <f t="array" ref="K3">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="2" t="str">
         <f t="array" ref="L3">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42515</v>
+        <v/>
       </c>
       <c r="N3" s="5">
         <v>-2</v>
       </c>
       <c r="O3" t="str">
         <f t="array" ref="O3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>What pace should I be going through these articles?</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1791,15 +2066,15 @@
       </c>
       <c r="E4" t="str">
         <f t="array" ref="E4">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Create publication plan</v>
+        <v>Determine Appropriate Pace for Article Survey</v>
       </c>
       <c r="F4" s="2">
         <f t="array" ref="F4">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42519</v>
+        <v>42524</v>
       </c>
       <c r="G4" s="2">
         <f t="array" ref="G4">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42508</v>
+        <v>42515</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5">
@@ -1807,22 +2082,22 @@
       </c>
       <c r="J4" t="str">
         <f t="array" ref="J4">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Determine Appropriate Pace for Article Survey</v>
+        <v/>
       </c>
       <c r="K4" s="2" t="str">
         <f t="array" ref="K4">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="2" t="str">
         <f t="array" ref="L4">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42515</v>
+        <v/>
       </c>
       <c r="N4" s="5">
         <v>-3</v>
       </c>
       <c r="O4" t="str">
         <f t="array" ref="O4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Do I want any Sociology/Policy Classes for a CHS focus?</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1831,15 +2106,15 @@
       </c>
       <c r="E5" t="str">
         <f t="array" ref="E5">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Create curriculum plan</v>
-      </c>
-      <c r="F5" s="2">
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <f t="array" ref="F5">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42519</v>
+        <v/>
       </c>
       <c r="G5" s="2">
         <f t="array" ref="G5">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42508</v>
+        <v>42515</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="5">
@@ -1847,22 +2122,22 @@
       </c>
       <c r="J5" t="str">
         <f t="array" ref="J5">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Create Task Spreadsheet</v>
+        <v/>
       </c>
       <c r="K5" s="2" t="str">
         <f t="array" ref="K5">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="2" t="str">
         <f t="array" ref="L5">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42515</v>
+        <v/>
       </c>
       <c r="N5" s="5">
         <v>-4</v>
       </c>
       <c r="O5" t="str">
         <f t="array" ref="O5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can I take non SYS classes to meet Course requirements? (e.g., CS 6316)</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1871,15 +2146,15 @@
       </c>
       <c r="E6" t="str">
         <f t="array" ref="E6">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v/>
       </c>
       <c r="F6" s="2" t="str">
         <f t="array" ref="F6">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="2" t="str">
         <f t="array" ref="G6">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42515</v>
+        <v/>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="5">
@@ -1902,7 +2177,7 @@
       </c>
       <c r="O6" t="str">
         <f t="array" ref="O6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Do I want to rework my course schedule skipping summer 2017?</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1911,15 +2186,15 @@
       </c>
       <c r="E7" t="str">
         <f t="array" ref="E7">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v/>
       </c>
       <c r="F7" s="2" t="str">
         <f t="array" ref="F7">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="str">
         <f t="array" ref="G7">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42515</v>
+        <v/>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="5">
@@ -1949,15 +2224,15 @@
       </c>
       <c r="E8" t="str">
         <f t="array" ref="E8">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Determine Appropriate Pace for Article Survey</v>
+        <v/>
       </c>
       <c r="F8" s="2" t="str">
         <f t="array" ref="F8">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="2" t="str">
         <f t="array" ref="G8">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42515</v>
+        <v/>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="5">
@@ -1989,15 +2264,15 @@
       </c>
       <c r="E9" t="str">
         <f t="array" ref="E9">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Report]))) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))),  Tasks[Description], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>Create Task Spreadsheet</v>
+        <v/>
       </c>
       <c r="F9" s="2" t="str">
         <f t="array" ref="F9">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * (Tasks[Done] &gt; MAX(Updates[Start])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2" t="str">
         <f t="array" ref="G9">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[Start])) * ((Tasks[Done] &gt; MAX(Updates[Start])) + (ISBLANK(Tasks[Done]))) * (NOT(ISBLANK(Tasks[Report]))),  Tasks[Report], "" ), COUNT(Tasks[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>42515</v>
+        <v/>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="5">
@@ -2160,9 +2435,9 @@
         <f t="array" ref="J13">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="K13" s="2" t="str">
+      <c r="K13" s="2">
         <f t="array" ref="K13">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>42524</v>
       </c>
       <c r="L13" s="2" t="str">
         <f t="array" ref="L13">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
@@ -2193,9 +2468,9 @@
         <f t="array" ref="J14">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="K14" s="2" t="str">
+      <c r="K14" s="2">
         <f t="array" ref="K14">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>42524</v>
       </c>
       <c r="L14" s="2" t="str">
         <f t="array" ref="L14">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
@@ -2224,15 +2499,15 @@
       </c>
       <c r="J15" t="str">
         <f t="array" ref="J15">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="array" ref="K15">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="L15" s="2" t="str">
+      <c r="L15" s="2">
         <f t="array" ref="L15">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>42515</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2257,15 +2532,15 @@
       </c>
       <c r="J16" t="str">
         <f t="array" ref="J16">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Description], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="array" ref="K16">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (Tasks[Done] &gt; MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Done]))),  Tasks[Done], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="L16" s="2" t="str">
+      <c r="L16" s="2">
         <f t="array" ref="L16">INDEX(IF((Tasks[Report] &lt;= MAX(Updates[End])) * (NOT(ISBLANK(Tasks[Report]))) * ISBLANK(Tasks[Done]),  Tasks[Report], "" ), COUNT(Tasks[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>42515</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
@@ -2298,8 +2573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" topLeftCell="A3" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,19 +2645,19 @@
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Description]</f>
-        <v>Create Linux instance on AWS with R installed</v>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="33">
+      <c r="E4" s="33" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
-        <v>42516</v>
+        <v/>
       </c>
       <c r="F4" s="17"/>
       <c r="H4" s="26" t="str">
         <f t="array" ref="H4:H18">ThisWeekTasks[Description]</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v/>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -2390,17 +2665,17 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="str">
-        <v>Create thesis plan</v>
+        <v>Create Task Spreadsheet</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="34">
-        <v>42519</v>
+        <v>42524</v>
       </c>
       <c r="F5" s="16"/>
       <c r="H5" s="27" t="str">
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v/>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -2409,17 +2684,17 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="str">
-        <v>Create publication plan</v>
+        <v>Determine Appropriate Pace for Article Survey</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="33">
-        <v>42519</v>
+        <v>42524</v>
       </c>
       <c r="F6" s="16"/>
       <c r="H6" s="28" t="str">
-        <v>Determine Appropriate Pace for Article Survey</v>
+        <v/>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -2428,17 +2703,17 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="str">
-        <v>Create curriculum plan</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="33">
-        <v>42519</v>
+      <c r="E7" s="33" t="str">
+        <v/>
       </c>
       <c r="F7" s="16"/>
       <c r="H7" s="28" t="str">
-        <v>Create Task Spreadsheet</v>
+        <v/>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2447,7 +2722,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v/>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2467,7 +2742,7 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="str">
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v/>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2487,7 +2762,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="str">
-        <v>Determine Appropriate Pace for Article Survey</v>
+        <v/>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2507,7 +2782,7 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="str">
-        <v>Create Task Spreadsheet</v>
+        <v/>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2638,7 +2913,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
       <c r="H17" s="20" t="str">
-        <v/>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -2658,7 +2933,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
       <c r="H18" s="20" t="str">
-        <v/>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -2700,7 +2975,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>How many articles should I cover in my survey presentation?</v>
+        <v/>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2717,7 +2992,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="str">
-        <v>What pace should I be going through these articles?</v>
+        <v/>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2734,7 +3009,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="str">
-        <v>Do I want any Sociology/Policy Classes for a CHS focus?</v>
+        <v/>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2751,7 +3026,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="str">
-        <v>Can I take non SYS classes to meet Course requirements? (e.g., CS 6316)</v>
+        <v/>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2768,7 +3043,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="str">
-        <v>Do I want to rework my course schedule skipping summer 2017?</v>
+        <v/>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Organizing Course Catalog</t>
+  </si>
+  <si>
+    <t>Scanning Courses From Other Departments</t>
   </si>
 </sst>
 </file>
@@ -670,8 +673,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G7" totalsRowShown="0">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="5" name="Date"/>
@@ -1622,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,13 +1811,38 @@
         <v>Finish a complete class plan</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42525</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E8" s="6">
+        <f>Table5[[#This Row],[End]]-Table5[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f>VLOOKUP(Table5[[#This Row],[TaskId]], Tasks[], 2, FALSE)</f>
+        <v>Finish a complete class plan</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F2:F8">
       <formula1>TaskIds</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:G7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:G8"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -189,24 +189,6 @@
   </si>
   <si>
     <t>Scanning Courses From Other Departments</t>
-  </si>
-  <si>
-    <t>Which week do I plan on completing a task?</t>
-  </si>
-  <si>
-    <t>Which week do I plan on starting to work on a task?</t>
-  </si>
-  <si>
-    <t>If I worked on it in a week show in last week</t>
-  </si>
-  <si>
-    <t>If I showed it in last week but didn't finish show in next week</t>
-  </si>
-  <si>
-    <t>Last Week -- everything I worked on</t>
-  </si>
-  <si>
-    <t>Next Week -- whatever I choose to put here</t>
   </si>
   <si>
     <t>Period</t>
@@ -512,23 +494,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <border>
         <right style="thin">
@@ -655,6 +621,22 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -663,9 +645,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -743,13 +722,13 @@
     <sortCondition ref="D2:D24"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="8" name="Id" dataDxfId="40"/>
+    <tableColumn id="8" name="Id" dataDxfId="39"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="39"/>
-    <tableColumn id="3" name="Started" dataDxfId="38"/>
-    <tableColumn id="5" name="Finished" dataDxfId="37"/>
-    <tableColumn id="6" name="Added" dataDxfId="36"/>
+    <tableColumn id="4" name="Due" dataDxfId="38"/>
+    <tableColumn id="3" name="Started" dataDxfId="37"/>
+    <tableColumn id="5" name="Finished" dataDxfId="36"/>
+    <tableColumn id="6" name="Added" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -762,13 +741,13 @@
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
     <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start" dataDxfId="35"/>
-    <tableColumn id="7" name="End" dataDxfId="34"/>
-    <tableColumn id="1" name="Hours" dataDxfId="33">
+    <tableColumn id="6" name="Start" dataDxfId="34"/>
+    <tableColumn id="7" name="End" dataDxfId="33"/>
+    <tableColumn id="1" name="Hours" dataDxfId="32">
       <calculatedColumnFormula>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Goal" dataDxfId="32"/>
-    <tableColumn id="3" name="Goal Description" dataDxfId="31">
+    <tableColumn id="2" name="Goal" dataDxfId="31"/>
+    <tableColumn id="3" name="Goal Description" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -792,9 +771,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Id" dataDxfId="30"/>
-    <tableColumn id="2" name="Start" dataDxfId="29"/>
-    <tableColumn id="3" name="End" dataDxfId="28">
+    <tableColumn id="1" name="Id" dataDxfId="29"/>
+    <tableColumn id="2" name="Start" dataDxfId="28"/>
+    <tableColumn id="3" name="End" dataDxfId="27">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -809,20 +788,20 @@
     <sortCondition descending="1" ref="J1:J21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Index" dataDxfId="27"/>
-    <tableColumn id="4" name="Period" dataDxfId="26">
+    <tableColumn id="2" name="Index" dataDxfId="26"/>
+    <tableColumn id="4" name="Period" dataDxfId="25">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="25">
+    <tableColumn id="5" name="Goal" dataDxfId="24">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="2">
+    <tableColumn id="1" name="Goal Description" dataDxfId="17">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="3">
+    <tableColumn id="6" name="Hours" dataDxfId="18">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="1">
+    <tableColumn id="3" name="Done" dataDxfId="16">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -831,24 +810,21 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ThisWeekTasks" displayName="ThisWeekTasks" ref="L1:P21" totalsRowShown="0">
-  <autoFilter ref="L1:P21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ThisWeekTasks" displayName="ThisWeekTasks" ref="L1:O21" totalsRowShown="0">
+  <autoFilter ref="L1:O21"/>
   <sortState ref="L2:P21">
     <sortCondition descending="1" ref="O1:O21"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="2" name="Index" dataDxfId="24"/>
+  <tableColumns count="4">
+    <tableColumn id="2" name="Index" dataDxfId="23"/>
     <tableColumn id="6" name="Period" dataDxfId="20">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="4">
+    <tableColumn id="5" name="Goal" dataDxfId="19">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="0">
+    <tableColumn id="1" name="Description" dataDxfId="15">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="23">
-      <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -856,10 +832,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ThisWeekQuestions" displayName="ThisWeekQuestions" ref="R1:S11" totalsRowShown="0">
-  <autoFilter ref="R1:S11"/>
-  <sortState ref="R2:S21">
-    <sortCondition descending="1" ref="R1:R21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ThisWeekQuestions" displayName="ThisWeekQuestions" ref="Q1:R11" totalsRowShown="0">
+  <autoFilter ref="Q1:R11"/>
+  <sortState ref="Q2:R21">
+    <sortCondition descending="1" ref="Q1:Q21"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="2" name="Index" dataDxfId="22"/>
@@ -1161,7 +1137,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1152,7 @@
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1190,20 +1166,20 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I1" t="str">
         <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
         <v>Current Period: 4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1223,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1243,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1263,12 +1239,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>42509</v>
@@ -1282,11 +1258,8 @@
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1305,11 +1278,8 @@
       <c r="G6" s="30">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1329,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -1348,11 +1318,8 @@
       <c r="G8" s="30">
         <v>2</v>
       </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>9</v>
       </c>
@@ -1371,11 +1338,8 @@
       <c r="G9" s="30">
         <v>3</v>
       </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1395,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1414,11 +1378,8 @@
       <c r="G11" s="30">
         <v>2</v>
       </c>
-      <c r="K11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1437,11 +1398,8 @@
       <c r="G12" s="30">
         <v>2</v>
       </c>
-      <c r="K12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1461,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>23</v>
       </c>
@@ -1481,12 +1439,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2">
         <v>42522</v>
@@ -1501,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1580,7 +1538,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2">
         <v>42529</v>
@@ -1588,7 +1546,9 @@
       <c r="E20" s="30">
         <v>4</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="30">
+        <v>4</v>
+      </c>
       <c r="G20" s="30">
         <v>4</v>
       </c>
@@ -1616,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2">
         <v>42577</v>
@@ -1732,7 +1692,7 @@
         <v>999</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="30"/>
@@ -1782,7 +1742,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -1797,10 +1757,10 @@
         <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2001,7 +1961,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2029,7 +1989,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2158,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,11 +2141,11 @@
     <col min="13" max="13" width="5" customWidth="1"/>
     <col min="14" max="14" width="6" customWidth="1"/>
     <col min="15" max="15" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
-    <col min="19" max="19" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" customWidth="1"/>
+    <col min="18" max="18" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2199,13 +2159,13 @@
         <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
         <v>51</v>
@@ -2217,25 +2177,22 @@
         <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
-        <v>34</v>
+      <c r="Q1" t="s">
+        <v>39</v>
       </c>
       <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -2286,19 +2243,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Reinforcement Learning an Introduction</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f t="array" ref="P2">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R2" s="5">
+      <c r="Q2" s="5">
         <v>-1</v>
       </c>
-      <c r="S2" t="str">
-        <f t="array" ref="S2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R2" t="str">
+        <f t="array" ref="R2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -2331,7 +2284,7 @@
       </c>
       <c r="J3" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="5">
@@ -2349,19 +2302,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Read all article Abstracts</v>
       </c>
-      <c r="P3" s="2" t="str">
-        <f t="array" ref="P3">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R3" s="5">
+      <c r="Q3" s="5">
         <v>-2</v>
       </c>
-      <c r="S3" t="str">
-        <f t="array" ref="S3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R3" t="str">
+        <f t="array" ref="R3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -2411,19 +2360,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Introduction to Statistical Learning Chp 2</v>
       </c>
-      <c r="P4" s="2" t="str">
-        <f t="array" ref="P4">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="5">
         <v>-3</v>
       </c>
-      <c r="S4" t="str">
-        <f t="array" ref="S4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R4" t="str">
+        <f t="array" ref="R4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -2473,19 +2418,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Finish a complete class plan</v>
       </c>
-      <c r="P5" s="2" t="str">
-        <f t="array" ref="P5">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="5">
         <v>-4</v>
       </c>
-      <c r="S5" t="str">
-        <f t="array" ref="S5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R5" t="str">
+        <f t="array" ref="R5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -2521,7 +2462,7 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="M6" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2535,19 +2476,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P6" s="2" t="str">
-        <f t="array" ref="P6">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R6" s="5">
+      <c r="Q6" s="5">
         <v>-5</v>
       </c>
-      <c r="S6" t="str">
-        <f t="array" ref="S6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R6" t="str">
+        <f t="array" ref="R6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="5">
         <v>-13</v>
       </c>
@@ -2573,33 +2510,29 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="5">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="M7" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="5" t="str">
         <f t="array" ref="N7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>26</v>
+        <v/>
       </c>
       <c r="O7" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Account for Conferences In Pub Plan</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f t="array" ref="P7">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R7" s="5">
+        <v/>
+      </c>
+      <c r="Q7" s="5">
         <v>-6</v>
       </c>
-      <c r="S7" t="str">
-        <f t="array" ref="S7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R7" t="str">
+        <f t="array" ref="R7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" s="5">
         <v>-15</v>
       </c>
@@ -2639,19 +2572,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P8" s="2" t="str">
-        <f t="array" ref="P8">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R8" s="5">
+      <c r="Q8" s="5">
         <v>-7</v>
       </c>
-      <c r="S8" t="str">
-        <f t="array" ref="S8">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" t="str">
+        <f t="array" ref="R8">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="5">
         <v>-16</v>
       </c>
@@ -2691,19 +2620,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P9" s="2" t="str">
-        <f t="array" ref="P9">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R9" s="5">
+      <c r="Q9" s="5">
         <v>-8</v>
       </c>
-      <c r="S9" t="str">
-        <f t="array" ref="S9">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" t="str">
+        <f t="array" ref="R9">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" s="5">
         <v>-17</v>
       </c>
@@ -2743,19 +2668,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P10" s="2" t="str">
-        <f t="array" ref="P10">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R10" s="5">
+      <c r="Q10" s="5">
         <v>-9</v>
       </c>
-      <c r="S10" t="str">
-        <f t="array" ref="S10">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R10" t="str">
+        <f t="array" ref="R10">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" s="5">
         <v>-18</v>
       </c>
@@ -2795,19 +2716,15 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P11" s="2" t="str">
-        <f t="array" ref="P11">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R11" s="5">
+      <c r="Q11" s="5">
         <v>-10</v>
       </c>
-      <c r="S11" t="str">
-        <f t="array" ref="S11">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R11" t="str">
+        <f t="array" ref="R11">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" s="5">
         <v>-19</v>
       </c>
@@ -2847,12 +2764,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P12" s="2" t="str">
-        <f t="array" ref="P12">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" s="5">
         <v>-20</v>
       </c>
@@ -2892,12 +2805,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P13" s="2" t="str">
-        <f t="array" ref="P13">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" s="5">
         <v>-8</v>
       </c>
@@ -2937,12 +2846,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P14" s="2" t="str">
-        <f t="array" ref="P14">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" s="5">
         <v>-7</v>
       </c>
@@ -2982,12 +2887,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P15" s="2" t="str">
-        <f t="array" ref="P15">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" s="5">
         <v>-6</v>
       </c>
@@ -3027,12 +2928,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P16" s="2" t="str">
-        <f t="array" ref="P16">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="5">
         <v>-5</v>
       </c>
@@ -3072,12 +2969,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P17" s="2" t="str">
-        <f t="array" ref="P17">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="5">
         <v>-4</v>
       </c>
@@ -3117,12 +3010,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P18" s="2" t="str">
-        <f t="array" ref="P18">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E19" s="5">
         <v>-3</v>
       </c>
@@ -3162,12 +3051,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P19" s="2" t="str">
-        <f t="array" ref="P19">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E20" s="5">
         <v>-2</v>
       </c>
@@ -3207,12 +3092,8 @@
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="P20" s="2" t="str">
-        <f t="array" ref="P20">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E21" s="5">
         <v>-1</v>
       </c>
@@ -3250,10 +3131,6 @@
       </c>
       <c r="O21" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="P21" s="2" t="str">
-        <f t="array" ref="P21">INDEX(IF((Goals[Started] &lt;= MAX(Periods[Start])) * (Goals[Finished] &gt; MAX(Periods[Start])) * (NOT(ISBLANK(Goals[Finished]))),  Goals[Finished], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
     </row>
@@ -3330,7 +3207,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>34</v>
@@ -3343,7 +3220,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -3370,7 +3247,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -3383,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
@@ -3393,7 +3270,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M5"/>
     </row>
@@ -3417,7 +3294,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M6"/>
     </row>
@@ -3441,7 +3318,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M7"/>
     </row>
@@ -3466,7 +3343,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M8"/>
     </row>
@@ -3485,13 +3362,13 @@
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="str">
-        <v>Account for Conferences In Pub Plan</v>
+        <v/>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M9"/>
     </row>
@@ -3516,7 +3393,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M10"/>
     </row>
@@ -3541,7 +3418,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M11"/>
     </row>
@@ -3566,7 +3443,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M12"/>
     </row>
@@ -4004,65 +3881,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -26,15 +26,6 @@
     <t>Regain access to my UVA online account</t>
   </si>
   <si>
-    <t>Get set up in my Campus Office</t>
-  </si>
-  <si>
-    <t>Set up my PTL Private Repository</t>
-  </si>
-  <si>
-    <t>Write my first weekly update to my Repository</t>
-  </si>
-  <si>
     <t>Fill out my vaccine medical form</t>
   </si>
   <si>
@@ -47,9 +38,6 @@
     <t>Reinforcement Learning an Introduction</t>
   </si>
   <si>
-    <t>Connect to Campus Wifi</t>
-  </si>
-  <si>
     <t>Create Linux instance on AWS with R installed</t>
   </si>
   <si>
@@ -62,12 +50,6 @@
     <t>Get campus parking pass</t>
   </si>
   <si>
-    <t>Read Prof. Gerber's Thoughts</t>
-  </si>
-  <si>
-    <t>Get in touch with Human Resources about TA</t>
-  </si>
-  <si>
     <t>Create curriculum plan</t>
   </si>
   <si>
@@ -125,15 +107,9 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Create Task Spreadsheet</t>
-  </si>
-  <si>
     <t>Work</t>
   </si>
   <si>
-    <t>Got Data Validation Working</t>
-  </si>
-  <si>
     <t>Questions/Issues</t>
   </si>
   <si>
@@ -146,18 +122,9 @@
     <t>Introduction to Statistical Learning Chp 2</t>
   </si>
   <si>
-    <t>Create Actual Update Report</t>
-  </si>
-  <si>
     <t>Last Week's Tasks</t>
   </si>
   <si>
-    <t>Read all article Abstracts</t>
-  </si>
-  <si>
-    <t>Add hours to Update Sheet</t>
-  </si>
-  <si>
     <t>No, I should assume I'll work during the summer and still take another semester after that.</t>
   </si>
   <si>
@@ -176,27 +143,15 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Organizing My Tasks</t>
-  </si>
-  <si>
     <t>Messing around with JabRef</t>
   </si>
   <si>
     <t>Finish a complete class plan</t>
   </si>
   <si>
-    <t>Organizing Course Catalog</t>
-  </si>
-  <si>
-    <t>Scanning Courses From Other Departments</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
-    <t>Present A Survey Of My Summer Reading</t>
-  </si>
-  <si>
     <t>Started</t>
   </si>
   <si>
@@ -209,28 +164,79 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Account for Conferences In Pub Plan</t>
-  </si>
-  <si>
     <t>Clone literature repository</t>
   </si>
   <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>Polishing Update Database</t>
-  </si>
-  <si>
-    <t>Refactoring Goals</t>
-  </si>
-  <si>
     <t>Goal Description</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Determine Pace for Article Survey</t>
+    <t>Shopping for a new laptop</t>
+  </si>
+  <si>
+    <t>Read all article abstracts</t>
+  </si>
+  <si>
+    <t>Present a survey of my summer reading</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Polishing update database</t>
+  </si>
+  <si>
+    <t>Scanning courses from other departments</t>
+  </si>
+  <si>
+    <t>Organizing course catalog</t>
+  </si>
+  <si>
+    <t>Organizing goals</t>
+  </si>
+  <si>
+    <t>Create actual update report</t>
+  </si>
+  <si>
+    <t>Got data validation working</t>
+  </si>
+  <si>
+    <t>Finishing R labs for chapter 2</t>
+  </si>
+  <si>
+    <t>Get set up in my campus office</t>
+  </si>
+  <si>
+    <t>Set up my PTL private repository</t>
+  </si>
+  <si>
+    <t>Read Prof. Gerber's thoughts</t>
+  </si>
+  <si>
+    <t>Write my first weekly update to my repository</t>
+  </si>
+  <si>
+    <t>Connect to campus wifi</t>
+  </si>
+  <si>
+    <t>Create task spreadsheet</t>
+  </si>
+  <si>
+    <t>Determine pace for article survey</t>
+  </si>
+  <si>
+    <t>Add hours to update sheet</t>
+  </si>
+  <si>
+    <t>Account for conferences in pub plan</t>
+  </si>
+  <si>
+    <t>Get in touch with HR about TA</t>
   </si>
 </sst>
 </file>
@@ -477,15 +483,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -620,10 +626,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -632,8 +635,13 @@
       <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -649,6 +657,19 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -669,21 +690,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -716,8 +722,12 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:G29" totalsRowShown="0">
-  <autoFilter ref="A1:G29"/>
-  <sortState ref="A2:G29">
+  <autoFilter ref="A1:G29">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A17:G30">
     <sortCondition ref="F2:F24"/>
     <sortCondition ref="D2:D24"/>
   </sortState>
@@ -735,19 +745,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H10" totalsRowShown="0">
-  <autoFilter ref="A1:H10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H12" totalsRowShown="0">
+  <autoFilter ref="A1:H12"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
     <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start" dataDxfId="34"/>
-    <tableColumn id="7" name="End" dataDxfId="33"/>
-    <tableColumn id="1" name="Hours" dataDxfId="32">
+    <tableColumn id="6" name="Start" dataDxfId="19"/>
+    <tableColumn id="7" name="End" dataDxfId="18"/>
+    <tableColumn id="1" name="Hours" dataDxfId="17">
       <calculatedColumnFormula>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Goal" dataDxfId="31"/>
-    <tableColumn id="3" name="Goal Description" dataDxfId="30">
+    <tableColumn id="2" name="Goal" dataDxfId="16"/>
+    <tableColumn id="3" name="Goal Description" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -771,9 +781,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Id" dataDxfId="29"/>
-    <tableColumn id="2" name="Start" dataDxfId="28"/>
-    <tableColumn id="3" name="End" dataDxfId="27">
+    <tableColumn id="1" name="Id" dataDxfId="34"/>
+    <tableColumn id="2" name="Start" dataDxfId="33"/>
+    <tableColumn id="3" name="End" dataDxfId="32">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -788,20 +798,20 @@
     <sortCondition descending="1" ref="J1:J21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Index" dataDxfId="26"/>
-    <tableColumn id="4" name="Period" dataDxfId="25">
+    <tableColumn id="2" name="Index" dataDxfId="31"/>
+    <tableColumn id="4" name="Period" dataDxfId="30">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="24">
+    <tableColumn id="5" name="Goal" dataDxfId="29">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="17">
+    <tableColumn id="1" name="Goal Description" dataDxfId="28">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="18">
+    <tableColumn id="6" name="Hours" dataDxfId="27">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="16">
+    <tableColumn id="3" name="Done" dataDxfId="26">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -812,18 +822,18 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ThisWeekTasks" displayName="ThisWeekTasks" ref="L1:O21" totalsRowShown="0">
   <autoFilter ref="L1:O21"/>
-  <sortState ref="L2:P21">
+  <sortState ref="L2:O21">
     <sortCondition descending="1" ref="O1:O21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="23"/>
-    <tableColumn id="6" name="Period" dataDxfId="20">
+    <tableColumn id="2" name="Index" dataDxfId="25"/>
+    <tableColumn id="6" name="Period" dataDxfId="24">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="19">
+    <tableColumn id="5" name="Goal" dataDxfId="23">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="15">
+    <tableColumn id="1" name="Description" dataDxfId="22">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -838,8 +848,8 @@
     <sortCondition descending="1" ref="Q1:Q21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="22"/>
-    <tableColumn id="1" name="Question" dataDxfId="21">
+    <tableColumn id="2" name="Index" dataDxfId="21"/>
+    <tableColumn id="1" name="Question" dataDxfId="20">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1137,7 +1147,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,32 +1164,32 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I1" t="str">
         <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
         <v>Current Period: 4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1219,12 +1229,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2">
         <v>42508</v>
@@ -1239,12 +1249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
         <v>42509</v>
@@ -1259,12 +1269,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2">
         <v>42509</v>
@@ -1279,12 +1289,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2">
         <v>42509</v>
@@ -1299,12 +1309,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2">
         <v>42515</v>
@@ -1319,12 +1329,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2">
         <v>42515</v>
@@ -1339,12 +1349,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <v>42515</v>
@@ -1359,12 +1369,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>42522</v>
@@ -1379,12 +1389,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <v>42522</v>
@@ -1399,12 +1409,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <v>42522</v>
@@ -1419,12 +1429,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2">
         <v>42522</v>
@@ -1439,12 +1449,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2">
         <v>42522</v>
@@ -1459,12 +1469,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>42529</v>
@@ -1472,7 +1482,9 @@
       <c r="E16" s="30">
         <v>3</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="30">
+        <v>4</v>
+      </c>
       <c r="G16" s="30">
         <v>3</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2">
         <v>42529</v>
@@ -1500,7 +1512,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2">
         <v>42529</v>
@@ -1513,12 +1525,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2">
         <v>42529</v>
@@ -1533,12 +1545,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2">
         <v>42529</v>
@@ -1558,7 +1570,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>42529</v>
@@ -1576,7 +1588,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2">
         <v>42577</v>
@@ -1592,10 +1604,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
         <v>42583</v>
@@ -1612,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2">
         <v>42583</v>
@@ -1628,7 +1640,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2">
         <v>42583</v>
@@ -1644,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2">
         <v>42583</v>
@@ -1660,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2">
         <v>42583</v>
@@ -1676,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2">
         <v>42583</v>
@@ -1689,10 +1701,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="30"/>
@@ -1707,8 +1719,8 @@
     <hyperlink ref="B11" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
     <hyperlink ref="B12" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B13" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B27" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId7" display="Read Prof. Gerber's Thoughts"/>
+    <hyperlink ref="B27" r:id="rId8" display="Get in touch with Human Resources about TA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -1720,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,33 +1751,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1788,12 +1800,12 @@
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Create Task Spreadsheet</v>
+        <v>Create task spreadsheet</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1816,12 +1828,12 @@
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Create Task Spreadsheet</v>
+        <v>Create task spreadsheet</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1839,17 +1851,15 @@
         <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G4" s="30">
-        <v>999</v>
-      </c>
+      <c r="G4" s="30"/>
       <c r="H4" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Refactoring Goals</v>
+        <v>Miscellaneous</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1872,12 +1882,12 @@
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read all article Abstracts</v>
+        <v>Read all article abstracts</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1905,7 +1915,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1933,7 +1943,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1961,7 +1971,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1984,12 +1994,12 @@
       </c>
       <c r="H9" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Add hours to Update Sheet</v>
+        <v>Add hours to update sheet</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2001,24 +2011,78 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E10" s="6">
-        <v>0.70833333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="F10" s="6">
         <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
-        <v>6.25E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="G10" s="30">
         <v>25</v>
       </c>
       <c r="H10" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Add hours to Update Sheet</v>
+        <v>Add hours to update sheet</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42526</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F11" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42526</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.84375</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="F12" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G12" s="30">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2044,21 +2108,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3">
         <v>42522</v>
@@ -2066,10 +2130,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
         <v>42522</v>
@@ -2077,10 +2141,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>42522</v>
@@ -2088,10 +2152,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>42522</v>
@@ -2099,10 +2163,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3">
         <v>42522</v>
@@ -2121,12 +2185,12 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
@@ -2147,49 +2211,49 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="R1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2217,11 +2281,11 @@
       </c>
       <c r="H2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Add hours to Update Sheet</v>
+        <v>Add hours to update sheet</v>
       </c>
       <c r="I2" s="6">
         <f t="array" ref="I2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.16666666666666663</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="J2" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
@@ -2276,7 +2340,7 @@
       </c>
       <c r="H3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Account for Conferences In Pub Plan</v>
+        <v>Account for conferences in pub plan</v>
       </c>
       <c r="I3" s="6">
         <f t="array" ref="I3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
@@ -2300,7 +2364,7 @@
       </c>
       <c r="O3" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read all article Abstracts</v>
+        <v>Read all article abstracts</v>
       </c>
       <c r="Q3" s="5">
         <v>-2</v>
@@ -2322,7 +2386,7 @@
         <v>42522</v>
       </c>
       <c r="E4" s="5">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="F4" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2330,23 +2394,23 @@
       </c>
       <c r="G4" s="30">
         <f t="array" ref="G4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish a complete class plan</v>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="I4" s="6">
         <f t="array" ref="I4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.19791666666666674</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="J4" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="M4" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2354,11 +2418,11 @@
       </c>
       <c r="N4" s="5">
         <f t="array" ref="N4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="O4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="Q4" s="5">
         <v>-3</v>
@@ -2380,7 +2444,7 @@
         <v>42529</v>
       </c>
       <c r="E5" s="5">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F5" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2388,15 +2452,15 @@
       </c>
       <c r="G5" s="30">
         <f t="array" ref="G5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Read all article abstracts</v>
       </c>
       <c r="I5" s="6">
         <f t="array" ref="I5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="J5" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
@@ -2404,19 +2468,19 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="5">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="M5" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="5" t="str">
         <f t="array" ref="N5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
+        <v/>
       </c>
       <c r="O5" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish a complete class plan</v>
+        <v/>
       </c>
       <c r="Q5" s="5">
         <v>-4</v>
@@ -2438,7 +2502,7 @@
         <v>42536</v>
       </c>
       <c r="E6" s="5">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F6" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2446,15 +2510,15 @@
       </c>
       <c r="G6" s="30">
         <f t="array" ref="G6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H6" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read all article Abstracts</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="I6" s="6">
         <f t="array" ref="I6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>1.041666666666663E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
@@ -2486,7 +2550,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="5">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F7" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2494,15 +2558,15 @@
       </c>
       <c r="G7" s="30">
         <f t="array" ref="G7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
-      </c>
-      <c r="H7" t="str">
+        <v>27</v>
+      </c>
+      <c r="H7" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="I7" s="6">
         <f t="array" ref="I7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.19791666666666674</v>
       </c>
       <c r="J7" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
@@ -3136,11 +3200,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3169,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3179,11 +3244,11 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="43">
+      <c r="J1" s="46">
         <f>MAX(Periods[Start])</f>
         <v>42529</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="13"/>
       <c r="M1" s="7"/>
     </row>
@@ -3202,37 +3267,37 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="38" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F3" s="16"/>
       <c r="H3" s="25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v>Add hours to Update Sheet</v>
+        <v>Add hours to update sheet</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="45">
+      <c r="D4" s="43">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0.16666666666666663</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="E4" s="35" t="b">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
@@ -3247,16 +3312,16 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Account for Conferences In Pub Plan</v>
+        <v>Account for conferences in pub plan</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="46">
+      <c r="D5" s="44">
         <v>0</v>
       </c>
       <c r="E5" s="36" t="b">
@@ -3264,72 +3329,72 @@
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
-        <v>Read all article Abstracts</v>
+        <v>Read all article abstracts</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Finish a complete class plan</v>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="47">
-        <v>0.19791666666666674</v>
+      <c r="D6" s="45">
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E6" s="35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Read all article abstracts</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="47">
-        <v>0</v>
+      <c r="D7" s="45">
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E7" s="35" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
-        <v>Finish a complete class plan</v>
+        <v/>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Read all article Abstracts</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="47">
-        <v>1.041666666666663E-2</v>
+      <c r="D8" s="45">
+        <v>0</v>
       </c>
       <c r="E8" s="35" t="b">
         <v>0</v>
@@ -3343,18 +3408,18 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="47">
-        <v>0</v>
+      <c r="D9" s="45">
+        <v>0.19791666666666674</v>
       </c>
       <c r="E9" s="35" t="b">
         <v>0</v>
@@ -3368,7 +3433,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M9"/>
     </row>
@@ -3378,7 +3443,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="47" t="str">
+      <c r="D10" s="45" t="str">
         <v/>
       </c>
       <c r="E10" s="35" t="str">
@@ -3393,7 +3458,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M10"/>
     </row>
@@ -3403,7 +3468,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="47" t="str">
+      <c r="D11" s="45" t="str">
         <v/>
       </c>
       <c r="E11" s="35" t="str">
@@ -3418,7 +3483,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M11"/>
     </row>
@@ -3428,7 +3493,7 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="45" t="str">
+      <c r="D12" s="43" t="str">
         <v/>
       </c>
       <c r="E12" s="35" t="str">
@@ -3443,7 +3508,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M12"/>
     </row>
@@ -3584,7 +3649,7 @@
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ID Cards To receive your University I.D. card you will need to go to the University I.D. Card Office, Observatory Hill Dining Hall between the hours of 8:30 a.m. and 4:30 p.m. after completion of your registration.  For information regarding the University ID Card Office visit http://www.virginia.edu/idoffice/.  Please remember to bring with you a valid state or government issued picture identification card (either your U.S. driver’s license, passport or U.S. military ID) in order to pick up your University ID. You will need your UVA email account first.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ll students are required to have health insurance. Once you arrive on Grounds, and have picked up your ID card, you will be able to sign up for health insurance through the University sponsored health plan.  If health insurance subsidy is included in your Financial Aid package, please go tohttp://www.aetnastudenthealth.com/stu_conn/student_connection.aspx?groupID=812806   to complete the Aetna Health Plan enrollment. This initial enrollment will cover the summer, through mid-August.  You will need to pay for the insurance, and then request reimbursement from the department, because of your summer start date.  You will register again for a full year in August, and will need documentation of your immunizations at that time.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -41,15 +100,9 @@
     <t>Create Linux instance on AWS with R installed</t>
   </si>
   <si>
-    <t>Sign up as TA</t>
-  </si>
-  <si>
     <t>Get campus ID card</t>
   </si>
   <si>
-    <t>Get campus parking pass</t>
-  </si>
-  <si>
     <t>Create curriculum plan</t>
   </si>
   <si>
@@ -158,9 +211,6 @@
     <t>Finished</t>
   </si>
   <si>
-    <t>Added</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -236,7 +286,28 @@
     <t>Account for conferences in pub plan</t>
   </si>
   <si>
-    <t>Get in touch with HR about TA</t>
+    <t>Reading Abstracts</t>
+  </si>
+  <si>
+    <t>Can we design a CHS conceptual framework that works in all situations</t>
+  </si>
+  <si>
+    <t>How have HHS systems been modeled?</t>
+  </si>
+  <si>
+    <t>What classes am I "qualified" to GTA?</t>
+  </si>
+  <si>
+    <t>Write Jayne my TA preferences</t>
+  </si>
+  <si>
+    <t>Sign up for Health Insurance</t>
+  </si>
+  <si>
+    <t>Register for classes</t>
+  </si>
+  <si>
+    <t>Going through Jayne's Emails</t>
   </si>
 </sst>
 </file>
@@ -249,7 +320,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +404,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -500,7 +584,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="39">
     <dxf>
       <border>
         <right style="thin">
@@ -626,21 +710,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -692,7 +761,19 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -721,43 +802,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:G29" totalsRowShown="0">
-  <autoFilter ref="A1:G29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="14"/>
+        <filter val="16"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="19"/>
+        <filter val="22"/>
+        <filter val="24"/>
+        <filter val="27"/>
+        <filter val="28"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A17:G30">
+  <sortState ref="A17:F29">
     <sortCondition ref="F2:F24"/>
     <sortCondition ref="D2:D24"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="8" name="Id" dataDxfId="39"/>
+  <tableColumns count="6">
+    <tableColumn id="8" name="Id" dataDxfId="38"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="38"/>
-    <tableColumn id="3" name="Started" dataDxfId="37"/>
-    <tableColumn id="5" name="Finished" dataDxfId="36"/>
-    <tableColumn id="6" name="Added" dataDxfId="35"/>
+    <tableColumn id="4" name="Due" dataDxfId="37"/>
+    <tableColumn id="3" name="Started" dataDxfId="36"/>
+    <tableColumn id="5" name="Finished" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H12" totalsRowShown="0">
-  <autoFilter ref="A1:H12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H14" totalsRowShown="0">
+  <autoFilter ref="A1:H14"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
     <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start" dataDxfId="19"/>
-    <tableColumn id="7" name="End" dataDxfId="18"/>
-    <tableColumn id="1" name="Hours" dataDxfId="17">
+    <tableColumn id="6" name="Start" dataDxfId="34"/>
+    <tableColumn id="7" name="End" dataDxfId="33"/>
+    <tableColumn id="1" name="Hours" dataDxfId="32">
       <calculatedColumnFormula>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Goal" dataDxfId="16"/>
-    <tableColumn id="3" name="Goal Description" dataDxfId="15">
+    <tableColumn id="2" name="Goal" dataDxfId="31"/>
+    <tableColumn id="3" name="Goal Description" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -766,8 +859,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Question"/>
     <tableColumn id="2" name="Answer"/>
@@ -781,9 +874,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" name="Start" dataDxfId="33"/>
-    <tableColumn id="3" name="End" dataDxfId="32">
+    <tableColumn id="1" name="Id" dataDxfId="29"/>
+    <tableColumn id="2" name="Start" dataDxfId="28"/>
+    <tableColumn id="3" name="End" dataDxfId="27">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -798,20 +891,20 @@
     <sortCondition descending="1" ref="J1:J21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Index" dataDxfId="31"/>
-    <tableColumn id="4" name="Period" dataDxfId="30">
+    <tableColumn id="2" name="Index" dataDxfId="26"/>
+    <tableColumn id="4" name="Period" dataDxfId="25">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="29">
+    <tableColumn id="5" name="Goal" dataDxfId="24">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="28">
+    <tableColumn id="1" name="Goal Description" dataDxfId="23">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="27">
+    <tableColumn id="6" name="Hours" dataDxfId="22">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="26">
+    <tableColumn id="3" name="Done" dataDxfId="21">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -826,14 +919,14 @@
     <sortCondition descending="1" ref="O1:O21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="25"/>
-    <tableColumn id="6" name="Period" dataDxfId="24">
+    <tableColumn id="2" name="Index" dataDxfId="20"/>
+    <tableColumn id="6" name="Period" dataDxfId="19">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="23">
+    <tableColumn id="5" name="Goal" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="22">
+    <tableColumn id="1" name="Description" dataDxfId="17">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -848,8 +941,8 @@
     <sortCondition descending="1" ref="Q1:Q21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="21"/>
-    <tableColumn id="1" name="Question" dataDxfId="20">
+    <tableColumn id="2" name="Index" dataDxfId="16"/>
+    <tableColumn id="1" name="Question" dataDxfId="15">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1143,11 +1236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,34 +1255,31 @@
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="str">
+        <v>43</v>
+      </c>
+      <c r="H1" t="str">
         <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
         <v>Current Period: 4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1205,11 +1295,8 @@
       <c r="F2" s="30">
         <v>2</v>
       </c>
-      <c r="G2" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1225,16 +1312,13 @@
       <c r="F3" s="30">
         <v>2</v>
       </c>
-      <c r="G3" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>42508</v>
@@ -1245,16 +1329,13 @@
       <c r="F4" s="30">
         <v>2</v>
       </c>
-      <c r="G4" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2">
         <v>42509</v>
@@ -1265,16 +1346,13 @@
       <c r="F5" s="30">
         <v>2</v>
       </c>
-      <c r="G5" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
         <v>42509</v>
@@ -1285,16 +1363,13 @@
       <c r="F6" s="30">
         <v>2</v>
       </c>
-      <c r="G6" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2">
         <v>42509</v>
@@ -1305,16 +1380,13 @@
       <c r="F7" s="30">
         <v>2</v>
       </c>
-      <c r="G7" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2">
         <v>42515</v>
@@ -1325,16 +1397,13 @@
       <c r="F8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
         <v>42515</v>
@@ -1345,11 +1414,8 @@
       <c r="F9" s="30">
         <v>3</v>
       </c>
-      <c r="G9" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1365,16 +1431,13 @@
       <c r="F10" s="30">
         <v>3</v>
       </c>
-      <c r="G10" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>42522</v>
@@ -1385,16 +1448,13 @@
       <c r="F11" s="30">
         <v>3</v>
       </c>
-      <c r="G11" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
         <v>42522</v>
@@ -1405,16 +1465,13 @@
       <c r="F12" s="30">
         <v>3</v>
       </c>
-      <c r="G12" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>42522</v>
@@ -1425,16 +1482,13 @@
       <c r="F13" s="30">
         <v>3</v>
       </c>
-      <c r="G13" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2">
         <v>42522</v>
@@ -1445,16 +1499,13 @@
       <c r="F14" s="30">
         <v>3</v>
       </c>
-      <c r="G14" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2">
         <v>42522</v>
@@ -1465,16 +1516,13 @@
       <c r="F15" s="30">
         <v>3</v>
       </c>
-      <c r="G15" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>42529</v>
@@ -1485,11 +1533,8 @@
       <c r="F16" s="30">
         <v>4</v>
       </c>
-      <c r="G16" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1503,16 +1548,13 @@
         <v>3</v>
       </c>
       <c r="F17" s="30"/>
-      <c r="G17" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2">
         <v>42529</v>
@@ -1521,16 +1563,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2">
         <v>42529</v>
@@ -1541,16 +1580,13 @@
       <c r="F19" s="30">
         <v>4</v>
       </c>
-      <c r="G19" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>42529</v>
@@ -1561,16 +1597,13 @@
       <c r="F20" s="30">
         <v>4</v>
       </c>
-      <c r="G20" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
         <v>42529</v>
@@ -1579,151 +1612,128 @@
         <v>4</v>
       </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42538</v>
+      </c>
+      <c r="E22" s="30">
+        <v>5</v>
+      </c>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2">
         <v>42577</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>42583</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
-      <c r="G23" s="30">
-        <v>3</v>
-      </c>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
         <v>42583</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
-      <c r="G24" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2">
-        <v>42583</v>
+        <v>42585</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
-      <c r="G25" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2">
-        <v>42583</v>
+        <v>42586</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>42583</v>
+        <v>42587</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2">
-        <v>42583</v>
+        <v>42587</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
     <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B23" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
+    <hyperlink ref="B27" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
     <hyperlink ref="B11" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
     <hyperlink ref="B12" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B13" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B8" r:id="rId7" display="Read Prof. Gerber's Thoughts"/>
-    <hyperlink ref="B27" r:id="rId8" display="Get in touch with Human Resources about TA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <tableParts count="1">
     <tablePart r:id="rId10"/>
   </tableParts>
@@ -1732,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,33 +1761,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1805,7 +1815,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1833,7 +1843,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1859,7 +1869,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1887,7 +1897,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1915,7 +1925,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1943,7 +1953,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1971,7 +1981,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1999,7 +2009,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2027,7 +2037,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2053,7 +2063,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -2079,10 +2089,64 @@
         <v>Introduction to Statistical Learning Chp 2</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42527</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.84375</v>
+      </c>
+      <c r="F13" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G13" s="30">
+        <v>24</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read all article abstracts</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42161</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.84375</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F14" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H14"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2094,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,21 +2172,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3">
         <v>42522</v>
@@ -2130,10 +2194,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3">
         <v>42522</v>
@@ -2141,10 +2205,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3">
         <v>42522</v>
@@ -2152,10 +2216,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3">
         <v>42522</v>
@@ -2163,13 +2227,37 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3">
         <v>42522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42527</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2273,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,49 +2299,49 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2269,7 +2357,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="F2" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2277,15 +2365,15 @@
       </c>
       <c r="G2" s="30">
         <f t="array" ref="G2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Add hours to update sheet</v>
+        <v>Account for conferences in pub plan</v>
       </c>
       <c r="I2" s="6">
         <f t="array" ref="I2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.17708333333333326</v>
+        <v>0</v>
       </c>
       <c r="J2" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
@@ -2293,26 +2381,26 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="5">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="M2" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="5" t="str">
         <f t="array" ref="N2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="O2" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v/>
       </c>
       <c r="Q2" s="5">
         <v>-1</v>
       </c>
       <c r="R2" t="str">
         <f t="array" ref="R2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>What classes am I "qualified" to GTA?</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2328,7 +2416,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="5">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="F3" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2336,11 +2424,11 @@
       </c>
       <c r="G3" s="30">
         <f t="array" ref="G3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Account for conferences in pub plan</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="I3" s="6">
         <f t="array" ref="I3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
@@ -2348,7 +2436,7 @@
       </c>
       <c r="J3" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="5">
@@ -2371,7 +2459,7 @@
       </c>
       <c r="R3" t="str">
         <f t="array" ref="R3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>How have HHS systems been modeled?</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2386,7 +2474,7 @@
         <v>42522</v>
       </c>
       <c r="E4" s="5">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="F4" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2394,42 +2482,42 @@
       </c>
       <c r="G4" s="30">
         <f t="array" ref="G4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>13</v>
-      </c>
-      <c r="H4" t="str">
+        <v>27</v>
+      </c>
+      <c r="H4" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="I4" s="6">
         <f t="array" ref="I4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>2.083333333333337E-2</v>
+        <v>0.19791666666666674</v>
       </c>
       <c r="J4" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="M4" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="5" t="str">
         <f t="array" ref="N4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
+        <v/>
       </c>
       <c r="O4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish a complete class plan</v>
+        <v/>
       </c>
       <c r="Q4" s="5">
         <v>-3</v>
       </c>
       <c r="R4" t="str">
         <f t="array" ref="R4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Can we design a CHS conceptual framework that works in all situations</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2444,7 +2532,7 @@
         <v>42529</v>
       </c>
       <c r="E5" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F5" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2452,35 +2540,35 @@
       </c>
       <c r="G5" s="30">
         <f t="array" ref="G5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read all article abstracts</v>
+        <v>Add hours to update sheet</v>
       </c>
       <c r="I5" s="6">
         <f t="array" ref="I5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>1.041666666666663E-2</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="J5" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="5">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="M5" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N5" s="5" t="str">
+      <c r="N5" s="5">
         <f t="array" ref="N5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="O5" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Write Jayne my TA preferences</v>
       </c>
       <c r="Q5" s="5">
         <v>-4</v>
@@ -2502,7 +2590,7 @@
         <v>42536</v>
       </c>
       <c r="E6" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F6" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2510,15 +2598,15 @@
       </c>
       <c r="G6" s="30">
         <f t="array" ref="G6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H6" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Read all article abstracts</v>
       </c>
       <c r="I6" s="6">
         <f t="array" ref="I6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J6" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
@@ -2526,19 +2614,19 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="5">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="M6" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N6" s="5" t="str">
+      <c r="N6" s="5">
         <f t="array" ref="N6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="O6" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="Q6" s="5">
         <v>-5</v>
@@ -2550,43 +2638,43 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="F7" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="30" t="str">
         <f t="array" ref="G7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
-      </c>
-      <c r="H7" s="15" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish a complete class plan</v>
-      </c>
-      <c r="I7" s="6">
+        <v/>
+      </c>
+      <c r="I7" s="6" t="str">
         <f t="array" ref="I7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.19791666666666674</v>
-      </c>
-      <c r="J7" s="30" t="b">
+        <v/>
+      </c>
+      <c r="J7" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="5">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="M7" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N7" s="5" t="str">
+      <c r="N7" s="5">
         <f t="array" ref="N7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="O7" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="Q7" s="5">
         <v>-6</v>
@@ -2598,31 +2686,31 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F8" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="30" t="str">
+      <c r="G8" s="30">
         <f t="array" ref="G8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="H8" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="I8" s="6" t="str">
+        <v>Introduction to Statistical Learning Chp 2</v>
+      </c>
+      <c r="I8" s="6">
         <f t="array" ref="I8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J8" s="30" t="str">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J8" s="30" t="b">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="5">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="M8" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2632,7 +2720,7 @@
         <f t="array" ref="N8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="O8" s="30" t="str">
+      <c r="O8" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -2646,7 +2734,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="F9" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2656,7 +2744,7 @@
         <f t="array" ref="G9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="H9" s="30" t="str">
+      <c r="H9" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -2670,7 +2758,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="5">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="M9" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2694,7 +2782,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="F10" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2718,7 +2806,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="5">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="M10" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2728,7 +2816,7 @@
         <f t="array" ref="N10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="O10" t="str">
+      <c r="O10" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -2742,7 +2830,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="F11" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2766,7 +2854,7 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="5">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="M11" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2790,7 +2878,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="F12" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2814,7 +2902,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="5">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M12" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2831,7 +2919,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="F13" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2855,7 +2943,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M13" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2872,7 +2960,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" s="5">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="F14" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2882,7 +2970,7 @@
         <f t="array" ref="G14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -2896,7 +2984,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="5">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="M14" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2937,7 +3025,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="5">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M15" s="30">
         <f>MAX(Periods[Id])</f>
@@ -3234,7 +3322,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -3267,37 +3355,37 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="16"/>
       <c r="H3" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v>Add hours to update sheet</v>
+        <v>Account for conferences in pub plan</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="43">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0.17708333333333326</v>
+        <v>0</v>
       </c>
       <c r="E4" s="35" t="b">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
@@ -3306,18 +3394,18 @@
       <c r="F4" s="16"/>
       <c r="H4" s="10" t="str">
         <f t="array" ref="H4:H18">ThisWeekTasks[Description]</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v/>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Account for conferences in pub plan</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -3325,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
@@ -3335,66 +3423,66 @@
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="45">
-        <v>2.083333333333337E-2</v>
+        <v>0.19791666666666674</v>
       </c>
       <c r="E6" s="35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>Finish a complete class plan</v>
+        <v/>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Read all article abstracts</v>
+        <v>Add hours to update sheet</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="45">
-        <v>1.041666666666663E-2</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="E7" s="35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
-        <v/>
+        <v>Write Jayne my TA preferences</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Read all article abstracts</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="45">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E8" s="35" t="b">
         <v>0</v>
@@ -3402,52 +3490,52 @@
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="str">
-        <v/>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Finish a complete class plan</v>
+        <v/>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="45">
-        <v>0.19791666666666674</v>
-      </c>
-      <c r="E9" s="35" t="b">
-        <v>0</v>
+      <c r="D9" s="45" t="str">
+        <v/>
+      </c>
+      <c r="E9" s="35" t="str">
+        <v/>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="str">
-        <v/>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v/>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="45" t="str">
-        <v/>
-      </c>
-      <c r="E10" s="35" t="str">
-        <v/>
+      <c r="D10" s="45">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E10" s="35" t="b">
+        <v>1</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="13"/>
@@ -3458,7 +3546,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M10"/>
     </row>
@@ -3483,7 +3571,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M11"/>
     </row>
@@ -3508,7 +3596,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M12"/>
     </row>
@@ -3649,7 +3737,7 @@
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -3667,7 +3755,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v/>
+        <v>What classes am I "qualified" to GTA?</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -3684,7 +3772,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v/>
+        <v>How have HHS systems been modeled?</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3701,7 +3789,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v/>
+        <v>Can we design a CHS conceptual framework that works in all situations</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -298,9 +298,6 @@
     <t>What classes am I "qualified" to GTA?</t>
   </si>
   <si>
-    <t>Write Jayne my TA preferences</t>
-  </si>
-  <si>
     <t>Sign up for Health Insurance</t>
   </si>
   <si>
@@ -308,6 +305,18 @@
   </si>
   <si>
     <t>Going through Jayne's Emails</t>
+  </si>
+  <si>
+    <t>Send Jayne my TA preferences</t>
+  </si>
+  <si>
+    <t>Playing with JabRef</t>
+  </si>
+  <si>
+    <t>Can I use my own branch in literature?</t>
+  </si>
+  <si>
+    <t>Integrate into UVA System</t>
   </si>
 </sst>
 </file>
@@ -511,7 +520,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -555,8 +564,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,15 +574,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -584,7 +604,146 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="54">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <right style="thin">
@@ -732,9 +891,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
@@ -759,21 +915,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -802,8 +943,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F29" totalsRowShown="0">
-  <autoFilter ref="A1:F29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30">
     <filterColumn colId="0">
       <filters>
         <filter val="14"/>
@@ -815,42 +956,44 @@
         <filter val="24"/>
         <filter val="27"/>
         <filter val="28"/>
+        <filter val="29"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A17:F29">
-    <sortCondition ref="F2:F24"/>
-    <sortCondition ref="D2:D24"/>
+  <sortState ref="A17:F30">
+    <sortCondition ref="F2:F30"/>
+    <sortCondition ref="E2:E30"/>
+    <sortCondition ref="D2:D30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="8" name="Id" dataDxfId="38"/>
+    <tableColumn id="8" name="Id" dataDxfId="53"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="37"/>
-    <tableColumn id="3" name="Started" dataDxfId="36"/>
-    <tableColumn id="5" name="Finished" dataDxfId="35"/>
+    <tableColumn id="4" name="Due" dataDxfId="52"/>
+    <tableColumn id="3" name="Started" dataDxfId="51"/>
+    <tableColumn id="5" name="Finished" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H14" totalsRowShown="0">
-  <autoFilter ref="A1:H14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H15" totalsRowShown="0">
+  <autoFilter ref="A1:H15"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
     <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start" dataDxfId="34"/>
-    <tableColumn id="7" name="End" dataDxfId="33"/>
-    <tableColumn id="1" name="Hours" dataDxfId="32">
+    <tableColumn id="6" name="Start" dataDxfId="5"/>
+    <tableColumn id="7" name="End" dataDxfId="4"/>
+    <tableColumn id="1" name="Hours" dataDxfId="3">
       <calculatedColumnFormula>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Goal" dataDxfId="31"/>
-    <tableColumn id="3" name="Goal Description" dataDxfId="30">
+    <tableColumn id="2" name="Goal" dataDxfId="2"/>
+    <tableColumn id="3" name="Goal Description" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -859,8 +1002,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Question"/>
     <tableColumn id="2" name="Answer"/>
@@ -874,9 +1017,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Id" dataDxfId="29"/>
-    <tableColumn id="2" name="Start" dataDxfId="28"/>
-    <tableColumn id="3" name="End" dataDxfId="27">
+    <tableColumn id="1" name="Id" dataDxfId="49"/>
+    <tableColumn id="2" name="Start" dataDxfId="48"/>
+    <tableColumn id="3" name="End" dataDxfId="47">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -891,21 +1034,21 @@
     <sortCondition descending="1" ref="J1:J21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Index" dataDxfId="26"/>
-    <tableColumn id="4" name="Period" dataDxfId="25">
+    <tableColumn id="2" name="Index" dataDxfId="46"/>
+    <tableColumn id="4" name="Period" dataDxfId="45">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="24">
+    <tableColumn id="5" name="Goal" dataDxfId="44">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="23">
+    <tableColumn id="1" name="Goal Description" dataDxfId="43">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="22">
+    <tableColumn id="6" name="Hours" dataDxfId="42">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="21">
-      <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</calculatedColumnFormula>
+    <tableColumn id="3" name="Done" dataDxfId="0">
+      <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -919,14 +1062,14 @@
     <sortCondition descending="1" ref="O1:O21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="20"/>
-    <tableColumn id="6" name="Period" dataDxfId="19">
+    <tableColumn id="2" name="Index" dataDxfId="41"/>
+    <tableColumn id="6" name="Period" dataDxfId="40">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="18">
+    <tableColumn id="5" name="Goal" dataDxfId="39">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="17">
+    <tableColumn id="1" name="Description" dataDxfId="38">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -941,8 +1084,8 @@
     <sortCondition descending="1" ref="Q1:Q21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="16"/>
-    <tableColumn id="1" name="Question" dataDxfId="15">
+    <tableColumn id="2" name="Index" dataDxfId="37"/>
+    <tableColumn id="1" name="Question" dataDxfId="36">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1237,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,94 +1758,96 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D22" s="2">
-        <v>42538</v>
+        <v>42597</v>
       </c>
       <c r="E22" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2">
-        <v>42577</v>
-      </c>
-      <c r="E23" s="30"/>
+        <v>42538</v>
+      </c>
+      <c r="E23" s="30">
+        <v>5</v>
+      </c>
       <c r="F23" s="30"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2">
-        <v>42583</v>
+        <v>42577</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>42585</v>
+        <v>42583</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2">
-        <v>42586</v>
+        <v>42585</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="2">
-        <v>42587</v>
+        <v>42586</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
       </c>
       <c r="D28" s="2">
         <v>42587</v>
@@ -1720,12 +1865,25 @@
       <c r="D29" s="2"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="2">
+        <v>42587</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
     <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B27" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
+    <hyperlink ref="B28" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
     <hyperlink ref="B11" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
     <hyperlink ref="B12" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B13" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
@@ -1742,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,10 +2213,12 @@
         <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="30">
+        <v>29</v>
+      </c>
       <c r="H11" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Miscellaneous</v>
+        <v>Integrate into UVA System</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2119,7 +2279,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2137,16 +2297,46 @@
         <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="30">
+        <v>29</v>
+      </c>
       <c r="H14" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Miscellaneous</v>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42528</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F15" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="G15" s="30">
+        <v>24</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read all article abstracts</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H15"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2158,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,6 +2448,14 @@
       </c>
       <c r="C9" s="3">
         <v>42527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42528</v>
       </c>
     </row>
   </sheetData>
@@ -2273,7 +2471,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2555,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="5">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="F2" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2375,32 +2573,32 @@
         <f t="array" ref="I2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="J2" s="30" t="b">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>1</v>
+      <c r="J2" s="48" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="5">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="M2" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N2" s="5" t="str">
+      <c r="N2" s="5">
         <f t="array" ref="N2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="O2" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Send Jayne my TA preferences</v>
       </c>
       <c r="Q2" s="5">
         <v>-1</v>
       </c>
       <c r="R2" t="str">
         <f t="array" ref="R2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>What classes am I "qualified" to GTA?</v>
+        <v>Can I use my own branch in literature?</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2416,7 +2614,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F3" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2424,23 +2622,23 @@
       </c>
       <c r="G3" s="30">
         <f t="array" ref="G3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Add hours to update sheet</v>
       </c>
       <c r="I3" s="6">
         <f t="array" ref="I3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="30" t="b">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>0</v>
+        <v>0.17708333333333326</v>
+      </c>
+      <c r="J3" s="30" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="5">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="M3" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2448,18 +2646,18 @@
       </c>
       <c r="N3" s="5">
         <f t="array" ref="N3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O3" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read all article abstracts</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="Q3" s="5">
         <v>-2</v>
       </c>
       <c r="R3" t="str">
         <f t="array" ref="R3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How have HHS systems been modeled?</v>
+        <v>What classes am I "qualified" to GTA?</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2474,7 +2672,7 @@
         <v>42522</v>
       </c>
       <c r="E4" s="5">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="F4" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2482,42 +2680,42 @@
       </c>
       <c r="G4" s="30">
         <f t="array" ref="G4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
-      </c>
-      <c r="H4" s="15" t="str">
+        <v>13</v>
+      </c>
+      <c r="H4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish a complete class plan</v>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="I4" s="6">
         <f t="array" ref="I4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.19791666666666674</v>
-      </c>
-      <c r="J4" s="30" t="b">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="J4" s="30" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="M4" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N4" s="5" t="str">
+      <c r="N4" s="5">
         <f t="array" ref="N4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="O4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Read all article abstracts</v>
       </c>
       <c r="Q4" s="5">
         <v>-3</v>
       </c>
       <c r="R4" t="str">
         <f t="array" ref="R4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can we design a CHS conceptual framework that works in all situations</v>
+        <v>How have HHS systems been modeled?</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2532,7 +2730,7 @@
         <v>42529</v>
       </c>
       <c r="E5" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="F5" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2540,23 +2738,23 @@
       </c>
       <c r="G5" s="30">
         <f t="array" ref="G5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Add hours to update sheet</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="I5" s="6">
         <f t="array" ref="I5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.17708333333333326</v>
-      </c>
-      <c r="J5" s="30" t="b">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>1</v>
+        <v>0.19791666666666674</v>
+      </c>
+      <c r="J5" s="30" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <v/>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="5">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="M5" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2564,18 +2762,18 @@
       </c>
       <c r="N5" s="5">
         <f t="array" ref="N5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O5" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Write Jayne my TA preferences</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="Q5" s="5">
         <v>-4</v>
       </c>
       <c r="R5" t="str">
         <f t="array" ref="R5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Can we design a CHS conceptual framework that works in all situations</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -2590,7 +2788,7 @@
         <v>42536</v>
       </c>
       <c r="E6" s="5">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="F6" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2598,23 +2796,23 @@
       </c>
       <c r="G6" s="30">
         <f t="array" ref="G6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H6" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read all article abstracts</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="I6" s="6">
         <f t="array" ref="I6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J6" s="30" t="b">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
         <v>0</v>
+      </c>
+      <c r="J6" s="30" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <v/>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="5">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="M6" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2622,11 +2820,11 @@
       </c>
       <c r="N6" s="5">
         <f t="array" ref="N6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O6" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="Q6" s="5">
         <v>-5</v>
@@ -2638,43 +2836,43 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="5">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="F7" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G7" s="30" t="str">
+      <c r="G7" s="30">
         <f t="array" ref="G7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="H7" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="I7" s="6" t="str">
+        <v>Read all article abstracts</v>
+      </c>
+      <c r="I7" s="6">
         <f t="array" ref="I7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
+        <v>0.15625</v>
       </c>
       <c r="J7" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="5">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="M7" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="5" t="str">
         <f t="array" ref="N7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
+        <v/>
       </c>
       <c r="O7" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish a complete class plan</v>
+        <v/>
       </c>
       <c r="Q7" s="5">
         <v>-6</v>
@@ -2686,7 +2884,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" s="5">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="F8" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2694,23 +2892,23 @@
       </c>
       <c r="G8" s="30">
         <f t="array" ref="G8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>13</v>
-      </c>
-      <c r="H8" t="str">
+        <v>29</v>
+      </c>
+      <c r="H8" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="I8" s="6">
         <f t="array" ref="I8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="J8" s="30" t="b">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
-        <v>1</v>
+        <v>9.3749999999999889E-2</v>
+      </c>
+      <c r="J8" s="30" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <v/>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="5">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="M8" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2734,7 +2932,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" s="5">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="F9" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2753,12 +2951,12 @@
         <v/>
       </c>
       <c r="J9" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="5">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="M9" s="30">
         <f>MAX(Periods[Id])</f>
@@ -2801,7 +2999,7 @@
         <v/>
       </c>
       <c r="J10" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K10" s="2"/>
@@ -2849,7 +3047,7 @@
         <v/>
       </c>
       <c r="J11" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K11" s="2"/>
@@ -2897,7 +3095,7 @@
         <v/>
       </c>
       <c r="J12" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K12" s="2"/>
@@ -2938,7 +3136,7 @@
         <v/>
       </c>
       <c r="J13" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K13" s="2"/>
@@ -2979,7 +3177,7 @@
         <v/>
       </c>
       <c r="J14" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K14" s="2"/>
@@ -3020,7 +3218,7 @@
         <v/>
       </c>
       <c r="J15" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K15" s="2"/>
@@ -3061,7 +3259,7 @@
         <v/>
       </c>
       <c r="J16" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K16" s="2"/>
@@ -3102,7 +3300,7 @@
         <v/>
       </c>
       <c r="J17" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K17" s="2"/>
@@ -3143,7 +3341,7 @@
         <v/>
       </c>
       <c r="J18" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K18" s="2"/>
@@ -3184,7 +3382,7 @@
         <v/>
       </c>
       <c r="J19" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K19" s="2"/>
@@ -3225,7 +3423,7 @@
         <v/>
       </c>
       <c r="J20" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K20" s="2"/>
@@ -3266,7 +3464,7 @@
         <v/>
       </c>
       <c r="J21" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="K21" s="2"/>
@@ -3303,7 +3501,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,11 +3530,11 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="46">
+      <c r="J1" s="41">
         <f>MAX(Periods[Start])</f>
         <v>42529</v>
       </c>
-      <c r="K1" s="47"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="13"/>
       <c r="M1" s="7"/>
     </row>
@@ -3359,10 +3557,10 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="16"/>
@@ -3383,18 +3581,18 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="43">
+      <c r="D4" s="45">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
         <v>0</v>
       </c>
-      <c r="E4" s="35" t="b">
+      <c r="E4" s="43" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="H4" s="10" t="str">
+      <c r="H4" s="17" t="str">
         <f t="array" ref="H4:H18">ThisWeekTasks[Description]</f>
-        <v/>
+        <v>Send Jayne my TA preferences</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -3405,19 +3603,19 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Add hours to update sheet</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="44">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36" t="b">
-        <v>0</v>
+      <c r="D5" s="46">
+        <v>0.17708333333333326</v>
+      </c>
+      <c r="E5" s="44" t="str">
+        <v>X</v>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
-        <v>Read all article abstracts</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -3429,19 +3627,19 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Finish a complete class plan</v>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="45">
-        <v>0.19791666666666674</v>
-      </c>
-      <c r="E6" s="35" t="b">
-        <v>0</v>
+      <c r="D6" s="47">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E6" s="43" t="str">
+        <v>X</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v/>
+        <v>Read all article abstracts</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3453,19 +3651,19 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Add hours to update sheet</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="45">
-        <v>0.17708333333333326</v>
-      </c>
-      <c r="E7" s="35" t="b">
-        <v>1</v>
+      <c r="D7" s="47">
+        <v>0.19791666666666674</v>
+      </c>
+      <c r="E7" s="43" t="str">
+        <v/>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
-        <v>Write Jayne my TA preferences</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3477,20 +3675,20 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Read all article abstracts</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="45">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E8" s="35" t="b">
+      <c r="D8" s="47">
         <v>0</v>
+      </c>
+      <c r="E8" s="43" t="str">
+        <v/>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Finish a complete class plan</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3502,20 +3700,20 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v/>
+        <v>Read all article abstracts</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="45" t="str">
-        <v/>
-      </c>
-      <c r="E9" s="35" t="str">
+      <c r="D9" s="47">
+        <v>0.15625</v>
+      </c>
+      <c r="E9" s="43" t="str">
         <v/>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="str">
-        <v>Finish a complete class plan</v>
+        <v/>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3527,15 +3725,15 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="45">
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E10" s="35" t="b">
-        <v>1</v>
+      <c r="D10" s="47">
+        <v>9.3749999999999889E-2</v>
+      </c>
+      <c r="E10" s="43" t="str">
+        <v/>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="13"/>
@@ -3556,10 +3754,10 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="45" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="35" t="str">
+      <c r="D11" s="47" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="43" t="str">
         <v/>
       </c>
       <c r="F11" s="15"/>
@@ -3581,10 +3779,10 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="43" t="str">
-        <v/>
-      </c>
-      <c r="E12" s="35" t="str">
+      <c r="D12" s="45" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="43" t="str">
         <v/>
       </c>
       <c r="F12" s="12"/>
@@ -3742,37 +3940,37 @@
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="12"/>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>What classes am I "qualified" to GTA?</v>
+        <v>Can I use my own branch in literature?</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="14"/>
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v>How have HHS systems been modeled?</v>
+        <v>What classes am I "qualified" to GTA?</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3789,7 +3987,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v>Can we design a CHS conceptual framework that works in all situations</v>
+        <v>How have HHS systems been modeled?</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3806,7 +4004,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v/>
+        <v>Can we design a CHS conceptual framework that works in all situations</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4034,65 +4232,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="20" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -289,9 +289,6 @@
     <t>Reading Abstracts</t>
   </si>
   <si>
-    <t>Can we design a CHS conceptual framework that works in all situations</t>
-  </si>
-  <si>
     <t>How have HHS systems been modeled?</t>
   </si>
   <si>
@@ -317,6 +314,30 @@
   </si>
   <si>
     <t>Integrate into UVA System</t>
+  </si>
+  <si>
+    <t>I have a wedding in OKC on January 14th?</t>
+  </si>
+  <si>
+    <t>Can we design a CHS conceptual framework that works in all situations?</t>
+  </si>
+  <si>
+    <t>Human system isn't idempotent. It learns based on past inputs.</t>
+  </si>
+  <si>
+    <t>I'm interested in machine learning but does that help me model?</t>
+  </si>
+  <si>
+    <t>Can we model ubiquitious computing's impact on a community without individuals?</t>
+  </si>
+  <si>
+    <t>Can we model ubiquitious computing's impact on any or just one at a time?</t>
+  </si>
+  <si>
+    <t>Can we look at how physical infrastructure impacts a community for inspiration?</t>
+  </si>
+  <si>
+    <t>Reviewing Course Listings Again</t>
   </si>
 </sst>
 </file>
@@ -520,7 +541,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -574,12 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,6 +611,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -604,145 +633,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -835,9 +728,6 @@
     </dxf>
     <dxf>
       <border>
-        <left/>
-        <right/>
-        <top/>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -870,6 +760,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -889,9 +786,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -915,6 +809,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -969,31 +878,31 @@
     <sortCondition ref="D2:D30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="8" name="Id" dataDxfId="53"/>
+    <tableColumn id="8" name="Id" dataDxfId="39"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="52"/>
-    <tableColumn id="3" name="Started" dataDxfId="51"/>
-    <tableColumn id="5" name="Finished" dataDxfId="50"/>
+    <tableColumn id="4" name="Due" dataDxfId="38"/>
+    <tableColumn id="3" name="Started" dataDxfId="37"/>
+    <tableColumn id="5" name="Finished" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H15" totalsRowShown="0">
-  <autoFilter ref="A1:H15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H16" totalsRowShown="0">
+  <autoFilter ref="A1:H16"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
     <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start" dataDxfId="5"/>
-    <tableColumn id="7" name="End" dataDxfId="4"/>
-    <tableColumn id="1" name="Hours" dataDxfId="3">
+    <tableColumn id="6" name="Start" dataDxfId="35"/>
+    <tableColumn id="7" name="End" dataDxfId="34"/>
+    <tableColumn id="1" name="Hours" dataDxfId="33">
       <calculatedColumnFormula>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Goal" dataDxfId="2"/>
-    <tableColumn id="3" name="Goal Description" dataDxfId="1">
+    <tableColumn id="2" name="Goal" dataDxfId="32"/>
+    <tableColumn id="3" name="Goal Description" dataDxfId="31">
       <calculatedColumnFormula>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1002,8 +911,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Question"/>
     <tableColumn id="2" name="Answer"/>
@@ -1014,13 +923,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Id" dataDxfId="49"/>
-    <tableColumn id="2" name="Start" dataDxfId="48"/>
-    <tableColumn id="3" name="End" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Id" dataDxfId="30"/>
+    <tableColumn id="2" name="Start" dataDxfId="29"/>
+    <tableColumn id="3" name="End" dataDxfId="28">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Hours" dataDxfId="0">
+      <calculatedColumnFormula array="1">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1028,26 +940,26 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="LastWeekTasks" displayName="LastWeekTasks" ref="E1:J21" totalsRowShown="0">
-  <autoFilter ref="E1:J21"/>
-  <sortState ref="E2:J21">
-    <sortCondition descending="1" ref="J1:J21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="LastWeekTasks" displayName="LastWeekTasks" ref="F1:K21" totalsRowShown="0">
+  <autoFilter ref="F1:K21"/>
+  <sortState ref="F2:K21">
+    <sortCondition descending="1" ref="K1:K21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Index" dataDxfId="46"/>
-    <tableColumn id="4" name="Period" dataDxfId="45">
+    <tableColumn id="2" name="Index" dataDxfId="27"/>
+    <tableColumn id="4" name="Period" dataDxfId="26">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="44">
+    <tableColumn id="5" name="Goal" dataDxfId="25">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="43">
+    <tableColumn id="1" name="Goal Description" dataDxfId="24">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="42">
+    <tableColumn id="6" name="Hours" dataDxfId="17">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="0">
+    <tableColumn id="3" name="Done" dataDxfId="16">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1056,20 +968,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ThisWeekTasks" displayName="ThisWeekTasks" ref="L1:O21" totalsRowShown="0">
-  <autoFilter ref="L1:O21"/>
-  <sortState ref="L2:O21">
-    <sortCondition descending="1" ref="O1:O21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ThisWeekTasks" displayName="ThisWeekTasks" ref="M1:P21" totalsRowShown="0">
+  <autoFilter ref="M1:P21"/>
+  <sortState ref="M2:P21">
+    <sortCondition descending="1" ref="P1:P21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="41"/>
-    <tableColumn id="6" name="Period" dataDxfId="40">
+    <tableColumn id="2" name="Index" dataDxfId="23"/>
+    <tableColumn id="6" name="Period" dataDxfId="22">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="39">
+    <tableColumn id="5" name="Goal" dataDxfId="21">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="38">
+    <tableColumn id="1" name="Description" dataDxfId="20">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1078,14 +990,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ThisWeekQuestions" displayName="ThisWeekQuestions" ref="Q1:R11" totalsRowShown="0">
-  <autoFilter ref="Q1:R11"/>
-  <sortState ref="Q2:R21">
-    <sortCondition descending="1" ref="Q1:Q21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ThisWeekQuestions" displayName="ThisWeekQuestions" ref="R1:S12" totalsRowShown="0">
+  <autoFilter ref="R1:S12"/>
+  <sortState ref="R2:S12">
+    <sortCondition descending="1" ref="R1:R21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="37"/>
-    <tableColumn id="1" name="Question" dataDxfId="36">
+    <tableColumn id="2" name="Index" dataDxfId="19"/>
+    <tableColumn id="1" name="Question" dataDxfId="18">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1383,7 +1295,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1673,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2">
         <v>42597</v>
@@ -1776,7 +1688,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2">
         <v>42538</v>
@@ -1818,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2">
         <v>42585</v>
@@ -1871,7 +1783,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2">
         <v>42587</v>
@@ -1900,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2191,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2307,7 +2219,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2333,10 +2245,38 @@
         <v>Read all article abstracts</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42894</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F16" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G16" s="30">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Finish a complete class plan</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H15"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H16"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2348,15 +2288,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2428,7 +2368,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3">
         <v>42527</v>
@@ -2436,7 +2376,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3">
         <v>42527</v>
@@ -2444,7 +2384,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3">
         <v>42527</v>
@@ -2452,10 +2392,40 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3">
         <v>42528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2468,34 +2438,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" customWidth="1"/>
-    <col min="18" max="18" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="16" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="19" max="19" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2505,44 +2475,47 @@
       <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -2553,55 +2526,59 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42508</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5">
+      <c r="D2" s="6">
+        <f t="array" ref="D2">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5">
         <v>-11</v>
       </c>
-      <c r="F2" s="30">
+      <c r="G2" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G2" s="30">
-        <f t="array" ref="G2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="H2" s="30">
+        <f t="array" ref="H2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>26</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Account for conferences in pub plan</v>
       </c>
-      <c r="I2" s="6">
-        <f t="array" ref="I2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+      <c r="J2" s="6">
+        <f t="array" ref="J2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="J2" s="48" t="str">
+      <c r="K2" s="49" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v>X</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="5">
+      <c r="L2" s="2"/>
+      <c r="M2" s="5">
         <v>-8</v>
       </c>
-      <c r="M2" s="30">
+      <c r="N2" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N2" s="5">
-        <f t="array" ref="N2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="O2" s="5">
+        <f t="array" ref="O2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>18</v>
       </c>
-      <c r="O2" t="str">
+      <c r="P2" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Send Jayne my TA preferences</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>-1</v>
       </c>
-      <c r="R2" t="str">
-        <f t="array" ref="R2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can I use my own branch in literature?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="str">
+        <f t="array" ref="S2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>Can we look at how physical infrastructure impacts a community for inspiration?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -2612,55 +2589,59 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42515</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5">
+      <c r="D3" s="6">
+        <f t="array" ref="D3">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5">
         <v>-12</v>
       </c>
-      <c r="F3" s="30">
+      <c r="G3" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G3" s="30">
-        <f t="array" ref="G3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="H3" s="30">
+        <f t="array" ref="H3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>25</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Add hours to update sheet</v>
       </c>
-      <c r="I3" s="6">
-        <f t="array" ref="I3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+      <c r="J3" s="6">
+        <f t="array" ref="J3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0.17708333333333326</v>
       </c>
-      <c r="J3" s="30" t="str">
+      <c r="K3" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v>X</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="5">
+      <c r="L3" s="2"/>
+      <c r="M3" s="5">
         <v>-14</v>
       </c>
-      <c r="M3" s="30">
+      <c r="N3" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N3" s="5">
-        <f t="array" ref="N3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="O3" s="5">
+        <f t="array" ref="O3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>14</v>
       </c>
-      <c r="O3" t="str">
+      <c r="P3" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Reinforcement Learning an Introduction</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>-2</v>
       </c>
-      <c r="R3" t="str">
-        <f t="array" ref="R3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>What classes am I "qualified" to GTA?</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" t="str">
+        <f t="array" ref="S3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>Can we model ubiquitious computing's impact on any or just one at a time?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -2671,54 +2652,58 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42522</v>
       </c>
-      <c r="E4" s="5">
+      <c r="D4" s="6">
+        <f t="array" ref="D4">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="F4" s="5">
         <v>-15</v>
       </c>
-      <c r="F4" s="30">
+      <c r="G4" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G4" s="30">
-        <f t="array" ref="G4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="H4" s="30">
+        <f t="array" ref="H4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>13</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Introduction to Statistical Learning Chp 2</v>
       </c>
-      <c r="I4" s="6">
-        <f t="array" ref="I4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+      <c r="J4" s="6">
+        <f t="array" ref="J4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="J4" s="30" t="str">
+      <c r="K4" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v>X</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="5">
+      <c r="L4" s="2"/>
+      <c r="M4" s="5">
         <v>-13</v>
       </c>
-      <c r="M4" s="30">
+      <c r="N4" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N4" s="5">
-        <f t="array" ref="N4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="O4" s="5">
+        <f t="array" ref="O4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>24</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Read all article abstracts</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>-3</v>
       </c>
-      <c r="R4" t="str">
-        <f t="array" ref="R4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How have HHS systems been modeled?</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" t="str">
+        <f t="array" ref="S4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>Can we model ubiquitious computing's impact on a community without individuals?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -2729,54 +2714,58 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42529</v>
       </c>
-      <c r="E5" s="5">
+      <c r="D5" s="6">
+        <f t="array" ref="D5">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F5" s="5">
         <v>-10</v>
       </c>
-      <c r="F5" s="30">
+      <c r="G5" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G5" s="30">
-        <f t="array" ref="G5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="H5" s="30">
+        <f t="array" ref="H5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>27</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Finish a complete class plan</v>
       </c>
-      <c r="I5" s="6">
-        <f t="array" ref="I5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.19791666666666674</v>
-      </c>
-      <c r="J5" s="30" t="str">
+      <c r="J5" s="6">
+        <f t="array" ref="J5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v>0.26041666666666674</v>
+      </c>
+      <c r="K5" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="5">
+      <c r="L5" s="2"/>
+      <c r="M5" s="5">
         <v>-9</v>
       </c>
-      <c r="M5" s="30">
+      <c r="N5" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N5" s="5">
-        <f t="array" ref="N5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="O5" s="5">
+        <f t="array" ref="O5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>29</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Integrate into UVA System</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>-4</v>
       </c>
-      <c r="R5" t="str">
-        <f t="array" ref="R5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can we design a CHS conceptual framework that works in all situations</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" t="str">
+        <f t="array" ref="S5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>I'm interested in machine learning but does that help me model?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -2787,699 +2776,710 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42536</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6" s="6">
+        <f t="array" ref="D6">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>-14</v>
       </c>
-      <c r="F6" s="30">
+      <c r="G6" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="30">
-        <f t="array" ref="G6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="H6" s="30">
+        <f t="array" ref="H6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>14</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Reinforcement Learning an Introduction</v>
       </c>
-      <c r="I6" s="6">
-        <f t="array" ref="I6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+      <c r="J6" s="6">
+        <f t="array" ref="J6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="J6" s="30" t="str">
+      <c r="K6" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="5">
+      <c r="L6" s="2"/>
+      <c r="M6" s="5">
         <v>-10</v>
       </c>
-      <c r="M6" s="30">
+      <c r="N6" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N6" s="5">
-        <f t="array" ref="N6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="O6" s="5">
+        <f t="array" ref="O6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>27</v>
       </c>
-      <c r="O6" t="str">
+      <c r="P6" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Finish a complete class plan</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>-5</v>
       </c>
-      <c r="R6" t="str">
-        <f t="array" ref="R6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="5">
+      <c r="S6" t="str">
+        <f t="array" ref="S6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>Human system isn't idempotent. It learns based on past inputs.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
         <v>-13</v>
       </c>
-      <c r="F7" s="30">
+      <c r="G7" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G7" s="30">
-        <f t="array" ref="G7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="H7" s="30">
+        <f t="array" ref="H7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>24</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Read all article abstracts</v>
       </c>
-      <c r="I7" s="6">
-        <f t="array" ref="I7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+      <c r="J7" s="6">
+        <f t="array" ref="J7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0.15625</v>
       </c>
-      <c r="J7" s="30" t="str">
+      <c r="K7" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="5">
+      <c r="L7" s="2"/>
+      <c r="M7" s="5">
         <v>-12</v>
       </c>
-      <c r="M7" s="30">
+      <c r="N7" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N7" s="5" t="str">
-        <f t="array" ref="N7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O7" t="str">
+      <c r="O7" s="5" t="str">
+        <f t="array" ref="O7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P7" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>-6</v>
       </c>
-      <c r="R7" t="str">
-        <f t="array" ref="R7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="5">
+      <c r="S7" t="str">
+        <f t="array" ref="S7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>I have a wedding in OKC on January 14th?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
         <v>-9</v>
       </c>
-      <c r="F8" s="30">
+      <c r="G8" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="30">
-        <f t="array" ref="G8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+      <c r="H8" s="30">
+        <f t="array" ref="H8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>29</v>
       </c>
-      <c r="H8" s="15" t="str">
+      <c r="I8" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Integrate into UVA System</v>
       </c>
-      <c r="I8" s="6">
-        <f t="array" ref="I8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+      <c r="J8" s="6">
+        <f t="array" ref="J8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>9.3749999999999889E-2</v>
       </c>
-      <c r="J8" s="30" t="str">
+      <c r="K8" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="5">
+      <c r="L8" s="2"/>
+      <c r="M8" s="5">
         <v>-5</v>
       </c>
-      <c r="M8" s="30">
+      <c r="N8" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N8" s="5" t="str">
-        <f t="array" ref="N8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O8" t="str">
+      <c r="O8" s="5" t="str">
+        <f t="array" ref="O8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P8" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>-7</v>
       </c>
-      <c r="R8" t="str">
-        <f t="array" ref="R8">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="5">
+      <c r="S8" t="str">
+        <f t="array" ref="S8">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>Can I use my own branch in literature?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
         <v>-8</v>
       </c>
-      <c r="F9" s="30">
+      <c r="G9" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="30" t="str">
-        <f t="array" ref="G9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
+      <c r="H9" s="30" t="str">
+        <f t="array" ref="H9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I9" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I9" s="6" t="str">
-        <f t="array" ref="I9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J9" s="30" t="str">
+      <c r="J9" s="6" t="str">
+        <f t="array" ref="J9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K9" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="5">
+      <c r="L9" s="2"/>
+      <c r="M9" s="5">
         <v>-11</v>
       </c>
-      <c r="M9" s="30">
+      <c r="N9" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N9" s="5" t="str">
-        <f t="array" ref="N9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O9" t="str">
+      <c r="O9" s="5" t="str">
+        <f t="array" ref="O9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P9" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>-8</v>
       </c>
-      <c r="R9" t="str">
-        <f t="array" ref="R9">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="5">
+      <c r="S9" t="str">
+        <f t="array" ref="S9">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>What classes am I "qualified" to GTA?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
         <v>-16</v>
       </c>
-      <c r="F10" s="30">
+      <c r="G10" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="30" t="str">
-        <f t="array" ref="G10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
       <c r="H10" s="30" t="str">
+        <f t="array" ref="H10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I10" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I10" s="6" t="str">
-        <f t="array" ref="I10">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J10" s="30" t="str">
+      <c r="J10" s="6" t="str">
+        <f t="array" ref="J10">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K10" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="5">
+      <c r="L10" s="2"/>
+      <c r="M10" s="5">
         <v>-16</v>
       </c>
-      <c r="M10" s="30">
+      <c r="N10" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N10" s="5" t="str">
-        <f t="array" ref="N10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O10" s="30" t="str">
+      <c r="O10" s="5" t="str">
+        <f t="array" ref="O10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P10" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>-9</v>
       </c>
-      <c r="R10" t="str">
-        <f t="array" ref="R10">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="5">
+      <c r="S10" t="str">
+        <f t="array" ref="S10">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>How have HHS systems been modeled?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
         <v>-17</v>
       </c>
-      <c r="F11" s="30">
+      <c r="G11" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G11" s="30" t="str">
-        <f t="array" ref="G11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
       <c r="H11" s="30" t="str">
+        <f t="array" ref="H11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I11" s="46" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I11" s="6" t="str">
-        <f t="array" ref="I11">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="6" t="str">
+        <f t="array" ref="J11">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K11" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="5">
+      <c r="L11" s="2"/>
+      <c r="M11" s="5">
         <v>-15</v>
       </c>
-      <c r="M11" s="30">
+      <c r="N11" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N11" s="5" t="str">
-        <f t="array" ref="N11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O11" t="str">
+      <c r="O11" s="5" t="str">
+        <f t="array" ref="O11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P11" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>-10</v>
       </c>
-      <c r="R11" t="str">
-        <f t="array" ref="R11">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="5">
+      <c r="S11" t="str">
+        <f t="array" ref="S11">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v>Can we design a CHS conceptual framework that works in all situations?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
         <v>-18</v>
       </c>
-      <c r="F12" s="30">
+      <c r="G12" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G12" s="30" t="str">
-        <f t="array" ref="G12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
       <c r="H12" s="30" t="str">
+        <f t="array" ref="H12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I12" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I12" s="6" t="str">
-        <f t="array" ref="I12">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J12" s="30" t="str">
+      <c r="J12" s="6" t="str">
+        <f t="array" ref="J12">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K12" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="5">
+      <c r="L12" s="2"/>
+      <c r="M12" s="5">
         <v>-1</v>
       </c>
-      <c r="M12" s="30">
+      <c r="N12" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N12" s="5" t="str">
-        <f t="array" ref="N12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O12" t="str">
+      <c r="O12" s="5" t="str">
+        <f t="array" ref="O12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P12" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="5">
+      <c r="R12" s="5">
+        <v>-11</v>
+      </c>
+      <c r="S12" s="30" t="str">
+        <f t="array" ref="S12">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
         <v>-19</v>
       </c>
-      <c r="F13" s="30">
+      <c r="G13" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G13" s="30" t="str">
-        <f t="array" ref="G13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
       <c r="H13" s="30" t="str">
+        <f t="array" ref="H13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I13" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I13" s="6" t="str">
-        <f t="array" ref="I13">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J13" s="30" t="str">
+      <c r="J13" s="6" t="str">
+        <f t="array" ref="J13">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K13" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="5">
+      <c r="L13" s="2"/>
+      <c r="M13" s="5">
         <v>-2</v>
       </c>
-      <c r="M13" s="30">
+      <c r="N13" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N13" s="5" t="str">
-        <f t="array" ref="N13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O13" t="str">
+      <c r="O13" s="5" t="str">
+        <f t="array" ref="O13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
         <v>-20</v>
       </c>
-      <c r="F14" s="30">
+      <c r="G14" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G14" s="30" t="str">
-        <f t="array" ref="G14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
       <c r="H14" s="30" t="str">
+        <f t="array" ref="H14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I14" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I14" s="6" t="str">
-        <f t="array" ref="I14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J14" s="30" t="str">
+      <c r="J14" s="6" t="str">
+        <f t="array" ref="J14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K14" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="5">
+      <c r="L14" s="2"/>
+      <c r="M14" s="5">
         <v>-3</v>
       </c>
-      <c r="M14" s="30">
+      <c r="N14" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N14" s="5" t="str">
-        <f t="array" ref="N14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O14" t="str">
+      <c r="O14" s="5" t="str">
+        <f t="array" ref="O14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P14" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="5">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
         <v>-7</v>
       </c>
-      <c r="F15" s="30">
+      <c r="G15" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G15" s="30" t="str">
-        <f t="array" ref="G15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="H15" t="str">
+      <c r="H15" s="30" t="str">
+        <f t="array" ref="H15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I15" s="6" t="str">
-        <f t="array" ref="I15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J15" s="30" t="str">
+      <c r="J15" s="6" t="str">
+        <f t="array" ref="J15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K15" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="5">
+      <c r="L15" s="2"/>
+      <c r="M15" s="5">
         <v>-4</v>
       </c>
-      <c r="M15" s="30">
+      <c r="N15" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N15" s="5" t="str">
-        <f t="array" ref="N15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O15" t="str">
+      <c r="O15" s="5" t="str">
+        <f t="array" ref="O15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P15" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="5">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
         <v>-6</v>
       </c>
-      <c r="F16" s="30">
+      <c r="G16" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G16" s="30" t="str">
-        <f t="array" ref="G16">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="H16" t="str">
+      <c r="H16" s="30" t="str">
+        <f t="array" ref="H16">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I16" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I16" s="6" t="str">
-        <f t="array" ref="I16">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J16" s="30" t="str">
+      <c r="J16" s="6" t="str">
+        <f t="array" ref="J16">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K16" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="5">
+      <c r="L16" s="2"/>
+      <c r="M16" s="5">
         <v>-6</v>
       </c>
-      <c r="M16" s="30">
+      <c r="N16" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N16" s="5" t="str">
-        <f t="array" ref="N16">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O16" t="str">
+      <c r="O16" s="5" t="str">
+        <f t="array" ref="O16">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P16" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
         <v>-5</v>
       </c>
-      <c r="F17" s="30">
+      <c r="G17" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G17" s="30" t="str">
-        <f t="array" ref="G17">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="H17" t="str">
+      <c r="H17" s="30" t="str">
+        <f t="array" ref="H17">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I17" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I17" s="6" t="str">
-        <f t="array" ref="I17">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J17" s="30" t="str">
+      <c r="J17" s="6" t="str">
+        <f t="array" ref="J17">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K17" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="5">
+      <c r="L17" s="2"/>
+      <c r="M17" s="5">
         <v>-7</v>
       </c>
-      <c r="M17" s="30">
+      <c r="N17" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N17" s="5" t="str">
-        <f t="array" ref="N17">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O17" t="str">
+      <c r="O17" s="5" t="str">
+        <f t="array" ref="O17">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P17" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="5">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
         <v>-4</v>
       </c>
-      <c r="F18" s="30">
+      <c r="G18" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G18" s="30" t="str">
-        <f t="array" ref="G18">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="H18" t="str">
+      <c r="H18" s="30" t="str">
+        <f t="array" ref="H18">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I18" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I18" s="6" t="str">
-        <f t="array" ref="I18">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J18" s="30" t="str">
+      <c r="J18" s="6" t="str">
+        <f t="array" ref="J18">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K18" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="5">
+      <c r="L18" s="2"/>
+      <c r="M18" s="5">
         <v>-17</v>
       </c>
-      <c r="M18" s="30">
+      <c r="N18" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N18" s="5" t="str">
-        <f t="array" ref="N18">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O18" s="30" t="str">
+      <c r="O18" s="5" t="str">
+        <f t="array" ref="O18">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P18" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="5">
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
         <v>-3</v>
       </c>
-      <c r="F19" s="30">
+      <c r="G19" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G19" s="30" t="str">
-        <f t="array" ref="G19">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="H19" t="str">
+      <c r="H19" s="30" t="str">
+        <f t="array" ref="H19">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I19" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I19" s="6" t="str">
-        <f t="array" ref="I19">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J19" s="30" t="str">
+      <c r="J19" s="6" t="str">
+        <f t="array" ref="J19">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K19" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="5">
+      <c r="L19" s="2"/>
+      <c r="M19" s="5">
         <v>-18</v>
       </c>
-      <c r="M19" s="30">
+      <c r="N19" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N19" s="5" t="str">
-        <f t="array" ref="N19">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O19" s="30" t="str">
+      <c r="O19" s="5" t="str">
+        <f t="array" ref="O19">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P19" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="5">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
         <v>-2</v>
       </c>
-      <c r="F20" s="30">
+      <c r="G20" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G20" s="30" t="str">
-        <f t="array" ref="G20">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="H20" t="str">
+      <c r="H20" s="30" t="str">
+        <f t="array" ref="H20">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I20" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I20" s="6" t="str">
-        <f t="array" ref="I20">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J20" s="30" t="str">
+      <c r="J20" s="6" t="str">
+        <f t="array" ref="J20">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K20" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="5">
+      <c r="L20" s="2"/>
+      <c r="M20" s="5">
         <v>-19</v>
       </c>
-      <c r="M20" s="30">
+      <c r="N20" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N20" s="5" t="str">
-        <f t="array" ref="N20">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O20" s="30" t="str">
+      <c r="O20" s="5" t="str">
+        <f t="array" ref="O20">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P20" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="5">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
         <v>-1</v>
       </c>
-      <c r="F21" s="30">
+      <c r="G21" s="30">
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="G21" s="30" t="str">
-        <f t="array" ref="G21">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="H21" t="str">
+      <c r="H21" s="30" t="str">
+        <f t="array" ref="H21">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="I21" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="I21" s="6" t="str">
-        <f t="array" ref="I21">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="J21" s="30" t="str">
+      <c r="J21" s="6" t="str">
+        <f t="array" ref="J21">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="K21" s="50" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="5">
+      <c r="L21" s="2"/>
+      <c r="M21" s="5">
         <v>-20</v>
       </c>
-      <c r="M21" s="30">
+      <c r="N21" s="30">
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="N21" s="5" t="str">
-        <f t="array" ref="N21">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="O21" s="30" t="str">
+      <c r="O21" s="5" t="str">
+        <f t="array" ref="O21">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="P21" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -3500,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,7 +3513,7 @@
     <col min="7" max="7" width="3.85546875" style="4" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="4" customWidth="1"/>
     <col min="12" max="12" width="0.85546875" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -3530,11 +3530,11 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="41">
+      <c r="J1" s="47">
         <f>MAX(Periods[Start])</f>
         <v>42529</v>
       </c>
-      <c r="K1" s="42"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="13"/>
       <c r="M1" s="7"/>
     </row>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="45">
+      <c r="D4" s="43">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
         <v>0</v>
       </c>
-      <c r="E4" s="43" t="str">
+      <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
         <v>X</v>
       </c>
@@ -3607,10 +3607,10 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="46">
+      <c r="D5" s="44">
         <v>0.17708333333333326</v>
       </c>
-      <c r="E5" s="44" t="str">
+      <c r="E5" s="42" t="str">
         <v>X</v>
       </c>
       <c r="F5" s="15"/>
@@ -3631,10 +3631,10 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E6" s="43" t="str">
+      <c r="E6" s="41" t="str">
         <v>X</v>
       </c>
       <c r="F6" s="15"/>
@@ -3655,10 +3655,10 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="47">
-        <v>0.19791666666666674</v>
-      </c>
-      <c r="E7" s="43" t="str">
+      <c r="D7" s="45">
+        <v>0.26041666666666674</v>
+      </c>
+      <c r="E7" s="41" t="str">
         <v/>
       </c>
       <c r="F7" s="15"/>
@@ -3679,10 +3679,10 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>0</v>
       </c>
-      <c r="E8" s="43" t="str">
+      <c r="E8" s="41" t="str">
         <v/>
       </c>
       <c r="F8" s="15"/>
@@ -3704,10 +3704,10 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="47">
+      <c r="D9" s="45">
         <v>0.15625</v>
       </c>
-      <c r="E9" s="43" t="str">
+      <c r="E9" s="41" t="str">
         <v/>
       </c>
       <c r="F9" s="15"/>
@@ -3729,10 +3729,10 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>9.3749999999999889E-2</v>
       </c>
-      <c r="E10" s="43" t="str">
+      <c r="E10" s="41" t="str">
         <v/>
       </c>
       <c r="F10" s="15"/>
@@ -3754,10 +3754,10 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="47" t="str">
-        <v/>
-      </c>
-      <c r="E11" s="43" t="str">
+      <c r="D11" s="45" t="str">
+        <v/>
+      </c>
+      <c r="E11" s="41" t="str">
         <v/>
       </c>
       <c r="F11" s="15"/>
@@ -3779,10 +3779,10 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="45" t="str">
-        <v/>
-      </c>
-      <c r="E12" s="43" t="str">
+      <c r="D12" s="43" t="str">
+        <v/>
+      </c>
+      <c r="E12" s="41" t="str">
         <v/>
       </c>
       <c r="F12" s="12"/>
@@ -3953,12 +3953,12 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>Can I use my own branch in literature?</v>
+        <v>Can we look at how physical infrastructure impacts a community for inspiration?</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="37"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
@@ -3970,12 +3970,12 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v>What classes am I "qualified" to GTA?</v>
+        <v>Can we model ubiquitious computing's impact on any or just one at a time?</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -3987,12 +3987,12 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v>How have HHS systems been modeled?</v>
+        <v>Can we model ubiquitious computing's impact on a community without individuals?</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v>Can we design a CHS conceptual framework that works in all situations</v>
+        <v>I'm interested in machine learning but does that help me model?</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="str">
-        <v/>
+        <v>Human system isn't idempotent. It learns based on past inputs.</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="str">
-        <v/>
+        <v>I have a wedding in OKC on January 14th?</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -4054,8 +4054,8 @@
       <c r="M26"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="str">
-        <v/>
+      <c r="A27" s="10" t="str">
+        <v>Can I use my own branch in literature?</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -4071,8 +4071,8 @@
       <c r="M27"/>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="str">
-        <v/>
+      <c r="A28" s="10" t="str">
+        <v>What classes am I "qualified" to GTA?</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -4088,8 +4088,8 @@
       <c r="M28"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="str">
-        <v/>
+      <c r="A29" s="10" t="str">
+        <v>How have HHS systems been modeled?</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -4105,8 +4105,8 @@
       <c r="M29"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="str">
-        <v/>
+      <c r="A30" s="10" t="str">
+        <v>Can we design a CHS conceptual framework that works in all situations?</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -4232,65 +4232,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B27" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Messing around with JabRef</t>
   </si>
   <si>
-    <t>Finish a complete class plan</t>
-  </si>
-  <si>
     <t>Period</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>Shopping for a new laptop</t>
   </si>
   <si>
-    <t>Read all article abstracts</t>
-  </si>
-  <si>
     <t>Present a survey of my summer reading</t>
   </si>
   <si>
@@ -322,9 +316,6 @@
     <t>Can we design a CHS conceptual framework that works in all situations?</t>
   </si>
   <si>
-    <t>Human system isn't idempotent. It learns based on past inputs.</t>
-  </si>
-  <si>
     <t>I'm interested in machine learning but does that help me model?</t>
   </si>
   <si>
@@ -338,6 +329,48 @@
   </si>
   <si>
     <t>Reviewing Course Listings Again</t>
+  </si>
+  <si>
+    <t>That's the hope</t>
+  </si>
+  <si>
+    <t>SYS 2001, CS *, APMA</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No problem</t>
+  </si>
+  <si>
+    <t>Not that Gerber knows of</t>
+  </si>
+  <si>
+    <t>A professor of architect just asked Gerber about this today</t>
+  </si>
+  <si>
+    <t>That's the question</t>
+  </si>
+  <si>
+    <t>Yes I need to learn it</t>
+  </si>
+  <si>
+    <t>Read article abstracts</t>
+  </si>
+  <si>
+    <t>Finish first year class plan</t>
+  </si>
+  <si>
+    <t>Write Jayne about my GTA classes</t>
+  </si>
+  <si>
+    <t>Made changes suggested by Gerber today</t>
+  </si>
+  <si>
+    <t>Introduction to Statistical Learning</t>
+  </si>
+  <si>
+    <t>Reading Reinforcemet Learning</t>
   </si>
 </sst>
 </file>
@@ -350,7 +383,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +481,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -541,7 +582,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -611,12 +652,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,6 +660,13 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -634,9 +676,6 @@
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
     <dxf>
       <border>
         <right style="thin">
@@ -760,13 +799,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -789,6 +821,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -800,6 +839,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -852,27 +894,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F31" totalsRowShown="0">
+  <autoFilter ref="A1:F31">
     <filterColumn colId="0">
       <filters>
         <filter val="14"/>
         <filter val="16"/>
         <filter val="17"/>
-        <filter val="18"/>
         <filter val="19"/>
         <filter val="22"/>
         <filter val="24"/>
         <filter val="27"/>
         <filter val="28"/>
         <filter val="29"/>
+        <filter val="30"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A17:F30">
+  <sortState ref="A17:F31">
     <sortCondition ref="F2:F30"/>
     <sortCondition ref="E2:E30"/>
     <sortCondition ref="D2:D30"/>
@@ -890,8 +932,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H16" totalsRowShown="0">
-  <autoFilter ref="A1:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H21" totalsRowShown="0">
+  <autoFilter ref="A1:H21"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -911,8 +953,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Question"/>
     <tableColumn id="2" name="Answer"/>
@@ -931,7 +973,7 @@
     <tableColumn id="3" name="End" dataDxfId="28">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Hours" dataDxfId="0">
+    <tableColumn id="4" name="Hours" dataDxfId="27">
       <calculatedColumnFormula array="1">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -946,20 +988,20 @@
     <sortCondition descending="1" ref="K1:K21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Index" dataDxfId="27"/>
-    <tableColumn id="4" name="Period" dataDxfId="26">
+    <tableColumn id="2" name="Index" dataDxfId="26"/>
+    <tableColumn id="4" name="Period" dataDxfId="25">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="25">
+    <tableColumn id="5" name="Goal" dataDxfId="24">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="24">
+    <tableColumn id="1" name="Goal Description" dataDxfId="23">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="17">
+    <tableColumn id="6" name="Hours" dataDxfId="22">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="16">
+    <tableColumn id="3" name="Done" dataDxfId="21">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -974,14 +1016,14 @@
     <sortCondition descending="1" ref="P1:P21"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="23"/>
-    <tableColumn id="6" name="Period" dataDxfId="22">
+    <tableColumn id="2" name="Index" dataDxfId="20"/>
+    <tableColumn id="6" name="Period" dataDxfId="19">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="21">
+    <tableColumn id="5" name="Goal" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="20">
+    <tableColumn id="1" name="Description" dataDxfId="17">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -996,8 +1038,8 @@
     <sortCondition descending="1" ref="R1:R21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="19"/>
-    <tableColumn id="1" name="Question" dataDxfId="18">
+    <tableColumn id="2" name="Index" dataDxfId="16"/>
+    <tableColumn id="1" name="Question" dataDxfId="15">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1292,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,10 +1366,10 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
       </c>
       <c r="H1" t="str">
         <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
@@ -1373,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2">
         <v>42508</v>
@@ -1390,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2">
         <v>42509</v>
@@ -1407,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2">
         <v>42509</v>
@@ -1424,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2">
         <v>42509</v>
@@ -1441,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
         <v>42515</v>
@@ -1458,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2">
         <v>42515</v>
@@ -1543,7 +1585,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2">
         <v>42522</v>
@@ -1560,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2">
         <v>42522</v>
@@ -1596,9 +1638,7 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2">
-        <v>42529</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="30">
         <v>3</v>
       </c>
@@ -1606,16 +1646,14 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="2">
-        <v>42529</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="30"/>
     </row>
@@ -1624,7 +1662,7 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2">
         <v>42529</v>
@@ -1641,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2">
         <v>42529</v>
@@ -1653,12 +1691,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2">
         <v>42529</v>
@@ -1666,29 +1704,29 @@
       <c r="E21" s="30">
         <v>4</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="30">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>29</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="2">
-        <v>42597</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="30">
         <v>4</v>
       </c>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2">
         <v>42538</v>
@@ -1696,73 +1734,72 @@
       <c r="E23" s="30">
         <v>5</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="30">
+        <v>5</v>
+      </c>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="2">
-        <v>42577</v>
-      </c>
-      <c r="E24" s="30"/>
+        <v>92</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="30">
+        <v>4</v>
+      </c>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2">
-        <v>42583</v>
+        <v>42577</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>42585</v>
+        <v>42583</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>19</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="2">
-        <v>42586</v>
+        <v>42585</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>42587</v>
+        <v>42586</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -1772,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="30"/>
@@ -1780,22 +1817,38 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>42587</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2">
+        <v>42587</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
     <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B28" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
+    <hyperlink ref="B30" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
     <hyperlink ref="B11" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
     <hyperlink ref="B12" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B13" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
@@ -1812,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,7 +1887,7 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -1849,15 +1902,15 @@
         <v>38</v>
       </c>
       <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1885,7 +1938,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1913,7 +1966,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1962,12 +2015,12 @@
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read all article abstracts</v>
+        <v>Read article abstracts</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1990,12 +2043,12 @@
       </c>
       <c r="H6" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Finish a complete class plan</v>
+        <v>Finish first year class plan</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2018,12 +2071,12 @@
       </c>
       <c r="H7" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Finish a complete class plan</v>
+        <v>Finish first year class plan</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -2046,12 +2099,12 @@
       </c>
       <c r="H8" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Finish a complete class plan</v>
+        <v>Finish first year class plan</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2079,7 +2132,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2107,7 +2160,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2135,7 +2188,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -2163,7 +2216,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2186,12 +2239,12 @@
       </c>
       <c r="H13" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read all article abstracts</v>
+        <v>Read article abstracts</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2219,7 +2272,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2242,18 +2295,18 @@
       </c>
       <c r="H15" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read all article abstracts</v>
+        <v>Read article abstracts</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>42894</v>
+        <v>42529</v>
       </c>
       <c r="D16" s="6">
         <v>0.54166666666666663</v>
@@ -2270,13 +2323,153 @@
       </c>
       <c r="H16" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Finish a complete class plan</v>
+        <v>Finish first year class plan</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>42529</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F17" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G17" s="30">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Send Jayne my TA preferences</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>42529</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F18" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G18" s="30">
+        <v>27</v>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Finish first year class plan</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>42531</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F19" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="G19" s="30">
+        <v>14</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42531</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="F20" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G20" s="30">
+        <v>14</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>42532</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F21" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G21" s="30">
+        <v>14</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H21"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2288,16 +2481,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2368,64 +2562,101 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
       </c>
       <c r="C7" s="3">
-        <v>42527</v>
+        <v>42529</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
       </c>
       <c r="C8" s="3">
-        <v>42527</v>
+        <v>42529</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="3">
-        <v>42527</v>
+        <v>42529</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
       </c>
       <c r="C10" s="3">
-        <v>42528</v>
+        <v>42529</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42529</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3">
+        <v>42529</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3">
+        <v>42529</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3">
+        <v>42529</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42529</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2672,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2682,7 @@
     <col min="3" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" customWidth="1"/>
     <col min="9" max="9" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
@@ -2482,13 +2713,13 @@
         <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
       <c r="J1" t="s">
         <v>38</v>
@@ -2500,10 +2731,10 @@
         <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P1" t="s">
         <v>21</v>
@@ -2538,21 +2769,21 @@
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="30" t="str">
         <f t="array" ref="H2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>26</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Account for conferences in pub plan</v>
-      </c>
-      <c r="J2" s="6">
+        <v/>
+      </c>
+      <c r="J2" s="6" t="str">
         <f t="array" ref="J2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="49" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="47" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="5">
@@ -2564,18 +2795,18 @@
       </c>
       <c r="O2" s="5">
         <f t="array" ref="O2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P2" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Send Jayne my TA preferences</v>
+        <v>Read article abstracts</v>
       </c>
       <c r="R2" s="5">
         <v>-1</v>
       </c>
       <c r="S2" t="str">
         <f t="array" ref="S2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can we look at how physical infrastructure impacts a community for inspiration?</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2603,17 +2834,17 @@
       </c>
       <c r="H3" s="30">
         <f t="array" ref="H3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Add hours to update sheet</v>
+        <v>Account for conferences in pub plan</v>
       </c>
       <c r="J3" s="6">
         <f t="array" ref="J3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.17708333333333326</v>
-      </c>
-      <c r="K3" s="50" t="str">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v>X</v>
       </c>
@@ -2627,18 +2858,18 @@
       </c>
       <c r="O3" s="5">
         <f t="array" ref="O3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P3" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Introduction to Statistical Learning</v>
       </c>
       <c r="R3" s="5">
         <v>-2</v>
       </c>
       <c r="S3" t="str">
         <f t="array" ref="S3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can we model ubiquitious computing's impact on any or just one at a time?</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2665,19 +2896,19 @@
       </c>
       <c r="H4" s="30">
         <f t="array" ref="H4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="J4" s="6">
         <f t="array" ref="J4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="K4" s="50" t="str">
+        <v>0</v>
+      </c>
+      <c r="K4" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="5">
@@ -2687,20 +2918,20 @@
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="5" t="str">
         <f t="array" ref="O4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="P4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read all article abstracts</v>
+        <v/>
       </c>
       <c r="R4" s="5">
         <v>-3</v>
       </c>
       <c r="S4" t="str">
         <f t="array" ref="S4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can we model ubiquitious computing's impact on a community without individuals?</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2727,17 +2958,17 @@
       </c>
       <c r="H5" s="30">
         <f t="array" ref="H5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish a complete class plan</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="J5" s="6">
         <f t="array" ref="J5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.26041666666666674</v>
-      </c>
-      <c r="K5" s="50" t="str">
+        <v>9.3749999999999889E-2</v>
+      </c>
+      <c r="K5" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -2751,18 +2982,18 @@
       </c>
       <c r="O5" s="5">
         <f t="array" ref="O5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="P5" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
+        <v>Send Jayne my TA preferences</v>
       </c>
       <c r="R5" s="5">
         <v>-4</v>
       </c>
       <c r="S5" t="str">
         <f t="array" ref="S5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>I'm interested in machine learning but does that help me model?</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2778,7 +3009,7 @@
       </c>
       <c r="D6" s="6">
         <f t="array" ref="D6">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0</v>
+        <v>0.23958333333333331</v>
       </c>
       <c r="F6" s="5">
         <v>-14</v>
@@ -2789,17 +3020,17 @@
       </c>
       <c r="H6" s="30">
         <f t="array" ref="H6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I6" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Introduction to Statistical Learning</v>
       </c>
       <c r="J6" s="6">
         <f t="array" ref="J6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="50" t="str">
+      <c r="K6" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -2813,18 +3044,18 @@
       </c>
       <c r="O6" s="5">
         <f t="array" ref="O6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P6" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish a complete class plan</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="R6" s="5">
         <v>-5</v>
       </c>
       <c r="S6" t="str">
         <f t="array" ref="S6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Human system isn't idempotent. It learns based on past inputs.</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2837,19 +3068,19 @@
       </c>
       <c r="H7" s="30">
         <f t="array" ref="H7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read all article abstracts</v>
+        <v>Add hours to update sheet</v>
       </c>
       <c r="J7" s="6">
         <f t="array" ref="J7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.15625</v>
-      </c>
-      <c r="K7" s="50" t="str">
+        <v>0.17708333333333326</v>
+      </c>
+      <c r="K7" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="5">
@@ -2872,7 +3103,7 @@
       </c>
       <c r="S7" t="str">
         <f t="array" ref="S7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>I have a wedding in OKC on January 14th?</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2883,19 +3114,19 @@
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="30" t="str">
         <f t="array" ref="H8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
+        <v/>
       </c>
       <c r="I8" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
-      </c>
-      <c r="J8" s="6">
+        <v/>
+      </c>
+      <c r="J8" s="6" t="str">
         <f t="array" ref="J8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>9.3749999999999889E-2</v>
-      </c>
-      <c r="K8" s="50" t="str">
+        <v/>
+      </c>
+      <c r="K8" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -2920,7 +3151,7 @@
       </c>
       <c r="S8" t="str">
         <f t="array" ref="S8">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can I use my own branch in literature?</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2931,19 +3162,19 @@
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="H9" s="30" t="str">
+      <c r="H9" s="30">
         <f t="array" ref="H9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="I9" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J9" s="6" t="str">
+        <v>Read article abstracts</v>
+      </c>
+      <c r="J9" s="6">
         <f t="array" ref="J9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K9" s="50" t="str">
+        <v>0.15625</v>
+      </c>
+      <c r="K9" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -2955,20 +3186,20 @@
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="O9" s="5" t="str">
+      <c r="O9" s="5">
         <f t="array" ref="O9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="P9" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Finish first year class plan</v>
       </c>
       <c r="R9" s="5">
         <v>-8</v>
       </c>
       <c r="S9" t="str">
         <f t="array" ref="S9">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>What classes am I "qualified" to GTA?</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2979,21 +3210,21 @@
         <f>MAX(Periods[Id]) -1</f>
         <v>4</v>
       </c>
-      <c r="H10" s="30" t="str">
+      <c r="H10" s="30">
         <f t="array" ref="H10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J10" s="6" t="str">
+        <v>Introduction to Statistical Learning Chp 2</v>
+      </c>
+      <c r="J10" s="6">
         <f t="array" ref="J10">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K10" s="50" t="str">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="K10" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="5">
@@ -3016,7 +3247,7 @@
       </c>
       <c r="S10" t="str">
         <f t="array" ref="S10">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How have HHS systems been modeled?</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -3039,7 +3270,7 @@
         <f t="array" ref="J11">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K11" s="50" t="str">
+      <c r="K11" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3051,20 +3282,20 @@
         <f>MAX(Periods[Id])</f>
         <v>5</v>
       </c>
-      <c r="O11" s="5" t="str">
+      <c r="O11" s="5">
         <f t="array" ref="O11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="P11" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="R11" s="5">
         <v>-10</v>
       </c>
       <c r="S11" t="str">
         <f t="array" ref="S11">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Can we design a CHS conceptual framework that works in all situations?</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -3079,7 +3310,7 @@
         <f t="array" ref="H12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="51" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -3087,7 +3318,7 @@
         <f t="array" ref="J12">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K12" s="50" t="str">
+      <c r="K12" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3135,7 +3366,7 @@
         <f t="array" ref="J13">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K13" s="50" t="str">
+      <c r="K13" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3176,7 +3407,7 @@
         <f t="array" ref="J14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K14" s="50" t="str">
+      <c r="K14" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3217,7 +3448,7 @@
         <f t="array" ref="J15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K15" s="50" t="str">
+      <c r="K15" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3258,7 +3489,7 @@
         <f t="array" ref="J16">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K16" s="50" t="str">
+      <c r="K16" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3299,7 +3530,7 @@
         <f t="array" ref="J17">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K17" s="50" t="str">
+      <c r="K17" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3340,7 +3571,7 @@
         <f t="array" ref="J18">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K18" s="50" t="str">
+      <c r="K18" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3381,7 +3612,7 @@
         <f t="array" ref="J19">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K19" s="50" t="str">
+      <c r="K19" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3422,7 +3653,7 @@
         <f t="array" ref="J20">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K20" s="50" t="str">
+      <c r="K20" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3463,7 +3694,7 @@
         <f t="array" ref="J21">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="K21" s="50" t="str">
+      <c r="K21" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3500,7 +3731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -3530,11 +3761,11 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="47">
+      <c r="J1" s="52">
         <f>MAX(Periods[Start])</f>
         <v>42529</v>
       </c>
-      <c r="K1" s="48"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="13"/>
       <c r="M1" s="7"/>
     </row>
@@ -3558,7 +3789,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>26</v>
@@ -3571,111 +3802,111 @@
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v>Account for conferences in pub plan</v>
+        <v/>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="43">
+      <c r="D4" s="43" t="str">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F4" s="16"/>
       <c r="H4" s="17" t="str">
         <f t="array" ref="H4:H18">ThisWeekTasks[Description]</f>
-        <v>Send Jayne my TA preferences</v>
+        <v>Read article abstracts</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Add hours to update sheet</v>
+        <v>Account for conferences in pub plan</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="44">
-        <v>0.17708333333333326</v>
+        <v>0</v>
       </c>
       <c r="E5" s="42" t="str">
         <v>X</v>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Introduction to Statistical Learning</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="45">
-        <v>2.083333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="41" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>Read all article abstracts</v>
+        <v/>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Finish a complete class plan</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="45">
-        <v>0.26041666666666674</v>
+        <v>9.3749999999999889E-2</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v>Send Jayne my TA preferences</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Introduction to Statistical Learning</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3688,27 +3919,27 @@
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="str">
-        <v>Finish a complete class plan</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Read all article abstracts</v>
+        <v>Add hours to update sheet</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="45">
-        <v>0.15625</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="E9" s="41" t="str">
-        <v/>
+        <v>X</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
@@ -3719,18 +3950,18 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v/>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="45">
-        <v>9.3749999999999889E-2</v>
+      <c r="D10" s="45" t="str">
+        <v/>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -3744,18 +3975,18 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="str">
-        <v/>
+        <v>Read article abstracts</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="45" t="str">
-        <v/>
+      <c r="D11" s="45">
+        <v>0.15625</v>
       </c>
       <c r="E11" s="41" t="str">
         <v/>
@@ -3763,27 +3994,27 @@
       <c r="F11" s="15"/>
       <c r="G11" s="13"/>
       <c r="H11" s="10" t="str">
-        <v/>
+        <v>Finish first year class plan</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="str">
-        <v/>
+        <v>Introduction to Statistical Learning Chp 2</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="43" t="str">
-        <v/>
+      <c r="D12" s="43">
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E12" s="41" t="str">
-        <v/>
+        <v>X</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
@@ -3794,7 +4025,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12"/>
     </row>
@@ -3811,7 +4042,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="19" t="str">
-        <v/>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -3953,12 +4184,12 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>Can we look at how physical infrastructure impacts a community for inspiration?</v>
+        <v/>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="51"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
@@ -3970,12 +4201,12 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v>Can we model ubiquitious computing's impact on any or just one at a time?</v>
+        <v/>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="52"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -3987,12 +4218,12 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v>Can we model ubiquitious computing's impact on a community without individuals?</v>
+        <v/>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="52"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -4004,7 +4235,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v>I'm interested in machine learning but does that help me model?</v>
+        <v/>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4021,7 +4252,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="str">
-        <v>Human system isn't idempotent. It learns based on past inputs.</v>
+        <v/>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -4038,7 +4269,7 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="str">
-        <v>I have a wedding in OKC on January 14th?</v>
+        <v/>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -4055,7 +4286,7 @@
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="str">
-        <v>Can I use my own branch in literature?</v>
+        <v/>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -4072,7 +4303,7 @@
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="str">
-        <v>What classes am I "qualified" to GTA?</v>
+        <v/>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -4089,7 +4320,7 @@
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="str">
-        <v>How have HHS systems been modeled?</v>
+        <v/>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -4106,7 +4337,7 @@
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="str">
-        <v>Can we design a CHS conceptual framework that works in all situations?</v>
+        <v/>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -4232,65 +4463,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>Reading Reinforcemet Learning</t>
+  </si>
+  <si>
+    <t>Organizing Updates</t>
+  </si>
+  <si>
+    <t>Show</t>
   </si>
 </sst>
 </file>
@@ -675,7 +681,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <border>
         <right style="thin">
@@ -801,6 +810,12 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -822,9 +837,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -896,55 +908,40 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F31" totalsRowShown="0">
   <autoFilter ref="A1:F31">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="14"/>
-        <filter val="16"/>
-        <filter val="17"/>
-        <filter val="19"/>
-        <filter val="22"/>
-        <filter val="24"/>
-        <filter val="27"/>
-        <filter val="28"/>
-        <filter val="29"/>
-        <filter val="30"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A17:F31">
-    <sortCondition ref="F2:F30"/>
-    <sortCondition ref="E2:E30"/>
-    <sortCondition ref="D2:D30"/>
+  <sortState ref="A21:F31">
+    <sortCondition ref="F2:F31"/>
+    <sortCondition ref="E2:E31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="8" name="Id" dataDxfId="39"/>
+    <tableColumn id="8" name="Id" dataDxfId="41"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="38"/>
-    <tableColumn id="3" name="Started" dataDxfId="37"/>
-    <tableColumn id="5" name="Finished" dataDxfId="36"/>
+    <tableColumn id="4" name="Due" dataDxfId="40"/>
+    <tableColumn id="3" name="Started" dataDxfId="39"/>
+    <tableColumn id="5" name="Finished" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H21" totalsRowShown="0">
-  <autoFilter ref="A1:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H22" totalsRowShown="0">
+  <autoFilter ref="A1:H22"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
     <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start" dataDxfId="35"/>
-    <tableColumn id="7" name="End" dataDxfId="34"/>
-    <tableColumn id="1" name="Hours" dataDxfId="33">
+    <tableColumn id="6" name="Start" dataDxfId="37"/>
+    <tableColumn id="7" name="End" dataDxfId="36"/>
+    <tableColumn id="1" name="Hours" dataDxfId="35">
       <calculatedColumnFormula>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Goal" dataDxfId="32"/>
-    <tableColumn id="3" name="Goal Description" dataDxfId="31">
+    <tableColumn id="2" name="Goal" dataDxfId="34"/>
+    <tableColumn id="3" name="Goal Description" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -965,15 +962,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="30"/>
-    <tableColumn id="2" name="Start" dataDxfId="29"/>
-    <tableColumn id="3" name="End" dataDxfId="28">
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Start" dataDxfId="31"/>
+    <tableColumn id="3" name="End" dataDxfId="30">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Hours" dataDxfId="27">
+    <tableColumn id="4" name="Hours" dataDxfId="29">
       <calculatedColumnFormula array="1">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -982,26 +979,30 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="LastWeekTasks" displayName="LastWeekTasks" ref="F1:K21" totalsRowShown="0">
-  <autoFilter ref="F1:K21"/>
-  <sortState ref="F2:K21">
-    <sortCondition descending="1" ref="K1:K21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="LastWeekTasks" displayName="LastWeekTasks" ref="F1:L21" totalsRowShown="0">
+  <autoFilter ref="F1:L21"/>
+  <sortState ref="F2:L21">
+    <sortCondition descending="1" ref="H2:H21"/>
+    <sortCondition ref="F2:F21"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="2" name="Index" dataDxfId="26"/>
-    <tableColumn id="4" name="Period" dataDxfId="25">
+  <tableColumns count="7">
+    <tableColumn id="2" name="Index" dataDxfId="28"/>
+    <tableColumn id="4" name="Period" dataDxfId="27">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="24">
+    <tableColumn id="7" name="Show" dataDxfId="16">
+      <calculatedColumnFormula>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Goal" dataDxfId="26">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="23">
+    <tableColumn id="1" name="Goal Description" dataDxfId="25">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="22">
+    <tableColumn id="6" name="Hours" dataDxfId="17">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="21">
+    <tableColumn id="3" name="Done" dataDxfId="24">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1010,20 +1011,24 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ThisWeekTasks" displayName="ThisWeekTasks" ref="M1:P21" totalsRowShown="0">
-  <autoFilter ref="M1:P21"/>
-  <sortState ref="M2:P21">
-    <sortCondition descending="1" ref="P1:P21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ThisWeekTasks" displayName="ThisWeekTasks" ref="N1:R21" totalsRowShown="0">
+  <autoFilter ref="N1:R21"/>
+  <sortState ref="N2:R21">
+    <sortCondition descending="1" ref="P2:P21"/>
+    <sortCondition ref="N2:N21"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="20"/>
-    <tableColumn id="6" name="Period" dataDxfId="19">
+  <tableColumns count="5">
+    <tableColumn id="2" name="Index" dataDxfId="23"/>
+    <tableColumn id="6" name="Period" dataDxfId="22">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="18">
+    <tableColumn id="3" name="Show" dataDxfId="0">
+      <calculatedColumnFormula>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Goal" dataDxfId="21">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="17">
+    <tableColumn id="1" name="Description" dataDxfId="20">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1032,14 +1037,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ThisWeekQuestions" displayName="ThisWeekQuestions" ref="R1:S12" totalsRowShown="0">
-  <autoFilter ref="R1:S12"/>
-  <sortState ref="R2:S12">
-    <sortCondition descending="1" ref="R1:R21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ThisWeekQuestions" displayName="ThisWeekQuestions" ref="T1:U12" totalsRowShown="0">
+  <autoFilter ref="T1:U12"/>
+  <sortState ref="T2:U12">
+    <sortCondition descending="1" ref="T1:T21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="16"/>
-    <tableColumn id="1" name="Question" dataDxfId="15">
+    <tableColumn id="2" name="Index" dataDxfId="19"/>
+    <tableColumn id="1" name="Question" dataDxfId="18">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1336,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1378,7 @@
       </c>
       <c r="H1" t="str">
         <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
-        <v>Current Period: 4</v>
+        <v>Current Period: 5</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
@@ -1497,16 +1502,16 @@
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>42515</v>
+        <v>42522</v>
       </c>
       <c r="E9" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="30">
         <v>3</v>
@@ -1514,16 +1519,16 @@
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>42515</v>
+        <v>42522</v>
       </c>
       <c r="E10" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="30">
         <v>3</v>
@@ -1531,10 +1536,10 @@
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>42522</v>
@@ -1548,16 +1553,16 @@
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
       <c r="D12" s="2">
-        <v>42522</v>
+        <v>42515</v>
       </c>
       <c r="E12" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="30">
         <v>3</v>
@@ -1565,16 +1570,16 @@
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>42522</v>
+        <v>42515</v>
       </c>
       <c r="E13" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="30">
         <v>3</v>
@@ -1631,38 +1636,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D17" s="2">
+        <v>42529</v>
+      </c>
       <c r="E17" s="30">
-        <v>3</v>
-      </c>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F17" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42529</v>
+      </c>
       <c r="E18" s="30">
-        <v>3</v>
-      </c>
-      <c r="F18" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="30">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2">
         <v>42529</v>
@@ -1671,80 +1684,72 @@
         <v>4</v>
       </c>
       <c r="F19" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2">
-        <v>42529</v>
+        <v>42538</v>
       </c>
       <c r="E20" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="2">
-        <v>42529</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="30">
-        <v>4</v>
-      </c>
-      <c r="F21" s="30">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>29</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2">
-        <v>42538</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="30">
-        <v>5</v>
-      </c>
-      <c r="F23" s="30">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F23" s="30"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>92</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="30">
@@ -1804,26 +1809,28 @@
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>42587</v>
+      </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
       </c>
       <c r="D30" s="2">
         <v>42587</v>
@@ -1833,14 +1840,12 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2">
-        <v>42587</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
     </row>
@@ -1848,10 +1853,10 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
     <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B30" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
-    <hyperlink ref="B11" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
-    <hyperlink ref="B12" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
-    <hyperlink ref="B13" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
+    <hyperlink ref="B29" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
+    <hyperlink ref="B9" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
+    <hyperlink ref="B10" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
+    <hyperlink ref="B11" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B8" r:id="rId7" display="Read Prof. Gerber's Thoughts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,10 +2471,36 @@
         <v>Reinforcement Learning an Introduction</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>42532</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.53125</v>
+      </c>
+      <c r="F22" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H21"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H22"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2669,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,20 +2714,22 @@
     <col min="5" max="5" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
-    <col min="19" max="19" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" customWidth="1"/>
+    <col min="21" max="21" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2716,37 +2749,43 @@
         <v>40</v>
       </c>
       <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -2763,53 +2802,61 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H2" s="30" t="str">
-        <f t="array" ref="H2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I2" t="str">
+        <v>5</v>
+      </c>
+      <c r="H2" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="30">
+        <f t="array" ref="I2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>27</v>
+      </c>
+      <c r="J2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="J2" s="6" t="str">
-        <f t="array" ref="J2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K2" s="47" t="str">
+        <v>Finish first year class plan</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="L2" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="5">
-        <v>-8</v>
-      </c>
-      <c r="N2" s="30">
+        <v>X</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="5">
+        <v>-11</v>
+      </c>
+      <c r="O2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O2" s="5">
-        <f t="array" ref="O2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
-      </c>
-      <c r="P2" t="str">
+        <v>6</v>
+      </c>
+      <c r="P2" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="array" ref="Q2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>30</v>
+      </c>
+      <c r="R2" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read article abstracts</v>
-      </c>
-      <c r="R2" s="5">
+        <v>Introduction to Statistical Learning</v>
+      </c>
+      <c r="T2" s="5">
         <v>-1</v>
       </c>
-      <c r="S2" t="str">
-        <f t="array" ref="S2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" t="str">
+        <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -2830,49 +2877,57 @@
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H3" s="30">
-        <f t="array" ref="H3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>26</v>
-      </c>
-      <c r="I3" t="str">
+        <v>5</v>
+      </c>
+      <c r="H3" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="30">
+        <f t="array" ref="I3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>18</v>
+      </c>
+      <c r="J3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Account for conferences in pub plan</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="array" ref="J3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="48" t="str">
+        <v>Send Jayne my TA preferences</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="L3" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v>X</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="5">
-        <v>-14</v>
-      </c>
-      <c r="N3" s="30">
+      <c r="M3" s="2"/>
+      <c r="N3" s="5">
+        <v>-10</v>
+      </c>
+      <c r="O3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="array" ref="O3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>30</v>
-      </c>
-      <c r="P3" t="str">
+        <v>6</v>
+      </c>
+      <c r="P3" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="array" ref="Q3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>14</v>
+      </c>
+      <c r="R3" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning</v>
-      </c>
-      <c r="R3" s="5">
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+      <c r="T3" s="5">
         <v>-2</v>
       </c>
-      <c r="S3" t="str">
-        <f t="array" ref="S3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3" t="str">
+        <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -2888,53 +2943,61 @@
         <v>0.25000000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H4" s="30">
-        <f t="array" ref="H4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
-      </c>
-      <c r="I4" t="str">
+        <v>5</v>
+      </c>
+      <c r="H4" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="array" ref="I4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>30</v>
+      </c>
+      <c r="J4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="array" ref="J4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v>Introduction to Statistical Learning</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="48" t="str">
+      <c r="L4" s="47" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="5">
-        <v>-13</v>
-      </c>
-      <c r="N4" s="30">
+      <c r="M4" s="2"/>
+      <c r="N4" s="5">
+        <v>-9</v>
+      </c>
+      <c r="O4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O4" s="5" t="str">
-        <f t="array" ref="O4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P4" t="str">
+        <v>6</v>
+      </c>
+      <c r="P4" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="array" ref="Q4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>24</v>
+      </c>
+      <c r="R4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="R4" s="5">
+        <v>Read article abstracts</v>
+      </c>
+      <c r="T4" s="5">
         <v>-3</v>
       </c>
-      <c r="S4" t="str">
-        <f t="array" ref="S4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4" t="str">
+        <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -2954,49 +3017,57 @@
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H5" s="30">
-        <f t="array" ref="H5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>14</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+      <c r="K5" s="6">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", -1, SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="48" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <v/>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5">
+        <v>-8</v>
+      </c>
+      <c r="O5" s="30">
+        <f>MAX(Periods[Id])</f>
+        <v>6</v>
+      </c>
+      <c r="P5" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="array" ref="Q5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>29</v>
       </c>
-      <c r="I5" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
+      <c r="R5" t="str">
+        <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Integrate into UVA System</v>
       </c>
-      <c r="J5" s="6">
-        <f t="array" ref="J5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>9.3749999999999889E-2</v>
-      </c>
-      <c r="K5" s="48" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="5">
-        <v>-9</v>
-      </c>
-      <c r="N5" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="array" ref="O5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>18</v>
-      </c>
-      <c r="P5" t="str">
-        <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Send Jayne my TA preferences</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="T5" s="5">
         <v>-4</v>
       </c>
-      <c r="S5" t="str">
-        <f t="array" ref="S5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5" t="str">
+        <f t="array" ref="U5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -3009,708 +3080,850 @@
       </c>
       <c r="D6" s="6">
         <f t="array" ref="D6">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0.23958333333333331</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="F6" s="5">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H6" s="30">
-        <f t="array" ref="H6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>30</v>
-      </c>
-      <c r="I6" t="str">
+        <v>5</v>
+      </c>
+      <c r="H6" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>24</v>
+      </c>
+      <c r="J6" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="array" ref="J6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v>Read article abstracts</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="48" t="str">
+      <c r="L6" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="5">
-        <v>-10</v>
-      </c>
-      <c r="N6" s="30">
+      <c r="M6" s="2"/>
+      <c r="N6" s="5">
+        <v>-20</v>
+      </c>
+      <c r="O6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="array" ref="O6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
-      </c>
-      <c r="P6" t="str">
+        <v>6</v>
+      </c>
+      <c r="P6" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="str">
+        <f t="array" ref="Q6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R6" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
-      </c>
-      <c r="R6" s="5">
+        <v/>
+      </c>
+      <c r="T6" s="5">
         <v>-5</v>
       </c>
-      <c r="S6" t="str">
-        <f t="array" ref="S6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6" t="str">
+        <f t="array" ref="U6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42536</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42543</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="array" ref="D7">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0</v>
+      </c>
       <c r="F7" s="5">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H7" s="30">
-        <f t="array" ref="H7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>25</v>
-      </c>
-      <c r="I7" t="str">
+        <v>5</v>
+      </c>
+      <c r="H7" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>29</v>
+      </c>
+      <c r="J7" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Add hours to update sheet</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="array" ref="J7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.17708333333333326</v>
-      </c>
-      <c r="K7" s="48" t="str">
+        <v>Integrate into UVA System</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v>X</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="5">
-        <v>-12</v>
-      </c>
-      <c r="N7" s="30">
+        <v/>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="5">
+        <v>-19</v>
+      </c>
+      <c r="O7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O7" s="5" t="str">
-        <f t="array" ref="O7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P7" t="str">
+        <v>6</v>
+      </c>
+      <c r="P7" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="str">
+        <f t="array" ref="Q7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R7" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="R7" s="5">
+      <c r="T7" s="5">
         <v>-6</v>
       </c>
-      <c r="S7" t="str">
-        <f t="array" ref="S7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7" t="str">
+        <f t="array" ref="U7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F8" s="5">
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H8" s="30" t="str">
-        <f t="array" ref="H8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I8" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="H8" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="30" t="str">
+        <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J8" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J8" s="6" t="str">
-        <f t="array" ref="J8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K8" s="48" t="str">
+      <c r="K8" s="6" t="str">
+        <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L8" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="5">
-        <v>-5</v>
-      </c>
-      <c r="N8" s="30">
+      <c r="M8" s="2"/>
+      <c r="N8" s="5">
+        <v>-18</v>
+      </c>
+      <c r="O8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O8" s="5" t="str">
-        <f t="array" ref="O8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P8" t="str">
+        <v>6</v>
+      </c>
+      <c r="P8" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" t="str">
+        <f t="array" ref="Q8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R8" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="R8" s="5">
+      <c r="T8" s="5">
         <v>-7</v>
       </c>
-      <c r="S8" t="str">
-        <f t="array" ref="S8">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8" t="str">
+        <f t="array" ref="U8">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9" s="5">
-        <v>-8</v>
+        <v>-19</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H9" s="30">
-        <f t="array" ref="H9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
-      </c>
-      <c r="I9" t="str">
+        <v>5</v>
+      </c>
+      <c r="H9" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="30" t="str">
+        <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J9" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read article abstracts</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="array" ref="J9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.15625</v>
-      </c>
-      <c r="K9" s="48" t="str">
+        <v/>
+      </c>
+      <c r="K9" s="6" t="str">
+        <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L9" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="5">
-        <v>-11</v>
-      </c>
-      <c r="N9" s="30">
+      <c r="M9" s="2"/>
+      <c r="N9" s="5">
+        <v>-17</v>
+      </c>
+      <c r="O9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="array" ref="O9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
-      </c>
-      <c r="P9" t="str">
+        <v>6</v>
+      </c>
+      <c r="P9" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5" t="str">
+        <f t="array" ref="Q9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R9" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish first year class plan</v>
-      </c>
-      <c r="R9" s="5">
+        <v/>
+      </c>
+      <c r="T9" s="5">
         <v>-8</v>
       </c>
-      <c r="S9" t="str">
-        <f t="array" ref="S9">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9" t="str">
+        <f t="array" ref="U9">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10" s="5">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H10" s="30">
-        <f t="array" ref="H10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="H10" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
       </c>
       <c r="I10" s="30" t="str">
+        <f t="array" ref="I10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J10" s="51" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning Chp 2</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="array" ref="J10">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="K10" s="48" t="str">
+        <v/>
+      </c>
+      <c r="K10" s="6" t="str">
+        <f t="array" ref="K10">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L10" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v>X</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="5">
+        <v/>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="5">
         <v>-16</v>
       </c>
-      <c r="N10" s="30">
+      <c r="O10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O10" s="5" t="str">
-        <f t="array" ref="O10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P10" s="30" t="str">
+        <v>6</v>
+      </c>
+      <c r="P10" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f t="array" ref="Q10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R10" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="R10" s="5">
+      <c r="T10" s="5">
         <v>-9</v>
       </c>
-      <c r="S10" t="str">
-        <f t="array" ref="S10">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10" t="str">
+        <f t="array" ref="U10">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11" s="5">
         <v>-17</v>
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H11" s="30" t="str">
-        <f t="array" ref="H11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I11" s="46" t="str">
+        <v>5</v>
+      </c>
+      <c r="H11" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="30" t="str">
+        <f t="array" ref="I11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J11" s="46" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J11" s="6" t="str">
-        <f t="array" ref="J11">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K11" s="48" t="str">
+      <c r="K11" s="6" t="str">
+        <f t="array" ref="K11">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L11" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="5">
+      <c r="M11" s="2"/>
+      <c r="N11" s="5">
         <v>-15</v>
       </c>
-      <c r="N11" s="30">
+      <c r="O11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="array" ref="O11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
-      </c>
-      <c r="P11" t="str">
+        <v>6</v>
+      </c>
+      <c r="P11" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5" t="str">
+        <f t="array" ref="Q11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R11" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
-      </c>
-      <c r="R11" s="5">
+        <v/>
+      </c>
+      <c r="T11" s="5">
         <v>-10</v>
       </c>
-      <c r="S11" t="str">
-        <f t="array" ref="S11">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U11" t="str">
+        <f t="array" ref="U11">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12" s="5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H12" s="30" t="str">
-        <f t="array" ref="H12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I12" s="51" t="str">
+        <v>5</v>
+      </c>
+      <c r="H12" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="30" t="str">
+        <f t="array" ref="I12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J12" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J12" s="6" t="str">
-        <f t="array" ref="J12">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K12" s="48" t="str">
+      <c r="K12" s="6" t="str">
+        <f t="array" ref="K12">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L12" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="30">
+      <c r="M12" s="2"/>
+      <c r="N12" s="5">
+        <v>-14</v>
+      </c>
+      <c r="O12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O12" s="5" t="str">
-        <f t="array" ref="O12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P12" t="str">
+        <v>6</v>
+      </c>
+      <c r="P12" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5" t="str">
+        <f t="array" ref="Q12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R12" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="R12" s="5">
+      <c r="T12" s="5">
         <v>-11</v>
       </c>
-      <c r="S12" s="30" t="str">
-        <f t="array" ref="S12">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U12" s="30" t="str">
+        <f t="array" ref="U12">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F13" s="5">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H13" s="30" t="str">
-        <f t="array" ref="H13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
       </c>
       <c r="I13" s="30" t="str">
+        <f t="array" ref="I13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J13" s="6" t="str">
-        <f t="array" ref="J13">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K13" s="48" t="str">
+      <c r="K13" s="6" t="str">
+        <f t="array" ref="K13">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L13" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="5">
-        <v>-2</v>
-      </c>
-      <c r="N13" s="30">
+      <c r="M13" s="2"/>
+      <c r="N13" s="5">
+        <v>-13</v>
+      </c>
+      <c r="O13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O13" s="5" t="str">
-        <f t="array" ref="O13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P13" t="str">
+        <v>6</v>
+      </c>
+      <c r="P13" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="str">
+        <f t="array" ref="Q13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R13" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F14" s="5">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H14" s="30" t="str">
-        <f t="array" ref="H14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
       </c>
       <c r="I14" s="30" t="str">
+        <f t="array" ref="I14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J14" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J14" s="6" t="str">
-        <f t="array" ref="J14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K14" s="48" t="str">
+      <c r="K14" s="6" t="str">
+        <f t="array" ref="K14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L14" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="5">
-        <v>-3</v>
-      </c>
-      <c r="N14" s="30">
+      <c r="M14" s="2"/>
+      <c r="N14" s="5">
+        <v>-12</v>
+      </c>
+      <c r="O14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O14" s="5" t="str">
-        <f t="array" ref="O14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P14" t="str">
+        <v>6</v>
+      </c>
+      <c r="P14" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5" t="str">
+        <f t="array" ref="Q14">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R14" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F15" s="5">
         <v>-7</v>
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H15" s="30" t="str">
-        <f t="array" ref="H15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I15" t="str">
+        <v>5</v>
+      </c>
+      <c r="H15" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="30" t="str">
+        <f t="array" ref="I15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J15" s="6" t="str">
-        <f t="array" ref="J15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K15" s="48" t="str">
+      <c r="K15" s="6" t="str">
+        <f t="array" ref="K15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L15" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="5">
-        <v>-4</v>
-      </c>
-      <c r="N15" s="30">
+      <c r="M15" s="2"/>
+      <c r="N15" s="5">
+        <v>-7</v>
+      </c>
+      <c r="O15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O15" s="5" t="str">
-        <f t="array" ref="O15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P15" t="str">
+        <v>6</v>
+      </c>
+      <c r="P15" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5" t="str">
+        <f t="array" ref="Q15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R15" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F16" s="5">
         <v>-6</v>
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H16" s="30" t="str">
-        <f t="array" ref="H16">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I16" t="str">
+        <v>5</v>
+      </c>
+      <c r="H16" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="30" t="str">
+        <f t="array" ref="I16">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J16" s="6" t="str">
-        <f t="array" ref="J16">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K16" s="48" t="str">
+      <c r="K16" s="6" t="str">
+        <f t="array" ref="K16">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L16" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="5">
+      <c r="M16" s="2"/>
+      <c r="N16" s="5">
         <v>-6</v>
       </c>
-      <c r="N16" s="30">
+      <c r="O16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O16" s="5" t="str">
-        <f t="array" ref="O16">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P16" t="str">
+        <v>6</v>
+      </c>
+      <c r="P16" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5" t="str">
+        <f t="array" ref="Q16">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R16" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F17" s="5">
         <v>-5</v>
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H17" s="30" t="str">
-        <f t="array" ref="H17">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I17" t="str">
+        <v>5</v>
+      </c>
+      <c r="H17" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="30" t="str">
+        <f t="array" ref="I17">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J17" s="6" t="str">
-        <f t="array" ref="J17">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K17" s="48" t="str">
+      <c r="K17" s="6" t="str">
+        <f t="array" ref="K17">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L17" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="5">
-        <v>-7</v>
-      </c>
-      <c r="N17" s="30">
+      <c r="M17" s="2"/>
+      <c r="N17" s="5">
+        <v>-5</v>
+      </c>
+      <c r="O17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O17" s="5" t="str">
-        <f t="array" ref="O17">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P17" t="str">
+        <v>6</v>
+      </c>
+      <c r="P17" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="str">
+        <f t="array" ref="Q17">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R17" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F18" s="5">
         <v>-4</v>
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H18" s="30" t="str">
-        <f t="array" ref="H18">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I18" t="str">
+        <v>5</v>
+      </c>
+      <c r="H18" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="30" t="str">
+        <f t="array" ref="I18">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J18" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J18" s="6" t="str">
-        <f t="array" ref="J18">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K18" s="48" t="str">
+      <c r="K18" s="6" t="str">
+        <f t="array" ref="K18">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L18" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="5">
-        <v>-17</v>
-      </c>
-      <c r="N18" s="30">
+      <c r="M18" s="2"/>
+      <c r="N18" s="5">
+        <v>-4</v>
+      </c>
+      <c r="O18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O18" s="5" t="str">
-        <f t="array" ref="O18">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P18" s="30" t="str">
+        <v>6</v>
+      </c>
+      <c r="P18" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5" t="str">
+        <f t="array" ref="Q18">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R18" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F19" s="5">
         <v>-3</v>
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="30" t="str">
-        <f t="array" ref="H19">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I19" t="str">
+        <v>5</v>
+      </c>
+      <c r="H19" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="30" t="str">
+        <f t="array" ref="I19">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J19" s="6" t="str">
-        <f t="array" ref="J19">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K19" s="48" t="str">
+      <c r="K19" s="6" t="str">
+        <f t="array" ref="K19">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L19" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="5">
-        <v>-18</v>
-      </c>
-      <c r="N19" s="30">
+      <c r="M19" s="2"/>
+      <c r="N19" s="5">
+        <v>-3</v>
+      </c>
+      <c r="O19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O19" s="5" t="str">
-        <f t="array" ref="O19">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P19" s="30" t="str">
+        <v>6</v>
+      </c>
+      <c r="P19" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5" t="str">
+        <f t="array" ref="Q19">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R19" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F20" s="5">
         <v>-2</v>
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H20" s="30" t="str">
-        <f t="array" ref="H20">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I20" t="str">
+        <v>5</v>
+      </c>
+      <c r="H20" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="30" t="str">
+        <f t="array" ref="I20">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J20" s="6" t="str">
-        <f t="array" ref="J20">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K20" s="48" t="str">
+      <c r="K20" s="6" t="str">
+        <f t="array" ref="K20">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L20" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="5">
-        <v>-19</v>
-      </c>
-      <c r="N20" s="30">
+      <c r="M20" s="2"/>
+      <c r="N20" s="5">
+        <v>-2</v>
+      </c>
+      <c r="O20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O20" s="5" t="str">
-        <f t="array" ref="O20">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P20" s="30" t="str">
+        <v>6</v>
+      </c>
+      <c r="P20" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5" t="str">
+        <f t="array" ref="Q20">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R20" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F21" s="5">
         <v>-1</v>
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>4</v>
-      </c>
-      <c r="H21" s="30" t="str">
-        <f t="array" ref="H21">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="I21" t="str">
+        <v>5</v>
+      </c>
+      <c r="H21" s="30" t="b">
+        <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="30" t="str">
+        <f t="array" ref="I21">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="J21" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J21" s="6" t="str">
-        <f t="array" ref="J21">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="K21" s="48" t="str">
+      <c r="K21" s="6" t="str">
+        <f t="array" ref="K21">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v/>
+      </c>
+      <c r="L21" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="5">
-        <v>-20</v>
-      </c>
-      <c r="N21" s="30">
+      <c r="M21" s="2"/>
+      <c r="N21" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>5</v>
-      </c>
-      <c r="O21" s="5" t="str">
-        <f t="array" ref="O21">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="P21" s="30" t="str">
+        <v>6</v>
+      </c>
+      <c r="P21" s="30" t="b">
+        <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5" t="str">
+        <f t="array" ref="Q21">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v/>
+      </c>
+      <c r="R21" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -3763,7 +3976,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="52">
         <f>MAX(Periods[Start])</f>
-        <v>42529</v>
+        <v>42536</v>
       </c>
       <c r="K1" s="53"/>
       <c r="L1" s="13"/>
@@ -3808,22 +4021,22 @@
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v/>
+        <v>Finish first year class plan</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="43" t="str">
+      <c r="D4" s="43">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v/>
+        <v>3.125E-2</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F4" s="16"/>
       <c r="H4" s="17" t="str">
         <f t="array" ref="H4:H18">ThisWeekTasks[Description]</f>
-        <v>Read article abstracts</v>
+        <v>Introduction to Statistical Learning</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -3834,19 +4047,19 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Account for conferences in pub plan</v>
+        <v>Send Jayne my TA preferences</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="44">
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E5" s="42" t="str">
         <v>X</v>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
-        <v>Introduction to Statistical Learning</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -3858,7 +4071,7 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Introduction to Statistical Learning</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3870,7 +4083,7 @@
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v/>
+        <v>Read article abstracts</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -3882,19 +4095,19 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="45">
-        <v>9.3749999999999889E-2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
-        <v>Send Jayne my TA preferences</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -3906,7 +4119,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Introduction to Statistical Learning</v>
+        <v>Read article abstracts</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3919,7 +4132,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v/>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3931,15 +4144,15 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Add hours to update sheet</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="45">
-        <v>0.17708333333333326</v>
+        <v>0</v>
       </c>
       <c r="E9" s="41" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
@@ -3981,12 +4194,12 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="str">
-        <v>Read article abstracts</v>
+        <v/>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="45">
-        <v>0.15625</v>
+      <c r="D11" s="45" t="str">
+        <v/>
       </c>
       <c r="E11" s="41" t="str">
         <v/>
@@ -3994,7 +4207,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="13"/>
       <c r="H11" s="10" t="str">
-        <v>Finish first year class plan</v>
+        <v/>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -4006,15 +4219,15 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="str">
-        <v>Introduction to Statistical Learning Chp 2</v>
+        <v/>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="43">
-        <v>2.083333333333337E-2</v>
+      <c r="D12" s="43" t="str">
+        <v/>
       </c>
       <c r="E12" s="41" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
@@ -4042,7 +4255,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="19" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v/>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -4463,65 +4676,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>Show</t>
+  </si>
+  <si>
+    <t>How does the University handle source code I write while a student?</t>
   </si>
 </sst>
 </file>
@@ -683,9 +686,6 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border>
         <right style="thin">
           <color auto="1"/>
@@ -810,7 +810,8 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -832,11 +833,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -929,8 +932,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H22" totalsRowShown="0">
-  <autoFilter ref="A1:H22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H23" totalsRowShown="0">
+  <autoFilter ref="A1:H23"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -950,8 +953,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" name="Question"/>
     <tableColumn id="2" name="Answer"/>
@@ -990,19 +997,19 @@
     <tableColumn id="4" name="Period" dataDxfId="27">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Show" dataDxfId="16">
+    <tableColumn id="7" name="Show" dataDxfId="26">
       <calculatedColumnFormula>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="26">
+    <tableColumn id="5" name="Goal" dataDxfId="25">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="25">
+    <tableColumn id="1" name="Goal Description" dataDxfId="24">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="17">
+    <tableColumn id="6" name="Hours" dataDxfId="23">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="24">
+    <tableColumn id="3" name="Done" dataDxfId="22">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1018,17 +1025,17 @@
     <sortCondition ref="N2:N21"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" name="Index" dataDxfId="23"/>
-    <tableColumn id="6" name="Period" dataDxfId="22">
+    <tableColumn id="2" name="Index" dataDxfId="21"/>
+    <tableColumn id="6" name="Period" dataDxfId="20">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Show" dataDxfId="0">
+    <tableColumn id="3" name="Show" dataDxfId="19">
       <calculatedColumnFormula>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="21">
+    <tableColumn id="5" name="Goal" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="20">
+    <tableColumn id="1" name="Description" dataDxfId="17">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1043,8 +1050,8 @@
     <sortCondition descending="1" ref="T1:T21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="19"/>
-    <tableColumn id="1" name="Question" dataDxfId="18">
+    <tableColumn id="2" name="Index" dataDxfId="16"/>
+    <tableColumn id="1" name="Question" dataDxfId="15">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1341,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1870,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,10 +2504,38 @@
         <v>Miscellaneous</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>42532</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.84375</v>
+      </c>
+      <c r="F23" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G23" s="30">
+        <v>14</v>
+      </c>
+      <c r="H23" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H22"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H23"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2512,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,7 +2571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2547,7 +2582,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2558,7 +2593,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2569,7 +2604,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2580,7 +2615,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2591,7 +2626,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2602,7 +2637,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -2624,7 +2659,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -2635,7 +2670,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2646,7 +2681,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -2657,7 +2692,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -2668,7 +2703,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2679,7 +2714,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -2688,6 +2723,11 @@
       </c>
       <c r="C15" s="3">
         <v>42529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2853,7 +2893,7 @@
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>How does the University handle source code I write while a student?</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3080,7 +3120,7 @@
       </c>
       <c r="D6" s="6">
         <f t="array" ref="D6">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0.24999999999999994</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="F6" s="5">
         <v>-9</v>
@@ -4397,7 +4437,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v/>
+        <v>How does the University handle source code I write while a student?</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -4676,65 +4716,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B28" authorId="0" shapeId="0">
+    <comment ref="B29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -380,17 +380,22 @@
   </si>
   <si>
     <t>How does the University handle source code I write while a student?</t>
+  </si>
+  <si>
+    <t>Uploading Open Source Data Library</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="169" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="170" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -591,7 +596,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -651,15 +656,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,6 +672,17 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -684,7 +691,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="170" formatCode="[h]:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[h]:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <border>
         <right style="thin">
@@ -807,6 +830,127 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -833,16 +977,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -854,12 +988,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -909,42 +1037,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A21:F31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F32" totalsRowShown="0">
+  <autoFilter ref="A1:F32"/>
+  <sortState ref="A2:F32">
     <sortCondition ref="F2:F31"/>
     <sortCondition ref="E2:E31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="8" name="Id" dataDxfId="41"/>
+    <tableColumn id="8" name="Id" dataDxfId="56"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="40"/>
-    <tableColumn id="3" name="Started" dataDxfId="39"/>
-    <tableColumn id="5" name="Finished" dataDxfId="38"/>
+    <tableColumn id="4" name="Due" dataDxfId="55"/>
+    <tableColumn id="3" name="Started" dataDxfId="54"/>
+    <tableColumn id="5" name="Finished" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H23" totalsRowShown="0">
-  <autoFilter ref="A1:H23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H27" totalsRowShown="0">
+  <autoFilter ref="A1:H27"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
     <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start" dataDxfId="37"/>
-    <tableColumn id="7" name="End" dataDxfId="36"/>
-    <tableColumn id="1" name="Hours" dataDxfId="35">
+    <tableColumn id="6" name="Start" dataDxfId="52"/>
+    <tableColumn id="7" name="End" dataDxfId="51"/>
+    <tableColumn id="1" name="Hours" dataDxfId="50">
       <calculatedColumnFormula>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Goal" dataDxfId="34"/>
-    <tableColumn id="3" name="Goal Description" dataDxfId="33">
+    <tableColumn id="2" name="Goal" dataDxfId="49"/>
+    <tableColumn id="3" name="Goal Description" dataDxfId="48">
       <calculatedColumnFormula>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -972,12 +1096,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="32"/>
-    <tableColumn id="2" name="Start" dataDxfId="31"/>
-    <tableColumn id="3" name="End" dataDxfId="30">
+    <tableColumn id="1" name="Id" dataDxfId="47"/>
+    <tableColumn id="2" name="Start" dataDxfId="46"/>
+    <tableColumn id="3" name="End" dataDxfId="4">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Hours" dataDxfId="29">
+    <tableColumn id="4" name="Hours" dataDxfId="1">
       <calculatedColumnFormula array="1">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -993,23 +1117,23 @@
     <sortCondition ref="F2:F21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Index" dataDxfId="28"/>
-    <tableColumn id="4" name="Period" dataDxfId="27">
+    <tableColumn id="2" name="Index" dataDxfId="45"/>
+    <tableColumn id="4" name="Period" dataDxfId="44">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Show" dataDxfId="26">
+    <tableColumn id="7" name="Show" dataDxfId="43">
       <calculatedColumnFormula>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="25">
+    <tableColumn id="5" name="Goal" dataDxfId="42">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="24">
+    <tableColumn id="1" name="Goal Description" dataDxfId="3">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="23">
+    <tableColumn id="6" name="Hours" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="22">
+    <tableColumn id="3" name="Done" dataDxfId="2">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1025,17 +1149,17 @@
     <sortCondition ref="N2:N21"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" name="Index" dataDxfId="21"/>
-    <tableColumn id="6" name="Period" dataDxfId="20">
+    <tableColumn id="2" name="Index" dataDxfId="41"/>
+    <tableColumn id="6" name="Period" dataDxfId="40">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Show" dataDxfId="19">
+    <tableColumn id="3" name="Show" dataDxfId="39">
       <calculatedColumnFormula>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="18">
+    <tableColumn id="5" name="Goal" dataDxfId="38">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="17">
+    <tableColumn id="1" name="Description" dataDxfId="37">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1050,8 +1174,8 @@
     <sortCondition descending="1" ref="T1:T21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="16"/>
-    <tableColumn id="1" name="Question" dataDxfId="15">
+    <tableColumn id="2" name="Index" dataDxfId="36"/>
+    <tableColumn id="1" name="Question" dataDxfId="35">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1346,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1512,7 @@
         <v>Current Period: 5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1405,7 +1529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1422,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1439,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1456,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1473,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1490,7 +1614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -1507,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>10</v>
       </c>
@@ -1524,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>11</v>
       </c>
@@ -1541,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>12</v>
       </c>
@@ -1558,7 +1682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1575,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1592,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>23</v>
       </c>
@@ -1609,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>15</v>
       </c>
@@ -1626,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1643,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>25</v>
       </c>
@@ -1660,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>26</v>
       </c>
@@ -1677,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>27</v>
       </c>
@@ -1694,7 +1818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1713,36 +1837,38 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="30">
-        <v>2</v>
-      </c>
-      <c r="F21" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="F21" s="30">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="30">
@@ -1753,91 +1879,91 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>29</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2">
-        <v>42577</v>
-      </c>
-      <c r="E25" s="30"/>
+        <v>29</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="30">
+        <v>4</v>
+      </c>
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2">
-        <v>42583</v>
+        <v>42577</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>42585</v>
+        <v>42583</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>19</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="2">
-        <v>42586</v>
+        <v>42585</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="2">
-        <v>42587</v>
+        <v>42586</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>42587</v>
@@ -1847,20 +1973,33 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D31" s="2">
+        <v>42587</v>
+      </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
     <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B29" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
+    <hyperlink ref="B30" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
     <hyperlink ref="B9" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
     <hyperlink ref="B10" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B11" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
@@ -1877,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,10 +2671,130 @@
         <v>Reinforcement Learning an Introduction</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>42533</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F24" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="30">
+        <v>32</v>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Uploading Open Source Data Library</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>42534</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F25" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.20833333333333326</v>
+      </c>
+      <c r="G25" s="30">
+        <v>32</v>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Uploading Open Source Data Library</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>42535</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F26" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.1875</v>
+      </c>
+      <c r="G26" s="30">
+        <v>32</v>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Uploading Open Source Data Library</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>42536</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F27" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G27" s="30">
+        <v>14</v>
+      </c>
+      <c r="H27" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="30"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H23"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H27"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2549,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,7 +3002,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,13 +3095,13 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42508</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="51">
         <f t="array" ref="D2">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2860,11 +3119,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Finish first year class plan</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="52">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>3.125E-2</v>
       </c>
-      <c r="L2" s="48" t="str">
+      <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v>X</v>
       </c>
@@ -2907,13 +3166,13 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42515</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="51">
         <f t="array" ref="D3">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2931,11 +3190,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Send Jayne my TA preferences</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="52">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="L3" s="48" t="str">
+      <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v>X</v>
       </c>
@@ -2978,12 +3237,12 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42522</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="51">
         <f t="array" ref="D4">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0.25000000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -2995,19 +3254,19 @@
       </c>
       <c r="I4" s="30">
         <f t="array" ref="I4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning</v>
-      </c>
-      <c r="K4" s="6">
+        <v>Uploading Open Source Data Library</v>
+      </c>
+      <c r="K4" s="52">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="47" t="str">
+        <v>0.64583333333333326</v>
+      </c>
+      <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5">
@@ -3048,12 +3307,12 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42529</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="51">
         <f t="array" ref="D5">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="5">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3065,17 +3324,17 @@
       </c>
       <c r="I5" s="30">
         <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
-      </c>
-      <c r="K5" s="6">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", -1, SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
+        <v>Introduction to Statistical Learning</v>
+      </c>
+      <c r="K5" s="52">
+        <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="48" t="str">
+      <c r="L5" s="44" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3118,12 +3377,12 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42536</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="52">
         <f t="array" ref="D6">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0.30208333333333331</v>
+        <v>1.0312499999999998</v>
       </c>
       <c r="F6" s="5">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3135,17 +3394,17 @@
       </c>
       <c r="I6" s="30">
         <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
-      </c>
-      <c r="J6" s="15" t="str">
+        <v>14</v>
+      </c>
+      <c r="J6" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read article abstracts</v>
-      </c>
-      <c r="K6" s="6">
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+      <c r="K6" s="52">
         <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="48" t="str">
+        <v>0.32291666666666657</v>
+      </c>
+      <c r="L6" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3188,12 +3447,12 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42543</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="51">
         <f t="array" ref="D7">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3205,17 +3464,17 @@
       </c>
       <c r="I7" s="30">
         <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
-      </c>
-      <c r="J7" t="str">
+        <v>24</v>
+      </c>
+      <c r="J7" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
-      </c>
-      <c r="K7" s="6">
+        <v>Read article abstracts</v>
+      </c>
+      <c r="K7" s="52">
         <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="48" t="str">
+      <c r="L7" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3249,7 +3508,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F8" s="5">
-        <v>-20</v>
+        <v>-8</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3257,21 +3516,21 @@
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>29</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
+        <v>Integrate into UVA System</v>
+      </c>
+      <c r="K8" s="52">
+        <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="30" t="str">
-        <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J8" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K8" s="6" t="str">
-        <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="L8" s="48" t="str">
+      <c r="L8" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3305,7 +3564,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9" s="5">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3323,11 +3582,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K9" s="6" t="str">
+      <c r="K9" s="52" t="str">
         <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L9" s="48" t="str">
+      <c r="L9" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3361,7 +3620,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10" s="5">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3375,15 +3634,15 @@
         <f t="array" ref="I10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J10" s="51" t="str">
+      <c r="J10" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K10" s="6" t="str">
+      <c r="K10" s="52" t="str">
         <f t="array" ref="K10">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L10" s="48" t="str">
+      <c r="L10" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3417,7 +3676,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11" s="5">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3431,15 +3690,15 @@
         <f t="array" ref="I11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J11" s="46" t="str">
+      <c r="J11" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K11" s="6" t="str">
+      <c r="K11" s="52" t="str">
         <f t="array" ref="K11">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L11" s="48" t="str">
+      <c r="L11" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3473,7 +3732,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12" s="5">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3487,15 +3746,15 @@
         <f t="array" ref="I12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J12" s="30" t="str">
+      <c r="J12" s="43" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K12" s="6" t="str">
+      <c r="K12" s="52" t="str">
         <f t="array" ref="K12">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L12" s="48" t="str">
+      <c r="L12" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3529,7 +3788,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F13" s="5">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3543,15 +3802,15 @@
         <f t="array" ref="I13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K13" s="6" t="str">
+      <c r="K13" s="52" t="str">
         <f t="array" ref="K13">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L13" s="48" t="str">
+      <c r="L13" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3578,7 +3837,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F14" s="5">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id]) -1</f>
@@ -3596,11 +3855,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K14" s="6" t="str">
+      <c r="K14" s="52" t="str">
         <f t="array" ref="K14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L14" s="48" t="str">
+      <c r="L14" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3645,11 +3904,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K15" s="6" t="str">
+      <c r="K15" s="52" t="str">
         <f t="array" ref="K15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L15" s="48" t="str">
+      <c r="L15" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3694,11 +3953,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K16" s="6" t="str">
+      <c r="K16" s="52" t="str">
         <f t="array" ref="K16">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L16" s="48" t="str">
+      <c r="L16" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3743,11 +4002,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K17" s="6" t="str">
+      <c r="K17" s="52" t="str">
         <f t="array" ref="K17">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L17" s="48" t="str">
+      <c r="L17" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3792,11 +4051,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K18" s="6" t="str">
+      <c r="K18" s="52" t="str">
         <f t="array" ref="K18">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L18" s="48" t="str">
+      <c r="L18" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3841,11 +4100,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K19" s="6" t="str">
+      <c r="K19" s="52" t="str">
         <f t="array" ref="K19">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L19" s="48" t="str">
+      <c r="L19" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3890,11 +4149,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K20" s="6" t="str">
+      <c r="K20" s="52" t="str">
         <f t="array" ref="K20">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L20" s="48" t="str">
+      <c r="L20" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3939,11 +4198,11 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K21" s="6" t="str">
+      <c r="K21" s="52" t="str">
         <f t="array" ref="K21">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L21" s="48" t="str">
+      <c r="L21" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3984,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,11 +4273,11 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="52">
+      <c r="J1" s="49">
         <f>MAX(Periods[Start])</f>
         <v>42536</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="13"/>
       <c r="M1" s="7"/>
     </row>
@@ -4065,7 +4324,7 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="43">
+      <c r="D4" s="53">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
         <v>3.125E-2</v>
       </c>
@@ -4091,7 +4350,7 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="44">
+      <c r="D5" s="54">
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E5" s="42" t="str">
@@ -4111,15 +4370,15 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Introduction to Statistical Learning</v>
+        <v>Uploading Open Source Data Library</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="45">
-        <v>0</v>
+      <c r="D6" s="55">
+        <v>0.64583333333333326</v>
       </c>
       <c r="E6" s="41" t="str">
-        <v/>
+        <v>X</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
@@ -4135,11 +4394,11 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Introduction to Statistical Learning</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="45">
+      <c r="D7" s="55">
         <v>0</v>
       </c>
       <c r="E7" s="41" t="str">
@@ -4159,12 +4418,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Read article abstracts</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="45">
-        <v>0</v>
+      <c r="D8" s="55">
+        <v>0.32291666666666657</v>
       </c>
       <c r="E8" s="41" t="str">
         <v/>
@@ -4184,11 +4443,11 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v>Read article abstracts</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="45">
+      <c r="D9" s="55">
         <v>0</v>
       </c>
       <c r="E9" s="41" t="str">
@@ -4209,12 +4468,12 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v/>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="45" t="str">
-        <v/>
+      <c r="D10" s="55">
+        <v>0</v>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -4238,7 +4497,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="45" t="str">
+      <c r="D11" s="55" t="str">
         <v/>
       </c>
       <c r="E11" s="41" t="str">
@@ -4263,7 +4522,7 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="43" t="str">
+      <c r="D12" s="53" t="str">
         <v/>
       </c>
       <c r="E12" s="41" t="str">
@@ -4442,7 +4701,7 @@
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
@@ -4459,7 +4718,7 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="50"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -4476,7 +4735,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="50"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -4716,65 +4975,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>MOD(ROW(),2)=1</formula>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -383,6 +383,24 @@
   </si>
   <si>
     <t>Uploading Open Source Data Library</t>
+  </si>
+  <si>
+    <t>How important are Markov Decision Processes to learning</t>
+  </si>
+  <si>
+    <t>Is Machine Learning being used to create models of systems?</t>
+  </si>
+  <si>
+    <t>Is there research into how systems interact to make "intelligent" decisions?</t>
+  </si>
+  <si>
+    <t>Writing email asking about IP</t>
+  </si>
+  <si>
+    <t>Attending weekly lab meeting</t>
+  </si>
+  <si>
+    <t>Do we having anything like self-regulating self-correcting systems?</t>
   </si>
 </sst>
 </file>
@@ -394,8 +412,8 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="169" formatCode="[h]:mm;@"/>
-    <numFmt numFmtId="170" formatCode="[h]:mm"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -666,22 +684,22 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -691,144 +709,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[h]:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="[h]:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <border>
         <right style="thin">
@@ -977,6 +858,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[h]:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -988,6 +879,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[h]:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -1044,31 +941,31 @@
     <sortCondition ref="E2:E31"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="8" name="Id" dataDxfId="56"/>
+    <tableColumn id="8" name="Id" dataDxfId="41"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="55"/>
-    <tableColumn id="3" name="Started" dataDxfId="54"/>
-    <tableColumn id="5" name="Finished" dataDxfId="53"/>
+    <tableColumn id="4" name="Due" dataDxfId="40"/>
+    <tableColumn id="3" name="Started" dataDxfId="39"/>
+    <tableColumn id="5" name="Finished" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H27" totalsRowShown="0">
-  <autoFilter ref="A1:H27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H37" totalsRowShown="0">
+  <autoFilter ref="A1:H37"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
     <tableColumn id="5" name="Date"/>
-    <tableColumn id="6" name="Start" dataDxfId="52"/>
-    <tableColumn id="7" name="End" dataDxfId="51"/>
-    <tableColumn id="1" name="Hours" dataDxfId="50">
+    <tableColumn id="6" name="Start" dataDxfId="37"/>
+    <tableColumn id="7" name="End" dataDxfId="36"/>
+    <tableColumn id="1" name="Hours" dataDxfId="35">
       <calculatedColumnFormula>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Goal" dataDxfId="49"/>
-    <tableColumn id="3" name="Goal Description" dataDxfId="48">
+    <tableColumn id="2" name="Goal" dataDxfId="34"/>
+    <tableColumn id="3" name="Goal Description" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1077,8 +974,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C20" totalsRowShown="0">
+  <autoFilter ref="A1:C20">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -1093,15 +990,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id" dataDxfId="47"/>
-    <tableColumn id="2" name="Start" dataDxfId="46"/>
-    <tableColumn id="3" name="End" dataDxfId="4">
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Start" dataDxfId="31"/>
+    <tableColumn id="3" name="End" dataDxfId="30">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Hours" dataDxfId="1">
+    <tableColumn id="4" name="Hours" dataDxfId="29">
       <calculatedColumnFormula array="1">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1117,23 +1014,23 @@
     <sortCondition ref="F2:F21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Index" dataDxfId="45"/>
-    <tableColumn id="4" name="Period" dataDxfId="44">
+    <tableColumn id="2" name="Index" dataDxfId="28"/>
+    <tableColumn id="4" name="Period" dataDxfId="27">
       <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Show" dataDxfId="43">
+    <tableColumn id="7" name="Show" dataDxfId="26">
       <calculatedColumnFormula>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="42">
+    <tableColumn id="5" name="Goal" dataDxfId="25">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="3">
+    <tableColumn id="1" name="Goal Description" dataDxfId="24">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="0">
+    <tableColumn id="6" name="Hours" dataDxfId="23">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="2">
+    <tableColumn id="3" name="Done" dataDxfId="22">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1149,17 +1046,17 @@
     <sortCondition ref="N2:N21"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" name="Index" dataDxfId="41"/>
-    <tableColumn id="6" name="Period" dataDxfId="40">
+    <tableColumn id="2" name="Index" dataDxfId="21"/>
+    <tableColumn id="6" name="Period" dataDxfId="20">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Show" dataDxfId="39">
+    <tableColumn id="3" name="Show" dataDxfId="19">
       <calculatedColumnFormula>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="38">
+    <tableColumn id="5" name="Goal" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="37">
+    <tableColumn id="1" name="Description" dataDxfId="17">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1174,8 +1071,8 @@
     <sortCondition descending="1" ref="T1:T21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="36"/>
-    <tableColumn id="1" name="Question" dataDxfId="35">
+    <tableColumn id="2" name="Index" dataDxfId="16"/>
+    <tableColumn id="1" name="Question" dataDxfId="15">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1509,7 +1406,7 @@
       </c>
       <c r="H1" t="str">
         <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
-        <v>Current Period: 5</v>
+        <v>Current Period: 6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2016,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,18 +2680,288 @@
         <v>Reinforcement Learning an Introduction</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>42536</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F28" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G28" s="30">
+        <v>14</v>
+      </c>
+      <c r="H28" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>97</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42537</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.59375</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F29" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G29" s="30">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>42538</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F30" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G30" s="30">
+        <v>29</v>
+      </c>
+      <c r="H30" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="30"/>
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>42539</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.53125</v>
+      </c>
+      <c r="F31" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G31" s="30">
+        <v>14</v>
+      </c>
+      <c r="H31" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>42540</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F32" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G32" s="30">
+        <v>14</v>
+      </c>
+      <c r="H32" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3">
+        <v>42541</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F33" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G33" s="30">
+        <v>14</v>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>42541</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="F34" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="G34" s="30">
+        <v>14</v>
+      </c>
+      <c r="H34" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>42542</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="F35" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>42542</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F36" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G36" s="30">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <v>42542</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="F37" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G37" s="30">
+        <v>14</v>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H35"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2806,10 +2973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,6 +3154,27 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3095,17 +3283,17 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42508</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="49">
         <f t="array" ref="D2">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3113,19 +3301,19 @@
       </c>
       <c r="I2" s="30">
         <f t="array" ref="I2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Finish first year class plan</v>
-      </c>
-      <c r="K2" s="52">
+        <v>Introduction to Statistical Learning</v>
+      </c>
+      <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="L2" s="45" t="str">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="5">
@@ -3133,7 +3321,7 @@
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3152,7 +3340,7 @@
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How does the University handle source code I write while a student?</v>
+        <v>Do we having anything like self-regulating self-correcting systems?</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3166,17 +3354,17 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42515</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="49">
         <f t="array" ref="D3">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3184,19 +3372,19 @@
       </c>
       <c r="I3" s="30">
         <f t="array" ref="I3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Send Jayne my TA preferences</v>
-      </c>
-      <c r="K3" s="52">
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+      <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>2.083333333333337E-2</v>
+        <v>0.43750000000000022</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5">
@@ -3204,7 +3392,7 @@
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3223,7 +3411,7 @@
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Is there research into how systems interact to make "intelligent" decisions?</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3237,16 +3425,16 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42522</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="49">
         <f t="array" ref="D4">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0.25000000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3254,19 +3442,19 @@
       </c>
       <c r="I4" s="30">
         <f t="array" ref="I4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>32</v>
-      </c>
-      <c r="J4" t="str">
+        <v>24</v>
+      </c>
+      <c r="J4" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Uploading Open Source Data Library</v>
-      </c>
-      <c r="K4" s="52">
+        <v>Read article abstracts</v>
+      </c>
+      <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.64583333333333326</v>
+        <v>0</v>
       </c>
       <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5">
@@ -3274,7 +3462,7 @@
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3293,7 +3481,7 @@
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Is Machine Learning being used to create models of systems?</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -3307,16 +3495,16 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42529</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="49">
         <f t="array" ref="D5">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="5">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3324,17 +3512,17 @@
       </c>
       <c r="I5" s="30">
         <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning</v>
-      </c>
-      <c r="K5" s="52">
+        <v>Integrate into UVA System</v>
+      </c>
+      <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="44" t="str">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
@@ -3344,7 +3532,7 @@
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3363,7 +3551,7 @@
       </c>
       <c r="U5" t="str">
         <f t="array" ref="U5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>How important are Markov Decision Processes to learning</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -3377,32 +3565,32 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42536</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="50">
         <f t="array" ref="D6">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
         <v>1.0312499999999998</v>
       </c>
       <c r="F6" s="5">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30" t="str">
         <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
-      </c>
-      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="J6" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
-      </c>
-      <c r="K6" s="52">
+        <v/>
+      </c>
+      <c r="K6" s="50" t="str">
         <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.32291666666666657</v>
+        <v/>
       </c>
       <c r="L6" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3414,7 +3602,7 @@
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3433,7 +3621,7 @@
       </c>
       <c r="U6" t="str">
         <f t="array" ref="U6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>How does the University handle source code I write while a student?</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -3447,32 +3635,32 @@
         <f>Periods[[#This Row],[Start]] + (7)</f>
         <v>42543</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <f t="array" ref="D7">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0</v>
+        <v>0.54166666666666685</v>
       </c>
       <c r="F7" s="5">
-        <v>-9</v>
+        <v>-19</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30" t="str">
         <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
-      </c>
-      <c r="J7" s="15" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read article abstracts</v>
-      </c>
-      <c r="K7" s="52">
+        <v/>
+      </c>
+      <c r="K7" s="50" t="str">
         <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L7" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3484,7 +3672,7 @@
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3507,28 +3695,40 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="49">
+        <f t="array" ref="D8">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="5">
-        <v>-8</v>
+        <v>-18</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30" t="str">
         <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
-      </c>
-      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="J8" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
-      </c>
-      <c r="K8" s="52">
+        <v/>
+      </c>
+      <c r="K8" s="50" t="str">
         <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L8" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3540,7 +3740,7 @@
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3564,11 +3764,11 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F9" s="5">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3578,11 +3778,11 @@
         <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J9" s="30" t="str">
+      <c r="J9" s="43" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K9" s="52" t="str">
+      <c r="K9" s="50" t="str">
         <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -3596,7 +3796,7 @@
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3620,11 +3820,11 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10" s="5">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3638,7 +3838,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K10" s="52" t="str">
+      <c r="K10" s="50" t="str">
         <f t="array" ref="K10">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -3652,7 +3852,7 @@
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3676,11 +3876,11 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11" s="5">
-        <v>-18</v>
+        <v>-15</v>
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3690,11 +3890,11 @@
         <f t="array" ref="I11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J11" s="48" t="str">
+      <c r="J11" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K11" s="52" t="str">
+      <c r="K11" s="50" t="str">
         <f t="array" ref="K11">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -3708,7 +3908,7 @@
       </c>
       <c r="O11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3732,11 +3932,11 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12" s="5">
-        <v>-17</v>
+        <v>-14</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3746,11 +3946,11 @@
         <f t="array" ref="I12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J12" s="43" t="str">
+      <c r="J12" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K12" s="52" t="str">
+      <c r="K12" s="50" t="str">
         <f t="array" ref="K12">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -3764,7 +3964,7 @@
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3788,11 +3988,11 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F13" s="5">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3802,11 +4002,11 @@
         <f t="array" ref="I13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J13" s="30" t="str">
+      <c r="J13" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K13" s="52" t="str">
+      <c r="K13" s="50" t="str">
         <f t="array" ref="K13">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -3820,7 +4020,7 @@
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3837,11 +4037,11 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F14" s="5">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3855,7 +4055,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K14" s="52" t="str">
+      <c r="K14" s="50" t="str">
         <f t="array" ref="K14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -3869,7 +4069,7 @@
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3890,7 +4090,7 @@
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3904,7 +4104,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K15" s="52" t="str">
+      <c r="K15" s="50" t="str">
         <f t="array" ref="K15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -3918,7 +4118,7 @@
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3939,7 +4139,7 @@
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3953,7 +4153,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K16" s="52" t="str">
+      <c r="K16" s="50" t="str">
         <f t="array" ref="K16">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -3967,7 +4167,7 @@
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3988,7 +4188,7 @@
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4002,7 +4202,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K17" s="52" t="str">
+      <c r="K17" s="50" t="str">
         <f t="array" ref="K17">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -4016,7 +4216,7 @@
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4037,7 +4237,7 @@
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4051,7 +4251,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K18" s="52" t="str">
+      <c r="K18" s="50" t="str">
         <f t="array" ref="K18">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -4065,7 +4265,7 @@
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4086,7 +4286,7 @@
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4100,7 +4300,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K19" s="52" t="str">
+      <c r="K19" s="50" t="str">
         <f t="array" ref="K19">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -4114,7 +4314,7 @@
       </c>
       <c r="O19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4135,7 +4335,7 @@
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4149,7 +4349,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K20" s="52" t="str">
+      <c r="K20" s="50" t="str">
         <f t="array" ref="K20">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -4163,7 +4363,7 @@
       </c>
       <c r="O20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4184,7 +4384,7 @@
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id]) -1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4198,7 +4398,7 @@
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K21" s="52" t="str">
+      <c r="K21" s="50" t="str">
         <f t="array" ref="K21">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
@@ -4212,7 +4412,7 @@
       </c>
       <c r="O21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4243,8 +4443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,11 +4473,11 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="49">
+      <c r="J1" s="54">
         <f>MAX(Periods[Start])</f>
         <v>42536</v>
       </c>
-      <c r="K1" s="50"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="13"/>
       <c r="M1" s="7"/>
     </row>
@@ -4320,17 +4520,17 @@
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v>Finish first year class plan</v>
+        <v>Introduction to Statistical Learning</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="53">
+      <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F4" s="16"/>
       <c r="H4" s="17" t="str">
@@ -4346,15 +4546,15 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Send Jayne my TA preferences</v>
+        <v>Reinforcement Learning an Introduction</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="54">
-        <v>2.083333333333337E-2</v>
+      <c r="D5" s="52">
+        <v>0.43750000000000022</v>
       </c>
       <c r="E5" s="42" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
@@ -4370,15 +4570,15 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Uploading Open Source Data Library</v>
+        <v>Read article abstracts</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="55">
-        <v>0.64583333333333326</v>
+      <c r="D6" s="53">
+        <v>0</v>
       </c>
       <c r="E6" s="41" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
@@ -4394,12 +4594,12 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Introduction to Statistical Learning</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="55">
-        <v>0</v>
+      <c r="D7" s="53">
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -4418,12 +4618,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v/>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="55">
-        <v>0.32291666666666657</v>
+      <c r="D8" s="53" t="str">
+        <v/>
       </c>
       <c r="E8" s="41" t="str">
         <v/>
@@ -4443,12 +4643,12 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Read article abstracts</v>
+        <v/>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="55">
-        <v>0</v>
+      <c r="D9" s="53" t="str">
+        <v/>
       </c>
       <c r="E9" s="41" t="str">
         <v/>
@@ -4468,12 +4668,12 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v/>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="55">
-        <v>0</v>
+      <c r="D10" s="53" t="str">
+        <v/>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -4497,7 +4697,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="55" t="str">
+      <c r="D11" s="53" t="str">
         <v/>
       </c>
       <c r="E11" s="41" t="str">
@@ -4522,7 +4722,7 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="53" t="str">
+      <c r="D12" s="51" t="str">
         <v/>
       </c>
       <c r="E12" s="41" t="str">
@@ -4696,7 +4896,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>How does the University handle source code I write while a student?</v>
+        <v>Do we having anything like self-regulating self-correcting systems?</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -4713,7 +4913,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v/>
+        <v>Is there research into how systems interact to make "intelligent" decisions?</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4730,7 +4930,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v/>
+        <v>Is Machine Learning being used to create models of systems?</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4747,7 +4947,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v/>
+        <v>How important are Markov Decision Processes to learning</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4764,7 +4964,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="str">
-        <v/>
+        <v>How does the University handle source code I write while a student?</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -4975,65 +5175,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -385,22 +385,25 @@
     <t>Uploading Open Source Data Library</t>
   </si>
   <si>
-    <t>How important are Markov Decision Processes to learning</t>
-  </si>
-  <si>
-    <t>Is Machine Learning being used to create models of systems?</t>
-  </si>
-  <si>
-    <t>Is there research into how systems interact to make "intelligent" decisions?</t>
-  </si>
-  <si>
     <t>Writing email asking about IP</t>
   </si>
   <si>
     <t>Attending weekly lab meeting</t>
   </si>
   <si>
-    <t>Do we having anything like self-regulating self-correcting systems?</t>
+    <t>Is Machine Learning being used to create models of systems? I guess it'd be something like optimal control?</t>
+  </si>
+  <si>
+    <t>How important are Markov Decision Processes to Systems research?</t>
+  </si>
+  <si>
+    <t>Do UVA courses cover self-correcting systems? I didn't see it in the catalog. It seems important to control/learning.</t>
+  </si>
+  <si>
+    <t>Does Systems research include systems that make decisions? E.g., a system of Reinforcement Learners?</t>
+  </si>
+  <si>
+    <t>Do you know of any ongoing CHS experiments? I'm struggling to imagine experiements for something as abstract as CHS.</t>
   </si>
 </sst>
 </file>
@@ -953,8 +956,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H37" totalsRowShown="0">
-  <autoFilter ref="A1:H37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H38" totalsRowShown="0">
+  <autoFilter ref="A1:H38"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -974,8 +977,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C20" totalsRowShown="0">
-  <autoFilter ref="A1:C20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C21" totalsRowShown="0">
+  <autoFilter ref="A1:C21">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -1913,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +2741,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2878,7 +2881,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2896,10 +2899,12 @@
         <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="30">
+        <v>29</v>
+      </c>
       <c r="H35" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Miscellaneous</v>
+        <v>Integrate into UVA System</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2957,6 +2962,37 @@
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>Reinforcement Learning an Introduction</v>
       </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3">
+        <v>42543</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F38" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G38" s="30">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="6"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2973,15 +3009,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="110.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3159,28 +3195,34 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3189,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3340,7 +3382,7 @@
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Do we having anything like self-regulating self-correcting systems?</v>
+        <v>Do you know of any ongoing CHS experiments? I'm struggling to imagine experiements for something as abstract as CHS.</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3380,7 +3422,7 @@
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.43750000000000022</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3411,7 +3453,7 @@
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Is there research into how systems interact to make "intelligent" decisions?</v>
+        <v>Do UVA courses cover self-correcting systems? I didn't see it in the catalog. It seems important to control/learning.</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3481,7 +3523,7 @@
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Is Machine Learning being used to create models of systems?</v>
+        <v>Does Systems research include systems that make decisions? E.g., a system of Reinforcement Learners?</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -3520,7 +3562,7 @@
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>4.166666666666663E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3551,7 +3593,7 @@
       </c>
       <c r="U5" t="str">
         <f t="array" ref="U5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How important are Markov Decision Processes to learning</v>
+        <v>Is Machine Learning being used to create models of systems? I guess it'd be something like optimal control?</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -3621,7 +3663,7 @@
       </c>
       <c r="U6" t="str">
         <f t="array" ref="U6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How does the University handle source code I write while a student?</v>
+        <v>How important are Markov Decision Processes to Systems research?</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -3637,7 +3679,7 @@
       </c>
       <c r="D7" s="49">
         <f t="array" ref="D7">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0.54166666666666685</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="F7" s="5">
         <v>-19</v>
@@ -3691,7 +3733,7 @@
       </c>
       <c r="U7" t="str">
         <f t="array" ref="U7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>How does the University handle source code I write while a student?</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -4443,7 +4485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4551,7 +4593,7 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="52">
-        <v>0.43750000000000022</v>
+        <v>0.52083333333333348</v>
       </c>
       <c r="E5" s="42" t="str">
         <v/>
@@ -4599,7 +4641,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>4.166666666666663E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -4896,7 +4938,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>Do we having anything like self-regulating self-correcting systems?</v>
+        <v>Do you know of any ongoing CHS experiments? I'm struggling to imagine experiements for something as abstract as CHS.</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -4913,7 +4955,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v>Is there research into how systems interact to make "intelligent" decisions?</v>
+        <v>Do UVA courses cover self-correcting systems? I didn't see it in the catalog. It seems important to control/learning.</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4930,7 +4972,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v>Is Machine Learning being used to create models of systems?</v>
+        <v>Does Systems research include systems that make decisions? E.g., a system of Reinforcement Learners?</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4947,7 +4989,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v>How important are Markov Decision Processes to learning</v>
+        <v>Is Machine Learning being used to create models of systems? I guess it'd be something like optimal control?</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4964,7 +5006,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="str">
-        <v>How does the University handle source code I write while a student?</v>
+        <v>How important are Markov Decision Processes to Systems research?</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -4981,7 +5023,7 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="str">
-        <v/>
+        <v>How does the University handle source code I write while a student?</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Do you know of any ongoing CHS experiments? I'm struggling to imagine experiements for something as abstract as CHS.</t>
+  </si>
+  <si>
+    <t>Reading Articles</t>
   </si>
 </sst>
 </file>
@@ -956,8 +959,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H38" totalsRowShown="0">
-  <autoFilter ref="A1:H38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H40" totalsRowShown="0">
+  <autoFilter ref="A1:H40"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1372,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,6 +2992,62 @@
       <c r="H38" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>Reinforcement Learning an Introduction</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
+        <v>42544</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.71875</v>
+      </c>
+      <c r="F39" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G39" s="30">
+        <v>24</v>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read article abstracts</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
+        <v>42545</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F40" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="G40" s="30">
+        <v>24</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read article abstracts</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3747,7 +3806,7 @@
       </c>
       <c r="D8" s="49">
         <f t="array" ref="D8">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0</v>
+        <v>0.11458333333333337</v>
       </c>
       <c r="F8" s="5">
         <v>-18</v>
@@ -4485,7 +4544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Yes I need to learn it</t>
   </si>
   <si>
-    <t>Read article abstracts</t>
-  </si>
-  <si>
     <t>Finish first year class plan</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>Show</t>
   </si>
   <si>
-    <t>How does the University handle source code I write while a student?</t>
-  </si>
-  <si>
     <t>Uploading Open Source Data Library</t>
   </si>
   <si>
@@ -407,6 +401,27 @@
   </si>
   <si>
     <t>Reading Articles</t>
+  </si>
+  <si>
+    <t>in PDF</t>
+  </si>
+  <si>
+    <t>How does the University handle source code I write as a student?</t>
+  </si>
+  <si>
+    <t>How important is graph theory to our work in the System's Department?</t>
+  </si>
+  <si>
+    <t>Read articles</t>
+  </si>
+  <si>
+    <t>How can I determine the respectability of a Journal?</t>
+  </si>
+  <si>
+    <t>Modeling UbiComp social systems?</t>
+  </si>
+  <si>
+    <t>Unsupervised Google Result Classifier?</t>
   </si>
 </sst>
 </file>
@@ -717,6 +732,14 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <right style="thin">
           <color auto="1"/>
@@ -860,10 +883,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -877,10 +896,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -959,8 +974,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H40" totalsRowShown="0">
-  <autoFilter ref="A1:H40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H46" totalsRowShown="0">
+  <autoFilter ref="A1:H46"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -980,16 +995,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21">
-    <filterColumn colId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B25" totalsRowShown="0">
+  <autoFilter ref="A1:B25">
+    <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="3">
+  <sortState ref="A2:B21">
+    <sortCondition ref="B1:B21"/>
+  </sortState>
+  <tableColumns count="2">
     <tableColumn id="1" name="Question"/>
     <tableColumn id="2" name="Answer"/>
-    <tableColumn id="3" name="Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1021,22 +1038,22 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="2" name="Index" dataDxfId="28"/>
-    <tableColumn id="4" name="Period" dataDxfId="27">
-      <calculatedColumnFormula>MAX(Periods[Id]) -1</calculatedColumnFormula>
+    <tableColumn id="4" name="Period" dataDxfId="1">
+      <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Show" dataDxfId="26">
+    <tableColumn id="7" name="Show" dataDxfId="27">
       <calculatedColumnFormula>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="25">
+    <tableColumn id="5" name="Goal" dataDxfId="26">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="24">
+    <tableColumn id="1" name="Goal Description" dataDxfId="25">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="23">
+    <tableColumn id="6" name="Hours" dataDxfId="24">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="22">
+    <tableColumn id="3" name="Done" dataDxfId="23">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1052,17 +1069,17 @@
     <sortCondition ref="N2:N21"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" name="Index" dataDxfId="21"/>
-    <tableColumn id="6" name="Period" dataDxfId="20">
-      <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
+    <tableColumn id="2" name="Index" dataDxfId="22"/>
+    <tableColumn id="6" name="Period" dataDxfId="0">
+      <calculatedColumnFormula>MAX(Periods[Id]) + 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Show" dataDxfId="19">
+    <tableColumn id="3" name="Show" dataDxfId="21">
       <calculatedColumnFormula>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="18">
+    <tableColumn id="5" name="Goal" dataDxfId="20">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="17">
+    <tableColumn id="1" name="Description" dataDxfId="19">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1077,8 +1094,8 @@
     <sortCondition descending="1" ref="T1:T21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="16"/>
-    <tableColumn id="1" name="Question" dataDxfId="15">
+    <tableColumn id="2" name="Index" dataDxfId="18"/>
+    <tableColumn id="1" name="Question" dataDxfId="17">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1375,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1726,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2">
         <v>42529</v>
@@ -1743,7 +1760,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="30">
@@ -1758,7 +1775,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="30">
@@ -1785,7 +1802,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="30">
@@ -1919,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2086,7 @@
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2293,7 +2310,7 @@
       </c>
       <c r="H13" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2349,7 +2366,7 @@
       </c>
       <c r="H15" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2382,7 +2399,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2410,7 +2427,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2438,7 +2455,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -2466,7 +2483,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2494,7 +2511,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -2522,7 +2539,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2548,7 +2565,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2576,7 +2593,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2604,7 +2621,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -2632,7 +2649,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -2660,7 +2677,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -2688,7 +2705,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2716,7 +2733,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2744,7 +2761,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2772,7 +2789,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2800,7 +2817,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2828,7 +2845,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -2856,7 +2873,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2884,7 +2901,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2912,7 +2929,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2940,7 +2957,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -2968,7 +2985,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -2996,7 +3013,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3019,12 +3036,12 @@
       </c>
       <c r="H39" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3047,11 +3064,173 @@
       </c>
       <c r="H40" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>42545</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F41" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G41" s="30">
+        <v>24</v>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read articles</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3">
+        <v>42546</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F42" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="G42" s="30">
+        <v>24</v>
+      </c>
+      <c r="H42" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read articles</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3">
+        <v>42546</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F43" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G43" s="30">
+        <v>24</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read articles</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>42547</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F44" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G44" s="30">
+        <v>24</v>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read articles</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3">
+        <v>42547</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F45" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G45" s="30">
+        <v>24</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read articles</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3">
+        <v>42547</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.84375</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F46" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G46" s="30">
+        <v>24</v>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Read articles</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3068,213 +3247,201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="110.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3">
-        <v>42522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3">
-        <v>42522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3">
-        <v>42522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3">
-        <v>42522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3">
-        <v>42522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="3">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3290,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,7 +3504,7 @@
         <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" t="s">
         <v>45</v>
@@ -3358,7 +3525,7 @@
         <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q1" t="s">
         <v>45</v>
@@ -3393,8 +3560,8 @@
         <v>-11</v>
       </c>
       <c r="G2" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3421,8 +3588,8 @@
         <v>-11</v>
       </c>
       <c r="O2" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3441,7 +3608,7 @@
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Do you know of any ongoing CHS experiments? I'm struggling to imagine experiements for something as abstract as CHS.</v>
+        <v>Unsupervised Google Result Classifier?</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3464,8 +3631,8 @@
         <v>-10</v>
       </c>
       <c r="G3" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3481,7 +3648,7 @@
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.52083333333333348</v>
+        <v>0</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3492,8 +3659,8 @@
         <v>-10</v>
       </c>
       <c r="O3" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3512,7 +3679,7 @@
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Do UVA courses cover self-correcting systems? I didn't see it in the catalog. It seems important to control/learning.</v>
+        <v>Modeling UbiComp social systems?</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3534,8 +3701,8 @@
         <v>-9</v>
       </c>
       <c r="G4" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3547,11 +3714,11 @@
       </c>
       <c r="J4" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.47916666666666685</v>
       </c>
       <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3562,8 +3729,8 @@
         <v>-9</v>
       </c>
       <c r="O4" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3575,14 +3742,14 @@
       </c>
       <c r="R4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
       </c>
       <c r="T4" s="5">
         <v>-3</v>
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Does Systems research include systems that make decisions? E.g., a system of Reinforcement Learners?</v>
+        <v>How can I determine the respectability of a Journal?</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -3604,8 +3771,8 @@
         <v>-8</v>
       </c>
       <c r="G5" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3621,7 +3788,7 @@
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.10416666666666663</v>
+        <v>0</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3632,8 +3799,8 @@
         <v>-8</v>
       </c>
       <c r="O5" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3652,7 +3819,7 @@
       </c>
       <c r="U5" t="str">
         <f t="array" ref="U5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Is Machine Learning being used to create models of systems? I guess it'd be something like optimal control?</v>
+        <v>How important is graph theory to our work in the System's Department?</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -3674,8 +3841,8 @@
         <v>-20</v>
       </c>
       <c r="G6" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3702,8 +3869,8 @@
         <v>-20</v>
       </c>
       <c r="O6" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3722,7 +3889,7 @@
       </c>
       <c r="U6" t="str">
         <f t="array" ref="U6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How important are Markov Decision Processes to Systems research?</v>
+        <v>How does the University handle source code I write as a student?</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -3744,8 +3911,8 @@
         <v>-19</v>
       </c>
       <c r="G7" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3772,8 +3939,8 @@
         <v>-19</v>
       </c>
       <c r="O7" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3792,28 +3959,30 @@
       </c>
       <c r="U7" t="str">
         <f t="array" ref="U7">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How does the University handle source code I write while a student?</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>42543</v>
+      </c>
       <c r="C8" s="3">
         <f>Periods[[#This Row],[Start]] + (7)</f>
-        <v>7</v>
+        <v>42550</v>
       </c>
       <c r="D8" s="49">
         <f t="array" ref="D8">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0.11458333333333337</v>
+        <v>0.47916666666666685</v>
       </c>
       <c r="F8" s="5">
         <v>-18</v>
       </c>
       <c r="G8" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3840,8 +4009,8 @@
         <v>-18</v>
       </c>
       <c r="O8" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3868,8 +4037,8 @@
         <v>-17</v>
       </c>
       <c r="G9" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3896,8 +4065,8 @@
         <v>-17</v>
       </c>
       <c r="O9" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3924,8 +4093,8 @@
         <v>-16</v>
       </c>
       <c r="G10" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3952,8 +4121,8 @@
         <v>-16</v>
       </c>
       <c r="O10" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3980,8 +4149,8 @@
         <v>-15</v>
       </c>
       <c r="G11" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4008,8 +4177,8 @@
         <v>-15</v>
       </c>
       <c r="O11" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4036,8 +4205,8 @@
         <v>-14</v>
       </c>
       <c r="G12" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4064,8 +4233,8 @@
         <v>-14</v>
       </c>
       <c r="O12" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4092,8 +4261,8 @@
         <v>-13</v>
       </c>
       <c r="G13" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4120,8 +4289,8 @@
         <v>-13</v>
       </c>
       <c r="O13" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4141,8 +4310,8 @@
         <v>-12</v>
       </c>
       <c r="G14" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4169,8 +4338,8 @@
         <v>-12</v>
       </c>
       <c r="O14" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4190,8 +4359,8 @@
         <v>-7</v>
       </c>
       <c r="G15" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4218,8 +4387,8 @@
         <v>-7</v>
       </c>
       <c r="O15" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4239,8 +4408,8 @@
         <v>-6</v>
       </c>
       <c r="G16" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4267,8 +4436,8 @@
         <v>-6</v>
       </c>
       <c r="O16" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4288,8 +4457,8 @@
         <v>-5</v>
       </c>
       <c r="G17" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4316,8 +4485,8 @@
         <v>-5</v>
       </c>
       <c r="O17" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4337,8 +4506,8 @@
         <v>-4</v>
       </c>
       <c r="G18" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4365,8 +4534,8 @@
         <v>-4</v>
       </c>
       <c r="O18" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4386,8 +4555,8 @@
         <v>-3</v>
       </c>
       <c r="G19" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4414,8 +4583,8 @@
         <v>-3</v>
       </c>
       <c r="O19" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4435,8 +4604,8 @@
         <v>-2</v>
       </c>
       <c r="G20" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4463,8 +4632,8 @@
         <v>-2</v>
       </c>
       <c r="O20" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4484,8 +4653,8 @@
         <v>-1</v>
       </c>
       <c r="G21" s="30">
-        <f>MAX(Periods[Id]) -1</f>
-        <v>6</v>
+        <f>MAX(Periods[Id])</f>
+        <v>7</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4512,8 +4681,8 @@
         <v>-1</v>
       </c>
       <c r="O21" s="30">
-        <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <f>MAX(Periods[Id]) + 1</f>
+        <v>8</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4576,7 +4745,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="54">
         <f>MAX(Periods[Start])</f>
-        <v>42536</v>
+        <v>42543</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="13"/>
@@ -4652,7 +4821,7 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="52">
-        <v>0.52083333333333348</v>
+        <v>0</v>
       </c>
       <c r="E5" s="42" t="str">
         <v/>
@@ -4671,19 +4840,19 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>0</v>
+        <v>0.47916666666666685</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>Read article abstracts</v>
+        <v>Read articles</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4700,7 +4869,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0.10416666666666663</v>
+        <v>0</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -4997,7 +5166,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>Do you know of any ongoing CHS experiments? I'm struggling to imagine experiements for something as abstract as CHS.</v>
+        <v>Unsupervised Google Result Classifier?</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -5014,7 +5183,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v>Do UVA courses cover self-correcting systems? I didn't see it in the catalog. It seems important to control/learning.</v>
+        <v>Modeling UbiComp social systems?</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5031,7 +5200,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v>Does Systems research include systems that make decisions? E.g., a system of Reinforcement Learners?</v>
+        <v>How can I determine the respectability of a Journal?</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5048,7 +5217,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v>Is Machine Learning being used to create models of systems? I guess it'd be something like optimal control?</v>
+        <v>How important is graph theory to our work in the System's Department?</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -5065,7 +5234,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="str">
-        <v>How important are Markov Decision Processes to Systems research?</v>
+        <v>How does the University handle source code I write as a student?</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -5082,7 +5251,7 @@
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="str">
-        <v>How does the University handle source code I write while a student?</v>
+        <v/>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -5276,65 +5445,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="15" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -412,9 +412,6 @@
     <t>How important is graph theory to our work in the System's Department?</t>
   </si>
   <si>
-    <t>Read articles</t>
-  </si>
-  <si>
     <t>How can I determine the respectability of a Journal?</t>
   </si>
   <si>
@@ -422,6 +419,33 @@
   </si>
   <si>
     <t>Unsupervised Google Result Classifier?</t>
+  </si>
+  <si>
+    <t>Filling out Vacine Paperwork</t>
+  </si>
+  <si>
+    <t>Setting up Sensus with protocol</t>
+  </si>
+  <si>
+    <t>Follow up email to Josh about IP Protocol</t>
+  </si>
+  <si>
+    <t>Coordinating move into long-term lease</t>
+  </si>
+  <si>
+    <t>Weekly lab meeting with team</t>
+  </si>
+  <si>
+    <t>Meeting with Prof. Mondschein</t>
+  </si>
+  <si>
+    <t>Update With Prof. Gerber</t>
+  </si>
+  <si>
+    <t>In touch with Josh. Seems straight forward though from http://uvapolicy.virginia.edu/policy/RES-001#Sponsors</t>
+  </si>
+  <si>
+    <t>Determine Research Interests</t>
   </si>
 </sst>
 </file>
@@ -732,14 +756,6 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <right style="thin">
           <color auto="1"/>
@@ -883,6 +899,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -896,6 +916,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -974,8 +998,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H46" totalsRowShown="0">
-  <autoFilter ref="A1:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H55" totalsRowShown="0">
+  <autoFilter ref="A1:H55"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1001,7 +1025,7 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:B21">
+  <sortState ref="A22:B25">
     <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="2">
@@ -1038,22 +1062,22 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="2" name="Index" dataDxfId="28"/>
-    <tableColumn id="4" name="Period" dataDxfId="1">
+    <tableColumn id="4" name="Period" dataDxfId="27">
       <calculatedColumnFormula>MAX(Periods[Id])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Show" dataDxfId="27">
+    <tableColumn id="7" name="Show" dataDxfId="26">
       <calculatedColumnFormula>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="26">
+    <tableColumn id="5" name="Goal" dataDxfId="25">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Goal Description" dataDxfId="25">
+    <tableColumn id="1" name="Goal Description" dataDxfId="24">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hours" dataDxfId="24">
+    <tableColumn id="6" name="Hours" dataDxfId="23">
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done" dataDxfId="23">
+    <tableColumn id="3" name="Done" dataDxfId="22">
       <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1069,17 +1093,17 @@
     <sortCondition ref="N2:N21"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" name="Index" dataDxfId="22"/>
-    <tableColumn id="6" name="Period" dataDxfId="0">
+    <tableColumn id="2" name="Index" dataDxfId="21"/>
+    <tableColumn id="6" name="Period" dataDxfId="20">
       <calculatedColumnFormula>MAX(Periods[Id]) + 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Show" dataDxfId="21">
+    <tableColumn id="3" name="Show" dataDxfId="19">
       <calculatedColumnFormula>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Goal" dataDxfId="20">
+    <tableColumn id="5" name="Goal" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="Description" dataDxfId="19">
+    <tableColumn id="1" name="Description" dataDxfId="17">
       <calculatedColumnFormula>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1094,8 +1118,8 @@
     <sortCondition descending="1" ref="T1:T21"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" name="Index" dataDxfId="18"/>
-    <tableColumn id="1" name="Question" dataDxfId="17">
+    <tableColumn id="2" name="Index" dataDxfId="16"/>
+    <tableColumn id="1" name="Question" dataDxfId="15">
       <calculatedColumnFormula array="1">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1393,7 +1417,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1826,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="30">
@@ -1936,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2110,7 @@
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2310,7 +2334,7 @@
       </c>
       <c r="H13" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2366,7 +2390,7 @@
       </c>
       <c r="H15" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3036,7 +3060,7 @@
       </c>
       <c r="H39" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,7 +3088,7 @@
       </c>
       <c r="H40" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3092,7 +3116,7 @@
       </c>
       <c r="H41" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3120,7 +3144,7 @@
       </c>
       <c r="H42" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3148,7 +3172,7 @@
       </c>
       <c r="H43" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3176,7 +3200,7 @@
       </c>
       <c r="H44" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3204,10 +3228,13 @@
       </c>
       <c r="H45" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
       <c r="B46">
         <v>7</v>
       </c>
@@ -3229,7 +3256,259 @@
       </c>
       <c r="H46" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3">
+        <v>42548</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F47" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G47" s="30">
+        <v>29</v>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>42548</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.59375</v>
+      </c>
+      <c r="F48" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G48" s="30">
+        <v>29</v>
+      </c>
+      <c r="H48" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3">
+        <v>42548</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.59375</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="F49" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G49" s="30">
+        <v>29</v>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3">
+        <v>42548</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F50" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G50" s="30">
+        <v>29</v>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3">
+        <v>42548</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F51" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="G51" s="30">
+        <v>29</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3">
+        <v>42549</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F52" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="G52" s="30">
+        <v>24</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Determine Research Interests</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3">
+        <v>42549</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F53" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G53" s="30">
+        <v>24</v>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Determine Research Interests</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3">
+        <v>42550</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="F54" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G54" s="30">
+        <v>24</v>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Determine Research Interests</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3">
+        <v>42550</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F55" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G55" s="30">
+        <v>29</v>
+      </c>
+      <c r="H55" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
       </c>
     </row>
   </sheetData>
@@ -3250,13 +3529,13 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="110.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3419,9 +3698,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3431,17 +3713,17 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3457,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3714,11 +3996,11 @@
       </c>
       <c r="J4" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.47916666666666685</v>
+        <v>0.61458333333333348</v>
       </c>
       <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3742,7 +4024,7 @@
       </c>
       <c r="R4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
       <c r="T4" s="5">
         <v>-3</v>
@@ -3788,7 +4070,7 @@
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3889,7 +4171,7 @@
       </c>
       <c r="U6" t="str">
         <f t="array" ref="U6">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How does the University handle source code I write as a student?</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -3975,7 +4257,7 @@
       </c>
       <c r="D8" s="49">
         <f t="array" ref="D8">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0.47916666666666685</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="F8" s="5">
         <v>-18</v>
@@ -4713,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4840,19 +5122,19 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>0.47916666666666685</v>
+        <v>0.61458333333333348</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>Read articles</v>
+        <v>Determine Research Interests</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -4869,7 +5151,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -5234,7 +5516,7 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="str">
-        <v>How does the University handle source code I write as a student?</v>
+        <v/>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -5445,65 +5727,65 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E18">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:K18">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:K30">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>INDIRECT("H"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K12">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>INDIRECT("H"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A12">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E12">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A30">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT("A"&amp;ROW())&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:K30">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>INDIRECT("A"&amp;ROW()) &lt;&gt; ""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B29" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -409,12 +409,6 @@
     <t>How does the University handle source code I write as a student?</t>
   </si>
   <si>
-    <t>How important is graph theory to our work in the System's Department?</t>
-  </si>
-  <si>
-    <t>How can I determine the respectability of a Journal?</t>
-  </si>
-  <si>
     <t>Modeling UbiComp social systems?</t>
   </si>
   <si>
@@ -446,6 +440,18 @@
   </si>
   <si>
     <t>Determine Research Interests</t>
+  </si>
+  <si>
+    <t>Hiking with Gerber's Team</t>
+  </si>
+  <si>
+    <t>Models are weak in research because it is very hard to show how well they fit reality</t>
+  </si>
+  <si>
+    <t>The more abstract research question: Determining objectives through observation</t>
+  </si>
+  <si>
+    <t>Read articles about research interests</t>
   </si>
 </sst>
 </file>
@@ -979,9 +985,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32"/>
-  <sortState ref="A2:F32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F33" totalsRowShown="0">
+  <autoFilter ref="A1:F33"/>
+  <sortState ref="A2:F33">
     <sortCondition ref="F2:F31"/>
     <sortCondition ref="E2:E31"/>
   </sortState>
@@ -998,8 +1004,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H56" totalsRowShown="0">
+  <autoFilter ref="A1:H56"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1019,13 +1025,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B25" totalsRowShown="0">
-  <autoFilter ref="A1:B25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B23" totalsRowShown="0">
+  <autoFilter ref="A1:B23">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A22:B25">
+  <sortState ref="A23:B23">
     <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="2">
@@ -1037,8 +1043,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Id" dataDxfId="32"/>
     <tableColumn id="2" name="Start" dataDxfId="31"/>
@@ -1414,16 +1420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
@@ -1453,7 +1459,7 @@
       </c>
       <c r="H1" t="str">
         <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
-        <v>Current Period: 6</v>
+        <v>Current Period: 7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1805,7 +1811,9 @@
       <c r="E22" s="30">
         <v>2</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -1818,7 +1826,9 @@
       <c r="E23" s="30">
         <v>3</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="30">
+        <v>7</v>
+      </c>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1826,7 +1836,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="30">
@@ -1849,78 +1859,78 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="2">
-        <v>42577</v>
-      </c>
-      <c r="E26" s="30"/>
+        <v>124</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="30">
+        <v>8</v>
+      </c>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2">
-        <v>42583</v>
+        <v>42577</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>42585</v>
+        <v>42583</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>19</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
       </c>
       <c r="D29" s="2">
-        <v>42586</v>
+        <v>42585</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>42587</v>
+        <v>42586</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>42587</v>
@@ -1930,20 +1940,33 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D32" s="2">
+        <v>42587</v>
+      </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
     <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B30" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
+    <hyperlink ref="B31" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
     <hyperlink ref="B9" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
     <hyperlink ref="B10" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
     <hyperlink ref="B11" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
@@ -1960,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,7 +3284,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3289,7 +3312,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3317,7 +3340,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3345,7 +3368,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3373,7 +3396,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -3401,7 +3424,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -3429,7 +3452,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -3485,7 +3508,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -3507,6 +3530,34 @@
         <v>29</v>
       </c>
       <c r="H55" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3">
+        <v>42551</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F56" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.23958333333333337</v>
+      </c>
+      <c r="G56" s="30">
+        <v>29</v>
+      </c>
+      <c r="H56" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>Integrate into UVA System</v>
       </c>
@@ -3526,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,27 +3754,23 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>113</v>
+      <c r="B23" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3739,8 +3786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,11 +3886,11 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3851,27 +3898,27 @@
       </c>
       <c r="I2" s="30">
         <f t="array" ref="I2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning</v>
+        <v>Determine Research Interests</v>
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="L2" s="44" t="str">
+      <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="5">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3879,18 +3926,18 @@
       </c>
       <c r="Q2" s="5">
         <f t="array" ref="Q2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Introduction to Statistical Learning</v>
+        <v>Determine Research Interests</v>
       </c>
       <c r="T2" s="5">
         <v>-1</v>
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Unsupervised Google Result Classifier?</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3910,11 +3957,11 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3922,15 +3969,15 @@
       </c>
       <c r="I3" s="30">
         <f t="array" ref="I3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
-      </c>
-      <c r="J3" t="str">
+        <v>29</v>
+      </c>
+      <c r="J3" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.23958333333333337</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3938,11 +3985,11 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3950,18 +3997,18 @@
       </c>
       <c r="Q3" s="5">
         <f t="array" ref="Q3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="R3" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="T3" s="5">
         <v>-2</v>
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Modeling UbiComp social systems?</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3980,11 +4027,11 @@
         <v>0.25000000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3992,15 +4039,15 @@
       </c>
       <c r="I4" s="30">
         <f t="array" ref="I4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
-      </c>
-      <c r="J4" s="15" t="str">
+        <v>33</v>
+      </c>
+      <c r="J4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Determine Research Interests</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.61458333333333348</v>
+        <v>0</v>
       </c>
       <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -4008,11 +4055,11 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4020,18 +4067,18 @@
       </c>
       <c r="Q4" s="5">
         <f t="array" ref="Q4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Determine Research Interests</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="T4" s="5">
         <v>-3</v>
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How can I determine the respectability of a Journal?</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4050,27 +4097,27 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="5">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30" t="str">
         <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
-      </c>
-      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="J5" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
-      </c>
-      <c r="K5" s="50">
+        <v/>
+      </c>
+      <c r="K5" s="50" t="str">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.13541666666666663</v>
+        <v/>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -4078,30 +4125,30 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="5">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5" t="str">
         <f t="array" ref="Q5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
-      </c>
-      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="R5" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
+        <v/>
       </c>
       <c r="T5" s="5">
         <v>-4</v>
       </c>
       <c r="U5" t="str">
         <f t="array" ref="U5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How important is graph theory to our work in the System's Department?</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4120,11 +4167,11 @@
         <v>1.0312499999999998</v>
       </c>
       <c r="F6" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4148,11 +4195,11 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4190,11 +4237,11 @@
         <v>0.62500000000000011</v>
       </c>
       <c r="F7" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4204,7 +4251,7 @@
         <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J7" s="30" t="str">
+      <c r="J7" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4218,11 +4265,11 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4260,11 +4307,11 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="F8" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4274,7 +4321,7 @@
         <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J8" s="48" t="str">
+      <c r="J8" s="43" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4288,11 +4335,11 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4315,12 +4362,26 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42550</v>
+      </c>
+      <c r="C9" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42557</v>
+      </c>
+      <c r="D9" s="49">
+        <f t="array" ref="D9">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0.23958333333333337</v>
+      </c>
       <c r="F9" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4330,7 +4391,7 @@
         <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J9" s="43" t="str">
+      <c r="J9" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4344,11 +4405,11 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4372,11 +4433,11 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F10" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4386,7 +4447,7 @@
         <f t="array" ref="I10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J10" s="30" t="str">
+      <c r="J10" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4400,11 +4461,11 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4414,7 +4475,7 @@
         <f t="array" ref="Q10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R10" s="30" t="str">
+      <c r="R10" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4428,11 +4489,11 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F11" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4456,11 +4517,11 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="O11" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4484,11 +4545,11 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4512,11 +4573,11 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4540,11 +4601,11 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F13" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4568,11 +4629,11 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4589,11 +4650,11 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F14" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4611,17 +4672,17 @@
         <f t="array" ref="K14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L14" s="45" t="str">
+      <c r="L14" s="44" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4642,7 +4703,7 @@
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4670,7 +4731,7 @@
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4691,7 +4752,7 @@
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4719,7 +4780,7 @@
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4740,7 +4801,7 @@
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4768,7 +4829,7 @@
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4789,7 +4850,7 @@
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4817,7 +4878,7 @@
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4838,7 +4899,7 @@
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4866,7 +4927,7 @@
       </c>
       <c r="O19" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4887,7 +4948,7 @@
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4915,7 +4976,7 @@
       </c>
       <c r="O20" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4936,7 +4997,7 @@
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4964,7 +5025,7 @@
       </c>
       <c r="O21" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4996,7 +5057,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5027,7 +5088,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="54">
         <f>MAX(Periods[Start])</f>
-        <v>42543</v>
+        <v>42550</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="13"/>
@@ -5072,7 +5133,7 @@
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v>Introduction to Statistical Learning</v>
+        <v>Determine Research Interests</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5087,7 +5148,7 @@
       <c r="F4" s="16"/>
       <c r="H4" s="17" t="str">
         <f t="array" ref="H4:H18">ThisWeekTasks[Description]</f>
-        <v>Introduction to Statistical Learning</v>
+        <v>Determine Research Interests</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -5098,19 +5159,19 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="52">
-        <v>0</v>
+        <v>0.23958333333333337</v>
       </c>
       <c r="E5" s="42" t="str">
         <v/>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
-        <v>Reinforcement Learning an Introduction</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -5122,19 +5183,19 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Determine Research Interests</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>0.61458333333333348</v>
+        <v>0</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>Determine Research Interests</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -5146,19 +5207,19 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v/>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="53">
-        <v>0.13541666666666663</v>
+      <c r="D7" s="53" t="str">
+        <v/>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v/>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -5448,7 +5509,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>Unsupervised Google Result Classifier?</v>
+        <v/>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -5465,7 +5526,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v>Modeling UbiComp social systems?</v>
+        <v/>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5482,7 +5543,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v>How can I determine the respectability of a Journal?</v>
+        <v/>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5499,7 +5560,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v>How important is graph theory to our work in the System's Department?</v>
+        <v/>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -31,7 +31,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -40,7 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ID Cards To receive your University I.D. card you will need to go to the University I.D. Card Office, Observatory Hill Dining Hall between the hours of 8:30 a.m. and 4:30 p.m. after completion of your registration.  For information regarding the University ID Card Office visit http://www.virginia.edu/idoffice/.  Please remember to bring with you a valid state or government issued picture identification card (either your U.S. driver’s license, passport or U.S. military ID) in order to pick up your University ID. You will need your UVA email account first.
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ll students are required to have health insurance. Once you arrive on Grounds, and have picked up your ID card, you will be able to sign up for health insurance through the University sponsored health plan.  If health insurance subsidy is included in your Financial Aid package, please go tohttp://www.aetnastudenthealth.com/stu_conn/student_connection.aspx?groupID=812806   to complete the Aetna Health Plan enrollment. This initial enrollment will cover the summer, through mid-August.  You will need to pay for the insurance, and then request reimbursement from the department, because of your summer start date.  You will register again for a full year in August, and will need documentation of your immunizations at that time.</t>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -452,6 +452,18 @@
   </si>
   <si>
     <t>Read articles about research interests</t>
+  </si>
+  <si>
+    <t>Thinking about research interests</t>
+  </si>
+  <si>
+    <t>With student volunteer looking unlikely is UbiComp still a possibility?</t>
+  </si>
+  <si>
+    <t>More interest in objective inferences</t>
+  </si>
+  <si>
+    <t>Studying digitial devices as systems.</t>
   </si>
 </sst>
 </file>
@@ -486,6 +498,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -555,14 +568,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1004,8 +1017,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H56" totalsRowShown="0">
-  <autoFilter ref="A1:H56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H59" totalsRowShown="0">
+  <autoFilter ref="A1:H59"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1025,8 +1038,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B23" totalsRowShown="0">
-  <autoFilter ref="A1:B23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B26" totalsRowShown="0">
+  <autoFilter ref="A1:B26">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -1043,8 +1056,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Id" dataDxfId="32"/>
     <tableColumn id="2" name="Start" dataDxfId="31"/>
@@ -1459,7 +1472,7 @@
       </c>
       <c r="H1" t="str">
         <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
-        <v>Current Period: 7</v>
+        <v>Current Period: 8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1983,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,6 +3575,90 @@
         <v>Integrate into UVA System</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3">
+        <v>42560</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0.59375</v>
+      </c>
+      <c r="F57" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="G57" s="30">
+        <v>24</v>
+      </c>
+      <c r="H57" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Determine Research Interests</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3">
+        <v>42561</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F58" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="G58" s="30">
+        <v>24</v>
+      </c>
+      <c r="H58" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Determine Research Interests</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3">
+        <v>42561</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.90625</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="F59" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G59" s="30">
+        <v>24</v>
+      </c>
+      <c r="H59" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Determine Research Interests</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="1">
@@ -3577,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3771,6 +3868,21 @@
       </c>
       <c r="B23" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3899,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3890,7 +4002,7 @@
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3906,7 +4018,7 @@
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3918,7 +4030,7 @@
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3937,7 +4049,7 @@
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>More interest in objective inferences</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3961,7 +4073,7 @@
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -3977,7 +4089,7 @@
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.23958333333333337</v>
+        <v>0</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
@@ -3989,7 +4101,7 @@
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4008,7 +4120,7 @@
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Studying digitial devices as systems.</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4031,7 +4143,7 @@
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4059,7 +4171,7 @@
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4078,7 +4190,7 @@
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>With student volunteer looking unlikely is UbiComp still a possibility?</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4101,7 +4213,7 @@
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4129,7 +4241,7 @@
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4171,7 +4283,7 @@
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4199,7 +4311,7 @@
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4241,7 +4353,7 @@
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4269,7 +4381,7 @@
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4311,7 +4423,7 @@
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4339,7 +4451,7 @@
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4381,7 +4493,7 @@
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4409,7 +4521,7 @@
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4432,12 +4544,26 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42557</v>
+      </c>
+      <c r="C10" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42564</v>
+      </c>
+      <c r="D10" s="49">
+        <f t="array" ref="D10">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0.22916666666666663</v>
+      </c>
       <c r="F10" s="5">
         <v>-15</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4465,7 +4591,7 @@
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4493,7 +4619,7 @@
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4521,7 +4647,7 @@
       </c>
       <c r="O11" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4549,7 +4675,7 @@
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4577,7 +4703,7 @@
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4605,7 +4731,7 @@
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4633,7 +4759,7 @@
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4654,7 +4780,7 @@
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4682,7 +4808,7 @@
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4703,7 +4829,7 @@
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4731,7 +4857,7 @@
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4752,7 +4878,7 @@
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4780,7 +4906,7 @@
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4801,7 +4927,7 @@
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4829,7 +4955,7 @@
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4850,7 +4976,7 @@
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4878,7 +5004,7 @@
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4899,7 +5025,7 @@
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4927,7 +5053,7 @@
       </c>
       <c r="O19" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4948,7 +5074,7 @@
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4976,7 +5102,7 @@
       </c>
       <c r="O20" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4997,7 +5123,7 @@
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5025,7 +5151,7 @@
       </c>
       <c r="O21" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5088,7 +5214,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="54">
         <f>MAX(Periods[Start])</f>
-        <v>42550</v>
+        <v>42557</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="13"/>
@@ -5139,7 +5265,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
@@ -5164,7 +5290,7 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="52">
-        <v>0.23958333333333337</v>
+        <v>0</v>
       </c>
       <c r="E5" s="42" t="str">
         <v/>
@@ -5509,7 +5635,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v/>
+        <v>More interest in objective inferences</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -5526,7 +5652,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v/>
+        <v>Studying digitial devices as systems.</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5543,7 +5669,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v/>
+        <v>With student volunteer looking unlikely is UbiComp still a possibility?</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Dr. Matt Hipke</t>
-  </si>
-  <si>
     <t>Reinforcement Learning an Introduction</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Shopping for a new laptop</t>
   </si>
   <si>
-    <t>Present a survey of my summer reading</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -464,6 +458,42 @@
   </si>
   <si>
     <t>Studying digitial devices as systems.</t>
+  </si>
+  <si>
+    <t>Email Prof. Beling</t>
+  </si>
+  <si>
+    <t>Attend Prof. Barne's team meeting</t>
+  </si>
+  <si>
+    <t>"Claim" my desk in 228</t>
+  </si>
+  <si>
+    <t>Register for UbiComp</t>
+  </si>
+  <si>
+    <t>Create Conference Plan</t>
+  </si>
+  <si>
+    <t>Present presentation about Experiments</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>Not as good of a research topic</t>
+  </si>
+  <si>
+    <t>Chosen research topic. Fits with team and department well. Also easier to quantify.</t>
+  </si>
+  <si>
+    <t>Get hotel room for conference</t>
+  </si>
+  <si>
+    <t>Talk to Mohammad?</t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
 </sst>
 </file>
@@ -972,13 +1002,13 @@
       <numFmt numFmtId="25" formatCode="h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -998,19 +1028,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F33" totalsRowShown="0">
-  <autoFilter ref="A1:F33"/>
-  <sortState ref="A2:F33">
-    <sortCondition ref="F2:F31"/>
-    <sortCondition ref="E2:E31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F39" totalsRowShown="0">
+  <autoFilter ref="A1:F39"/>
+  <sortState ref="A2:F39">
+    <sortCondition ref="E2:E38"/>
+    <sortCondition ref="D2:D38"/>
+    <sortCondition ref="F2:F38"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="8" name="Id" dataDxfId="41"/>
     <tableColumn id="1" name="Description"/>
     <tableColumn id="2" name="Comments"/>
-    <tableColumn id="4" name="Due" dataDxfId="40"/>
-    <tableColumn id="3" name="Started" dataDxfId="39"/>
-    <tableColumn id="5" name="Finished" dataDxfId="38"/>
+    <tableColumn id="3" name="Started" dataDxfId="40"/>
+    <tableColumn id="5" name="Finished" dataDxfId="39"/>
+    <tableColumn id="4" name="Due" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1044,7 +1075,7 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A23:B23">
+  <sortState ref="A26:B26">
     <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="2">
@@ -1056,12 +1087,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D10" totalsRowShown="0">
-  <autoFilter ref="A1:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Id" dataDxfId="32"/>
     <tableColumn id="2" name="Start" dataDxfId="31"/>
-    <tableColumn id="3" name="End" dataDxfId="30">
+    <tableColumn id="3" name="Finish" dataDxfId="30">
       <calculatedColumnFormula>Periods[[#This Row],[Start]] + (7)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Hours" dataDxfId="29">
@@ -1097,7 +1128,7 @@
       <calculatedColumnFormula array="1">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Done" dataDxfId="22">
-      <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1433,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,317 +1482,313 @@
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="str">
-        <f xml:space="preserve"> "Current Period: " &amp; MAX(Periods[Id]) -1</f>
-        <v>Current Period: 8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>42508</v>
+        <v>56</v>
+      </c>
+      <c r="D2" s="30">
+        <v>2</v>
       </c>
       <c r="E2" s="30">
         <v>2</v>
       </c>
-      <c r="F2" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>42508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>42508</v>
+      <c r="D3" s="30">
+        <v>2</v>
       </c>
       <c r="E3" s="30">
         <v>2</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="2">
+        <v>42508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2">
-        <v>42508</v>
       </c>
       <c r="E4" s="30">
         <v>2</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="2">
+        <v>42508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="30">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2">
-        <v>42509</v>
       </c>
       <c r="E5" s="30">
         <v>2</v>
       </c>
-      <c r="F5" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>42509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2">
-        <v>42509</v>
+        <v>57</v>
+      </c>
+      <c r="D6" s="30">
+        <v>2</v>
       </c>
       <c r="E6" s="30">
         <v>2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="2">
+        <v>42509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="30">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2">
-        <v>42509</v>
       </c>
       <c r="E7" s="30">
         <v>2</v>
       </c>
-      <c r="F7" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>42509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2">
+        <v>58</v>
+      </c>
+      <c r="D8" s="30">
+        <v>2</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
         <v>42515</v>
       </c>
-      <c r="E8" s="30">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="30">
         <v>2</v>
       </c>
-      <c r="F8" s="30">
+      <c r="E9" s="30">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>42522</v>
       </c>
-      <c r="E9" s="30">
-        <v>2</v>
-      </c>
-      <c r="F9" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="30">
+        <v>2</v>
+      </c>
+      <c r="E10" s="30">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
         <v>42522</v>
       </c>
-      <c r="E10" s="30">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="30">
         <v>2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="E11" s="30">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>42522</v>
       </c>
-      <c r="E11" s="30">
-        <v>2</v>
-      </c>
-      <c r="F11" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="2">
-        <v>42515</v>
+        <v>60</v>
+      </c>
+      <c r="D12" s="30">
+        <v>3</v>
       </c>
       <c r="E12" s="30">
         <v>3</v>
       </c>
-      <c r="F12" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>42515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>42515</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="30">
+        <v>3</v>
       </c>
       <c r="E13" s="30">
         <v>3</v>
       </c>
-      <c r="F13" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>42515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2">
-        <v>42522</v>
+        <v>61</v>
+      </c>
+      <c r="D14" s="30">
+        <v>3</v>
       </c>
       <c r="E14" s="30">
         <v>3</v>
       </c>
-      <c r="F14" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2">
-        <v>42522</v>
+        <v>62</v>
+      </c>
+      <c r="D15" s="30">
+        <v>3</v>
       </c>
       <c r="E15" s="30">
         <v>3</v>
       </c>
-      <c r="F15" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16" s="30">
+        <v>3</v>
+      </c>
+      <c r="E16" s="30">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
         <v>42529</v>
-      </c>
-      <c r="E16" s="30">
-        <v>3</v>
-      </c>
-      <c r="F16" s="30">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2">
-        <v>42529</v>
+        <v>64</v>
+      </c>
+      <c r="D17" s="30">
+        <v>4</v>
       </c>
       <c r="E17" s="30">
         <v>4</v>
       </c>
-      <c r="F17" s="30">
-        <v>4</v>
+      <c r="F17" s="2">
+        <v>42529</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="2">
-        <v>42529</v>
+        <v>63</v>
+      </c>
+      <c r="D18" s="30">
+        <v>4</v>
       </c>
       <c r="E18" s="30">
         <v>4</v>
       </c>
-      <c r="F18" s="30">
-        <v>4</v>
+      <c r="F18" s="2">
+        <v>42529</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1769,16 +1796,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="2">
+        <v>90</v>
+      </c>
+      <c r="D19" s="30">
+        <v>4</v>
+      </c>
+      <c r="E19" s="30">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
         <v>42529</v>
-      </c>
-      <c r="E19" s="30">
-        <v>4</v>
-      </c>
-      <c r="F19" s="30">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1786,16 +1813,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2">
-        <v>42538</v>
+        <v>71</v>
+      </c>
+      <c r="D20" s="30">
+        <v>5</v>
       </c>
       <c r="E20" s="30">
         <v>5</v>
       </c>
-      <c r="F20" s="30">
-        <v>5</v>
+      <c r="F20" s="2">
+        <v>42538</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1803,45 +1830,45 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D21" s="30">
+        <v>5</v>
+      </c>
       <c r="E21" s="30">
         <v>5</v>
       </c>
-      <c r="F21" s="30">
-        <v>5</v>
-      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D22" s="30">
+        <v>2</v>
+      </c>
       <c r="E22" s="30">
-        <v>2</v>
-      </c>
-      <c r="F22" s="30">
         <v>7</v>
       </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="D23" s="30">
+        <v>3</v>
+      </c>
       <c r="E23" s="30">
-        <v>3</v>
-      </c>
-      <c r="F23" s="30">
         <v>7</v>
       </c>
+      <c r="F23" s="2"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1849,147 +1876,246 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="D24" s="30">
+        <v>3</v>
+      </c>
       <c r="E24" s="30">
-        <v>3</v>
-      </c>
-      <c r="F24" s="30"/>
+        <v>10</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>29</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="30">
+        <v>10</v>
+      </c>
       <c r="E25" s="30">
-        <v>4</v>
-      </c>
-      <c r="F25" s="30"/>
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>42570</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="D26" s="30">
+        <v>10</v>
+      </c>
       <c r="E26" s="30">
-        <v>8</v>
-      </c>
-      <c r="F26" s="30"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="2">
+        <v>42570</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2">
-        <v>42577</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+        <v>127</v>
+      </c>
+      <c r="D27" s="30">
+        <v>10</v>
+      </c>
+      <c r="E27" s="30">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2">
+        <v>42570</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2">
-        <v>42583</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
+        <v>128</v>
+      </c>
+      <c r="D28" s="30">
+        <v>10</v>
+      </c>
+      <c r="E28" s="30">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2">
+        <v>42580</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="2">
-        <v>42585</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="30">
+        <v>10</v>
+      </c>
+      <c r="E29" s="30">
+        <v>10</v>
+      </c>
+      <c r="F29" s="2">
+        <v>42587</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2">
-        <v>42586</v>
+        <v>74</v>
+      </c>
+      <c r="D30" s="30">
+        <v>4</v>
       </c>
       <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="2">
-        <v>42587</v>
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="30">
+        <v>8</v>
       </c>
       <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2">
-        <v>42587</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D32" s="30"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="F32" s="2">
+        <v>42583</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="2">
+        <v>42584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="2">
+        <v>42585</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="2">
+        <v>42586</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="2">
+        <v>42587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="2">
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="2">
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B7" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
-    <hyperlink ref="B31" r:id="rId3" location="inbox/154e7d1ce0153b1e"/>
-    <hyperlink ref="B9" r:id="rId4" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
-    <hyperlink ref="B10" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
-    <hyperlink ref="B11" r:id="rId6" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
-    <hyperlink ref="B8" r:id="rId7" display="Read Prof. Gerber's Thoughts"/>
+    <hyperlink ref="B5" r:id="rId2" location="heading=h.q544jq4bo7vu" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.q544jq4bo7vu"/>
+    <hyperlink ref="B11" r:id="rId3" location="heading=h.4uv9il96waak" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.4uv9il96waak"/>
+    <hyperlink ref="B10" r:id="rId4" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
+    <hyperlink ref="B9" r:id="rId5" location="heading=h.kwuhphhohs6l" display="https://docs.google.com/document/d/1WtVePtADr7xStL5Ac2lepzWibRBYoZs5Y_515wGqzFw/edit - heading=h.kwuhphhohs6l"/>
+    <hyperlink ref="B8" r:id="rId6" display="Read Prof. Gerber's Thoughts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2015,33 +2141,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
         <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2069,7 +2195,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -2097,7 +2223,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -2123,7 +2249,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2151,7 +2277,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2179,7 +2305,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2207,7 +2333,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -2235,7 +2361,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -2263,7 +2389,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2291,7 +2417,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -2319,7 +2445,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -2347,7 +2473,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2375,7 +2501,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2403,7 +2529,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2431,7 +2557,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2459,7 +2585,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2487,7 +2613,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2515,7 +2641,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -2543,7 +2669,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2571,7 +2697,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -2599,7 +2725,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2625,7 +2751,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2653,7 +2779,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2681,7 +2807,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -2709,7 +2835,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -2737,7 +2863,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -2765,7 +2891,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2793,7 +2919,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2821,7 +2947,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2849,7 +2975,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2877,7 +3003,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2905,7 +3031,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -2933,7 +3059,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2961,7 +3087,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2989,7 +3115,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -3017,7 +3143,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -3045,7 +3171,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -3073,7 +3199,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3101,7 +3227,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3129,7 +3255,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -3157,7 +3283,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3185,7 +3311,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3213,7 +3339,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3241,7 +3367,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3269,7 +3395,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3297,7 +3423,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3325,7 +3451,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3353,7 +3479,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3381,7 +3507,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3409,7 +3535,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -3437,7 +3563,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -3465,7 +3591,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -3493,7 +3619,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -3521,7 +3647,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -3549,7 +3675,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -3577,7 +3703,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -3605,7 +3731,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -3633,7 +3759,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -3677,7 +3803,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,201 +3814,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +4034,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,58 +4062,58 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -3998,11 +4133,11 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4012,17 +4147,17 @@
         <f t="array" ref="I2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>24</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Determine Research Interests</v>
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.22916666666666663</v>
+        <v>0</v>
       </c>
       <c r="L2" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="5">
@@ -4030,7 +4165,7 @@
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4038,18 +4173,18 @@
       </c>
       <c r="Q2" s="5">
         <f t="array" ref="Q2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R2" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Determine Research Interests</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="T2" s="5">
         <v>-1</v>
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>More interest in objective inferences</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -4069,11 +4204,11 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4081,19 +4216,19 @@
       </c>
       <c r="I3" s="30">
         <f t="array" ref="I3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
-      </c>
-      <c r="J3" s="15" t="str">
+        <v>37</v>
+      </c>
+      <c r="J3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
+        <v>Register for UbiComp</v>
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
       <c r="L3" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5">
@@ -4101,7 +4236,7 @@
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4109,18 +4244,18 @@
       </c>
       <c r="Q3" s="5">
         <f t="array" ref="Q3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R3" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="T3" s="5">
         <v>-2</v>
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Studying digitial devices as systems.</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4139,11 +4274,11 @@
         <v>0.25000000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4151,46 +4286,46 @@
       </c>
       <c r="I4" s="30">
         <f t="array" ref="I4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles about research interests</v>
+        <v>"Claim" my desk in 228</v>
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
       <c r="L4" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="str">
         <f t="array" ref="Q4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>33</v>
-      </c>
-      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="R4" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles about research interests</v>
+        <v/>
       </c>
       <c r="T4" s="5">
         <v>-3</v>
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>With student volunteer looking unlikely is UbiComp still a possibility?</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4209,39 +4344,39 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="5">
-        <v>-20</v>
+        <v>-13</v>
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>34</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
+        <v>Email Prof. Beling</v>
+      </c>
+      <c r="K5" s="50">
+        <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="30" t="str">
-        <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J5" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K5" s="50" t="str">
-        <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
       <c r="L5" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4279,39 +4414,39 @@
         <v>1.0312499999999998</v>
       </c>
       <c r="F6" s="5">
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>35</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
+        <v>Attend Prof. Barne's team meeting</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30" t="str">
-        <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J6" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K6" s="50" t="str">
-        <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
       <c r="L6" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4349,39 +4484,39 @@
         <v>0.62500000000000011</v>
       </c>
       <c r="F7" s="5">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>17</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
+        <v>Fill out my vaccine medical form</v>
+      </c>
+      <c r="K7" s="50">
+        <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="30" t="str">
-        <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J7" s="48" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K7" s="50" t="str">
-        <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
-      <c r="L7" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
-        <v/>
+      <c r="L7" s="44" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
+        <v>X</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4419,39 +4554,39 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="F8" s="5">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>29</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
+        <v>Integrate into UVA System</v>
+      </c>
+      <c r="K8" s="50">
+        <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="30" t="str">
-        <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J8" s="43" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K8" s="50" t="str">
-        <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
       <c r="L8" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4489,39 +4624,39 @@
         <v>0.23958333333333337</v>
       </c>
       <c r="F9" s="5">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
+        <v>33</v>
+      </c>
+      <c r="J9" s="15" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
+        <v>Read articles about research interests</v>
+      </c>
+      <c r="K9" s="50">
+        <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="I9" s="30" t="str">
-        <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J9" s="30" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K9" s="50" t="str">
-        <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
-      </c>
       <c r="L9" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4531,7 +4666,7 @@
         <f t="array" ref="Q9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R9" s="30" t="str">
+      <c r="R9" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4559,11 +4694,11 @@
         <v>0.22916666666666663</v>
       </c>
       <c r="F10" s="5">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4573,7 +4708,7 @@
         <f t="array" ref="I10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4582,16 +4717,16 @@
         <v/>
       </c>
       <c r="L10" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4614,12 +4749,26 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42564</v>
+      </c>
+      <c r="C11" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42571</v>
+      </c>
+      <c r="D11" s="49">
+        <f t="array" ref="D11">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="5">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4629,7 +4778,7 @@
         <f t="array" ref="I11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4638,16 +4787,16 @@
         <v/>
       </c>
       <c r="L11" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="5">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="O11" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4671,11 +4820,11 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F12" s="5">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4685,7 +4834,7 @@
         <f t="array" ref="I12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4694,16 +4843,16 @@
         <v/>
       </c>
       <c r="L12" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="5">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4727,11 +4876,11 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F13" s="5">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4741,7 +4890,7 @@
         <f t="array" ref="I13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="43" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4750,16 +4899,16 @@
         <v/>
       </c>
       <c r="L13" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="5">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4776,11 +4925,11 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F14" s="5">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4798,17 +4947,17 @@
         <f t="array" ref="K14">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L14" s="44" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+      <c r="L14" s="45" t="str">
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="5">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4829,7 +4978,7 @@
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4848,7 +4997,7 @@
         <v/>
       </c>
       <c r="L15" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M15" s="2"/>
@@ -4857,7 +5006,7 @@
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4878,7 +5027,7 @@
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4897,7 +5046,7 @@
         <v/>
       </c>
       <c r="L16" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M16" s="2"/>
@@ -4906,7 +5055,7 @@
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4927,7 +5076,7 @@
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4946,7 +5095,7 @@
         <v/>
       </c>
       <c r="L17" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M17" s="2"/>
@@ -4955,7 +5104,7 @@
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4976,7 +5125,7 @@
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4995,7 +5144,7 @@
         <v/>
       </c>
       <c r="L18" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M18" s="2"/>
@@ -5004,7 +5153,7 @@
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5025,7 +5174,7 @@
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5044,7 +5193,7 @@
         <v/>
       </c>
       <c r="L19" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M19" s="2"/>
@@ -5053,7 +5202,7 @@
       </c>
       <c r="O19" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5074,7 +5223,7 @@
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5093,7 +5242,7 @@
         <v/>
       </c>
       <c r="L20" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M20" s="2"/>
@@ -5102,7 +5251,7 @@
       </c>
       <c r="O20" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5123,7 +5272,7 @@
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5142,7 +5291,7 @@
         <v/>
       </c>
       <c r="L21" s="45" t="str">
-        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 6, FALSE))), "X", ""))</f>
+        <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M21" s="2"/>
@@ -5151,7 +5300,7 @@
       </c>
       <c r="O21" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5183,7 +5332,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5202,7 +5351,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -5213,8 +5362,8 @@
       <c r="H1" s="24"/>
       <c r="I1" s="23"/>
       <c r="J1" s="54">
-        <f>MAX(Periods[Start])</f>
-        <v>42557</v>
+        <f>MAX(Periods[Finish])</f>
+        <v>42571</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="13"/>
@@ -5235,25 +5384,25 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="16"/>
       <c r="H3" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="29"/>
       <c r="L3" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
@@ -5265,27 +5414,27 @@
       <c r="C4" s="10"/>
       <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0.22916666666666663</v>
+        <v>0</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F4" s="16"/>
       <c r="H4" s="17" t="str">
         <f t="array" ref="H4:H18">ThisWeekTasks[Description]</f>
-        <v>Determine Research Interests</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Integrate into UVA System</v>
+        <v>Register for UbiComp</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -5293,23 +5442,23 @@
         <v>0</v>
       </c>
       <c r="E5" s="42" t="str">
-        <v/>
+        <v>X</v>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
-        <v>Integrate into UVA System</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Read articles about research interests</v>
+        <v>"Claim" my desk in 228</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -5317,31 +5466,31 @@
         <v>0</v>
       </c>
       <c r="E6" s="41" t="str">
-        <v/>
+        <v>X</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>Read articles about research interests</v>
+        <v/>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v/>
+        <v>Email Prof. Beling</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="53" t="str">
-        <v/>
+      <c r="D7" s="53">
+        <v>0</v>
       </c>
       <c r="E7" s="41" t="str">
-        <v/>
+        <v>X</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
@@ -5351,21 +5500,21 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v/>
+        <v>Attend Prof. Barne's team meeting</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="53" t="str">
-        <v/>
+      <c r="D8" s="53">
+        <v>0</v>
       </c>
       <c r="E8" s="41" t="str">
-        <v/>
+        <v>X</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
@@ -5376,21 +5525,21 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v/>
+        <v>Fill out my vaccine medical form</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="53" t="str">
-        <v/>
+      <c r="D9" s="53">
+        <v>0</v>
       </c>
       <c r="E9" s="41" t="str">
-        <v/>
+        <v>X</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
@@ -5401,18 +5550,18 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v/>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="53" t="str">
-        <v/>
+      <c r="D10" s="53">
+        <v>0</v>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -5426,18 +5575,18 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="str">
-        <v/>
+        <v>Read articles about research interests</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="53" t="str">
-        <v/>
+      <c r="D11" s="53">
+        <v>0</v>
       </c>
       <c r="E11" s="41" t="str">
         <v/>
@@ -5451,7 +5600,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11"/>
     </row>
@@ -5476,7 +5625,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12"/>
     </row>
@@ -5617,7 +5766,7 @@
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5635,7 +5784,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>More interest in objective inferences</v>
+        <v/>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -5652,7 +5801,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v>Studying digitial devices as systems.</v>
+        <v/>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5669,7 +5818,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v>With student volunteer looking unlikely is UbiComp still a possibility?</v>
+        <v/>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -23,7 +23,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B35" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="163">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -475,9 +475,6 @@
     <t>Create Conference Plan</t>
   </si>
   <si>
-    <t>Present presentation about Experiments</t>
-  </si>
-  <si>
     <t>Yes.</t>
   </si>
   <si>
@@ -487,13 +484,88 @@
     <t>Chosen research topic. Fits with team and department well. Also easier to quantify.</t>
   </si>
   <si>
-    <t>Get hotel room for conference</t>
-  </si>
-  <si>
-    <t>Talk to Mohammad?</t>
-  </si>
-  <si>
     <t>Finish</t>
+  </si>
+  <si>
+    <t>Getting missing vaccines</t>
+  </si>
+  <si>
+    <t>Sign up for Payroll</t>
+  </si>
+  <si>
+    <t>Find stakeholders for my research</t>
+  </si>
+  <si>
+    <t>Present about Experimental Design</t>
+  </si>
+  <si>
+    <t>The Per Diem room rate looks like it is $200. Do I get that if I go under or do I lose what I don't use?</t>
+  </si>
+  <si>
+    <t>Is there a Per Diem for plane travel? I can get it as low as $500 with moderate inconvenience or $1200 with no inconvenience.</t>
+  </si>
+  <si>
+    <t>Why can't I log into TravelUVA? Should I use that or is that for employees only?</t>
+  </si>
+  <si>
+    <t>Catching up on emails</t>
+  </si>
+  <si>
+    <t>Installing Xamarin</t>
+  </si>
+  <si>
+    <t>Cancel BCBS OK Coverage</t>
+  </si>
+  <si>
+    <t>Reading book</t>
+  </si>
+  <si>
+    <t>Creating Slides</t>
+  </si>
+  <si>
+    <t>Sensus Meeting</t>
+  </si>
+  <si>
+    <t>Reading Book</t>
+  </si>
+  <si>
+    <t>Purchase tickets and hotel for conference</t>
+  </si>
+  <si>
+    <t>TravelUVA, UbiComp, Kayak</t>
+  </si>
+  <si>
+    <t>Meeting with Gerber about UbiComp</t>
+  </si>
+  <si>
+    <t>Experimental Design Report</t>
+  </si>
+  <si>
+    <t>Sending email about flights and hotels to Gerber</t>
+  </si>
+  <si>
+    <t>I have to be an employee and I'm not</t>
+  </si>
+  <si>
+    <t>No, but be reasonable</t>
+  </si>
+  <si>
+    <t>No I don't get it back so no need to completely skimp on room</t>
+  </si>
+  <si>
+    <t>Registering online</t>
+  </si>
+  <si>
+    <t>Finalizing purchase of hotel and flights</t>
+  </si>
+  <si>
+    <t>Watching Not On Our Grounds</t>
+  </si>
+  <si>
+    <t>Meeting with potential research partners</t>
+  </si>
+  <si>
+    <t>Meeting with Prof. Gerber</t>
   </si>
 </sst>
 </file>
@@ -1028,12 +1100,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F39" totalsRowShown="0">
-  <autoFilter ref="A1:F39"/>
-  <sortState ref="A2:F39">
-    <sortCondition ref="E2:E38"/>
-    <sortCondition ref="D2:D38"/>
-    <sortCondition ref="F2:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F42" totalsRowShown="0">
+  <autoFilter ref="A1:F42">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A31:F42">
+    <sortCondition ref="E2:E41"/>
+    <sortCondition ref="D2:D41"/>
+    <sortCondition ref="F2:F41"/>
+    <sortCondition descending="1" ref="A2:A41"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="8" name="Id" dataDxfId="41"/>
@@ -1048,8 +1125,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H59" totalsRowShown="0">
-  <autoFilter ref="A1:H59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H77" totalsRowShown="0">
+  <autoFilter ref="A1:H77"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1069,13 +1146,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B26" totalsRowShown="0">
-  <autoFilter ref="A1:B26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A26:B26">
+  <sortState ref="A29:B29">
     <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="2">
@@ -1087,8 +1164,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Id" dataDxfId="32"/>
     <tableColumn id="2" name="Start" dataDxfId="31"/>
@@ -1464,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>3</v>
       </c>
@@ -1519,7 +1596,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1536,7 +1613,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1553,7 +1630,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>6</v>
       </c>
@@ -1570,7 +1647,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1587,7 +1664,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1604,7 +1681,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -1621,7 +1698,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>12</v>
       </c>
@@ -1638,7 +1715,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>11</v>
       </c>
@@ -1655,7 +1732,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1672,7 +1749,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1689,7 +1766,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1706,7 +1783,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>23</v>
       </c>
@@ -1723,7 +1800,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>15</v>
       </c>
@@ -1740,7 +1817,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1757,7 +1834,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>26</v>
       </c>
@@ -1774,7 +1851,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>25</v>
       </c>
@@ -1791,7 +1868,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>27</v>
       </c>
@@ -1808,7 +1885,7 @@
         <v>42529</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1825,7 +1902,7 @@
         <v>42538</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>32</v>
       </c>
@@ -1840,7 +1917,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>30</v>
       </c>
@@ -1855,7 +1932,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>14</v>
       </c>
@@ -1871,7 +1948,7 @@
       <c r="F23" s="2"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>24</v>
       </c>
@@ -1886,7 +1963,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>37</v>
       </c>
@@ -1903,7 +1980,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>36</v>
       </c>
@@ -1920,7 +1997,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>34</v>
       </c>
@@ -1937,7 +2014,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>35</v>
       </c>
@@ -1954,7 +2031,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>17</v>
       </c>
@@ -1971,136 +2048,184 @@
         <v>42587</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
       </c>
       <c r="D30" s="30">
-        <v>4</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E30" s="30">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42584</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>122</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="D31" s="30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="30"/>
+        <v>122</v>
+      </c>
+      <c r="D32" s="30">
+        <v>8</v>
+      </c>
       <c r="E32" s="30"/>
-      <c r="F32" s="2">
-        <v>42583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="2">
-        <v>42584</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D33" s="30">
+        <v>12</v>
+      </c>
+      <c r="E33" s="30">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="30">
+        <v>12</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>28</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="2">
+      <c r="D35" s="30">
+        <v>12</v>
+      </c>
+      <c r="E35" s="30">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2">
         <v>42585</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>19</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="2">
-        <v>42586</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="30">
+        <v>13</v>
+      </c>
       <c r="E36" s="30"/>
       <c r="F36" s="2">
-        <v>42587</v>
+        <v>42586</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="30"/>
+      <c r="D37" s="30">
+        <v>13</v>
+      </c>
       <c r="E37" s="30"/>
       <c r="F37" s="2">
-        <v>42590</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="D38" s="30">
+        <v>13</v>
+      </c>
       <c r="E38" s="30"/>
       <c r="F38" s="2">
-        <v>42597</v>
+        <v>42587</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="30"/>
+        <v>145</v>
+      </c>
+      <c r="D39" s="30">
+        <v>13</v>
+      </c>
       <c r="E39" s="30"/>
       <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2122,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3785,9 +3910,513 @@
         <v>Determine Research Interests</v>
       </c>
     </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3">
+        <v>42580</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.59375</v>
+      </c>
+      <c r="F60" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G60" s="30">
+        <v>17</v>
+      </c>
+      <c r="H60" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Fill out my vaccine medical form</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61" s="3">
+        <v>42580</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F61" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G61" s="30">
+        <v>29</v>
+      </c>
+      <c r="H61" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3">
+        <v>42581</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F62" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G62" s="30">
+        <v>40</v>
+      </c>
+      <c r="H62" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Purchase tickets and hotel for conference</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3">
+        <v>42581</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F63" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G63" s="30">
+        <v>16</v>
+      </c>
+      <c r="H63" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Present about Experimental Design</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3">
+        <v>42582</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F64" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="G64" s="30">
+        <v>29</v>
+      </c>
+      <c r="H64" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65" s="3">
+        <v>42582</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F65" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G65" s="30">
+        <v>16</v>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Present about Experimental Design</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66" s="3">
+        <v>42583</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F66" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G66" s="30">
+        <v>40</v>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Purchase tickets and hotel for conference</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3">
+        <v>42583</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F67" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G67" s="30">
+        <v>16</v>
+      </c>
+      <c r="H67" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Present about Experimental Design</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3">
+        <v>42583</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F68" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G68" s="30">
+        <v>16</v>
+      </c>
+      <c r="H68" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Present about Experimental Design</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69" s="3">
+        <v>42584</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F69" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G69" s="30">
+        <v>16</v>
+      </c>
+      <c r="H69" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Present about Experimental Design</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70" s="3">
+        <v>42584</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F70" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G70" s="30">
+        <v>29</v>
+      </c>
+      <c r="H70" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3">
+        <v>42584</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="F71" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G71" s="30">
+        <v>16</v>
+      </c>
+      <c r="H71" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Present about Experimental Design</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72" s="3">
+        <v>42584</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F72" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G72" s="30">
+        <v>40</v>
+      </c>
+      <c r="H72" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Purchase tickets and hotel for conference</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" s="3">
+        <v>42585</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F73" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G73" s="30">
+        <v>40</v>
+      </c>
+      <c r="H73" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Purchase tickets and hotel for conference</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74" s="3">
+        <v>42585</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F74" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G74" s="30">
+        <v>28</v>
+      </c>
+      <c r="H74" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Register for classes</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75" s="3">
+        <v>42585</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F75" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G75" s="30">
+        <v>29</v>
+      </c>
+      <c r="H75" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76">
+        <v>12</v>
+      </c>
+      <c r="C76" s="3">
+        <v>42585</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F76" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G76" s="30">
+        <v>29</v>
+      </c>
+      <c r="H76" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77" s="3">
+        <v>42585</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F77" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G77" s="30">
+        <v>29</v>
+      </c>
+      <c r="H77" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="G2:H35"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3800,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,7 +4630,7 @@
         <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -4009,7 +4638,7 @@
         <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -4017,7 +4646,31 @@
         <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4687,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,7 +4721,7 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -4133,11 +4786,11 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4145,15 +4798,15 @@
       </c>
       <c r="I2" s="30">
         <f t="array" ref="I2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>24</v>
-      </c>
-      <c r="J2" s="30" t="str">
+        <v>16</v>
+      </c>
+      <c r="J2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Determine Research Interests</v>
+        <v>Present about Experimental Design</v>
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.39583333333333315</v>
       </c>
       <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -4161,11 +4814,11 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="5">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4204,11 +4857,11 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4216,27 +4869,27 @@
       </c>
       <c r="I3" s="30">
         <f t="array" ref="I3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Register for UbiComp</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.32291666666666663</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4274,11 +4927,11 @@
         <v>0.25000000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4286,39 +4939,39 @@
       </c>
       <c r="I4" s="30">
         <f t="array" ref="I4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>"Claim" my desk in 228</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="45" t="str">
+      <c r="L4" s="44" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5">
-        <v>-20</v>
+        <v>-9</v>
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
         <f t="array" ref="Q4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R4" s="30" t="str">
+        <v>38</v>
+      </c>
+      <c r="R4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Create Conference Plan</v>
       </c>
       <c r="T4" s="5">
         <v>-3</v>
@@ -4344,11 +4997,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="5">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4356,15 +5009,15 @@
       </c>
       <c r="I5" s="30">
         <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Email Prof. Beling</v>
+        <v>Purchase tickets and hotel for conference</v>
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.17708333333333337</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -4372,23 +5025,23 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="5">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
         <f t="array" ref="Q5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R5" s="30" t="str">
+        <v>19</v>
+      </c>
+      <c r="R5" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Get campus ID card</v>
       </c>
       <c r="T5" s="5">
         <v>-4</v>
@@ -4414,11 +5067,11 @@
         <v>1.0312499999999998</v>
       </c>
       <c r="F6" s="5">
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4426,11 +5079,11 @@
       </c>
       <c r="I6" s="30">
         <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>35</v>
-      </c>
-      <c r="J6" t="str">
+        <v>38</v>
+      </c>
+      <c r="J6" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Attend Prof. Barne's team meeting</v>
+        <v>Create Conference Plan</v>
       </c>
       <c r="K6" s="50">
         <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
@@ -4438,27 +5091,27 @@
       </c>
       <c r="L6" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
         <f t="array" ref="Q6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R6" s="30" t="str">
+        <v>41</v>
+      </c>
+      <c r="R6" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Sign up for Payroll</v>
       </c>
       <c r="T6" s="5">
         <v>-5</v>
@@ -4484,11 +5137,11 @@
         <v>0.62500000000000011</v>
       </c>
       <c r="F7" s="5">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4496,39 +5149,39 @@
       </c>
       <c r="I7" s="30">
         <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J7" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Fill out my vaccine medical form</v>
+        <v>Register for classes</v>
       </c>
       <c r="K7" s="50">
         <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="44" t="str">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="L7" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v>X</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
         <f t="array" ref="Q7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R7" s="30" t="str">
+        <v>20</v>
+      </c>
+      <c r="R7" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Sign up for Health Insurance</v>
       </c>
       <c r="T7" s="5">
         <v>-6</v>
@@ -4554,27 +5207,27 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="F8" s="5">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30" t="str">
         <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
-      </c>
-      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="J8" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
-      </c>
-      <c r="K8" s="50">
+        <v/>
+      </c>
+      <c r="K8" s="50" t="str">
         <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L8" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -4582,23 +5235,23 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="5">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="array" ref="Q8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R8" s="30" t="str">
+        <v>39</v>
+      </c>
+      <c r="R8" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Cancel BCBS OK Coverage</v>
       </c>
       <c r="T8" s="5">
         <v>-7</v>
@@ -4624,27 +5277,27 @@
         <v>0.23958333333333337</v>
       </c>
       <c r="F9" s="5">
-        <v>-9</v>
+        <v>-19</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30" t="str">
         <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>33</v>
-      </c>
-      <c r="J9" s="15" t="str">
+        <v/>
+      </c>
+      <c r="J9" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles about research interests</v>
-      </c>
-      <c r="K9" s="50">
+        <v/>
+      </c>
+      <c r="K9" s="50" t="str">
         <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="L9" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -4652,11 +5305,11 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="5">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4666,7 +5319,7 @@
         <f t="array" ref="Q9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R9" t="str">
+      <c r="R9" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4694,11 +5347,11 @@
         <v>0.22916666666666663</v>
       </c>
       <c r="F10" s="5">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4708,7 +5361,7 @@
         <f t="array" ref="I10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J10" s="30" t="str">
+      <c r="J10" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4722,11 +5375,11 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="5">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4736,7 +5389,7 @@
         <f t="array" ref="Q10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R10" t="str">
+      <c r="R10" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4764,11 +5417,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4778,7 +5431,7 @@
         <f t="array" ref="I11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="43" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4792,11 +5445,11 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="5">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="O11" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4806,7 +5459,7 @@
         <f t="array" ref="Q11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R11" t="str">
+      <c r="R11" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4819,12 +5472,26 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42571</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42578</v>
+      </c>
+      <c r="D12" s="49">
+        <f t="array" ref="D12">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0</v>
+      </c>
       <c r="F12" s="5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4834,7 +5501,7 @@
         <f t="array" ref="I12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J12" s="48" t="str">
+      <c r="J12" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4848,11 +5515,11 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="5">
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4862,7 +5529,7 @@
         <f t="array" ref="Q12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R12" t="str">
+      <c r="R12" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4875,12 +5542,26 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42578</v>
+      </c>
+      <c r="C13" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42585</v>
+      </c>
+      <c r="D13" s="49">
+        <f t="array" ref="D13">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0.94791666666666652</v>
+      </c>
       <c r="F13" s="5">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4890,7 +5571,7 @@
         <f t="array" ref="I13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J13" s="43" t="str">
+      <c r="J13" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -4904,11 +5585,11 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="5">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4918,18 +5599,18 @@
         <f t="array" ref="Q13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R13" t="str">
+      <c r="R13" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F14" s="5">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4953,11 +5634,11 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="5">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4978,7 +5659,7 @@
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5002,11 +5683,11 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="5">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5027,7 +5708,7 @@
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5051,11 +5732,11 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="5">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5076,7 +5757,7 @@
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5100,11 +5781,11 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="5">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5125,7 +5806,7 @@
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5149,11 +5830,11 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="5">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5174,7 +5855,7 @@
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5202,7 +5883,7 @@
       </c>
       <c r="O19" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5223,7 +5904,7 @@
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5251,7 +5932,7 @@
       </c>
       <c r="O20" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5272,7 +5953,7 @@
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5300,7 +5981,7 @@
       </c>
       <c r="O21" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5332,7 +6013,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5363,7 +6044,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="54">
         <f>MAX(Periods[Finish])</f>
-        <v>42571</v>
+        <v>42585</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="13"/>
@@ -5408,13 +6089,13 @@
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v>Determine Research Interests</v>
+        <v>Present about Experimental Design</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0</v>
+        <v>0.39583333333333315</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
@@ -5434,15 +6115,15 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Register for UbiComp</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="52">
-        <v>0</v>
+        <v>0.32291666666666663</v>
       </c>
       <c r="E5" s="42" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
@@ -5458,7 +6139,7 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>"Claim" my desk in 228</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -5466,11 +6147,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="41" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v/>
+        <v>Create Conference Plan</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -5482,19 +6163,19 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Email Prof. Beling</v>
+        <v>Purchase tickets and hotel for conference</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0</v>
+        <v>0.17708333333333337</v>
       </c>
       <c r="E7" s="41" t="str">
         <v>X</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
-        <v/>
+        <v>Get campus ID card</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -5506,7 +6187,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Attend Prof. Barne's team meeting</v>
+        <v>Create Conference Plan</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5514,12 +6195,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="41" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="str">
-        <v/>
+        <v>Sign up for Payroll</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -5531,12 +6212,12 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Fill out my vaccine medical form</v>
+        <v>Register for classes</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="53">
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E9" s="41" t="str">
         <v>X</v>
@@ -5544,7 +6225,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="str">
-        <v/>
+        <v>Sign up for Health Insurance</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -5556,12 +6237,12 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v>Integrate into UVA System</v>
+        <v/>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="53">
-        <v>0</v>
+      <c r="D10" s="53" t="str">
+        <v/>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -5569,7 +6250,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="13"/>
       <c r="H10" s="10" t="str">
-        <v/>
+        <v>Cancel BCBS OK Coverage</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -5581,12 +6262,12 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="str">
-        <v>Read articles about research interests</v>
+        <v/>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="53">
-        <v>0</v>
+      <c r="D11" s="53" t="str">
+        <v/>
       </c>
       <c r="E11" s="41" t="str">
         <v/>
@@ -5618,7 +6299,7 @@
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="19" t="str">
+      <c r="H12" s="10" t="str">
         <v/>
       </c>
       <c r="I12" s="19"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -566,6 +566,69 @@
   </si>
   <si>
     <t>Meeting with Prof. Gerber</t>
+  </si>
+  <si>
+    <t>Meeting with Yu and Wes about Sensus</t>
+  </si>
+  <si>
+    <t>What do you want from me with Open mHealth?</t>
+  </si>
+  <si>
+    <t>How to balance GRA with programming?</t>
+  </si>
+  <si>
+    <t>Study Sensus and answer security questions</t>
+  </si>
+  <si>
+    <t>Signing up for Insurance, Payroll and ID card</t>
+  </si>
+  <si>
+    <t>Open mHealth</t>
+  </si>
+  <si>
+    <t>Open mHealth research and email</t>
+  </si>
+  <si>
+    <t>Creating Conference Plan for UbiComp</t>
+  </si>
+  <si>
+    <t>Sensus</t>
+  </si>
+  <si>
+    <t>Responding to Gerber's Sensus Questions</t>
+  </si>
+  <si>
+    <t>Filling out Payroll Banking and Tax Forms</t>
+  </si>
+  <si>
+    <t>Should I plan on going to our presentations at Ubicomp?</t>
+  </si>
+  <si>
+    <t>Setup Development Environment</t>
+  </si>
+  <si>
+    <t>Weekly Sensus Meeting</t>
+  </si>
+  <si>
+    <t>Weekly Team Meeting</t>
+  </si>
+  <si>
+    <t>Orientation Event</t>
+  </si>
+  <si>
+    <t>Reviewing Conference Program</t>
+  </si>
+  <si>
+    <t>Filling out Update Sheet</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>What should I do with Prof. Barnes iOS app?</t>
+  </si>
+  <si>
+    <t>Discuss my security questions</t>
   </si>
 </sst>
 </file>
@@ -1100,13 +1163,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F42" totalsRowShown="0">
-  <autoFilter ref="A1:F42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F44" totalsRowShown="0">
+  <autoFilter ref="A1:F44">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A31:F42">
+  <sortState ref="A31:F44">
     <sortCondition ref="E2:E41"/>
     <sortCondition ref="D2:D41"/>
     <sortCondition ref="F2:F41"/>
@@ -1125,8 +1188,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H77" totalsRowShown="0">
-  <autoFilter ref="A1:H77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H98" totalsRowShown="0">
+  <autoFilter ref="A1:H98"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1146,13 +1209,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B29" totalsRowShown="0">
-  <autoFilter ref="A1:B29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B34" totalsRowShown="0">
+  <autoFilter ref="A1:B34">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A29:B29">
+  <sortState ref="A2:B34">
     <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="2">
@@ -1164,8 +1227,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D15" totalsRowShown="0">
+  <autoFilter ref="A1:D15"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Id" dataDxfId="32"/>
     <tableColumn id="2" name="Start" dataDxfId="31"/>
@@ -1541,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,7 +2199,7 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>19</v>
       </c>
@@ -2146,12 +2209,12 @@
       <c r="D36" s="30">
         <v>13</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="2">
-        <v>42586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="30">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>41</v>
       </c>
@@ -2161,12 +2224,12 @@
       <c r="D37" s="30">
         <v>13</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="2">
-        <v>42587</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="30">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>20</v>
       </c>
@@ -2176,12 +2239,12 @@
       <c r="D38" s="30">
         <v>13</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="2">
-        <v>42587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="30">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>39</v>
       </c>
@@ -2191,41 +2254,69 @@
       <c r="D39" s="30">
         <v>13</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="30">
+        <v>13</v>
+      </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="30"/>
+        <v>171</v>
+      </c>
+      <c r="D40" s="30">
+        <v>13</v>
+      </c>
       <c r="E40" s="30"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="30"/>
+        <v>168</v>
+      </c>
+      <c r="D41" s="30">
+        <v>13</v>
+      </c>
       <c r="E41" s="30"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2247,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,6 +4505,592 @@
         <v>Integrate into UVA System</v>
       </c>
     </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78">
+        <v>13</v>
+      </c>
+      <c r="C78" s="3">
+        <v>42589</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F78" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="G78" s="30">
+        <v>43</v>
+      </c>
+      <c r="H78" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Open mHealth</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79" s="3">
+        <v>42591</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F79" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="G79" s="30">
+        <v>44</v>
+      </c>
+      <c r="H79" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3">
+        <v>42592</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F80" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="G80" s="30">
+        <v>29</v>
+      </c>
+      <c r="H80" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3">
+        <v>42593</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F81" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="G81" s="30">
+        <v>44</v>
+      </c>
+      <c r="H81" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3">
+        <v>42594</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F82" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G82" s="30">
+        <v>44</v>
+      </c>
+      <c r="H82" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83">
+        <v>14</v>
+      </c>
+      <c r="C83" s="3">
+        <v>42595</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F83" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G83" s="30">
+        <v>38</v>
+      </c>
+      <c r="H83" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Create Conference Plan</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3">
+        <v>42595</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F84" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G84" s="30">
+        <v>44</v>
+      </c>
+      <c r="H84" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3">
+        <v>42595</v>
+      </c>
+      <c r="D85" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="F85" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G85" s="30">
+        <v>29</v>
+      </c>
+      <c r="H85" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3">
+        <v>42596</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="F86" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="G86" s="30">
+        <v>38</v>
+      </c>
+      <c r="H86" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Create Conference Plan</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+      <c r="C87" s="3">
+        <v>42597</v>
+      </c>
+      <c r="D87" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F87" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="G87" s="30">
+        <v>44</v>
+      </c>
+      <c r="H87" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3">
+        <v>42597</v>
+      </c>
+      <c r="D88" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F88" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="G88" s="30">
+        <v>44</v>
+      </c>
+      <c r="H88" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89" s="3">
+        <v>42597</v>
+      </c>
+      <c r="D89" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F89" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="G89" s="30">
+        <v>29</v>
+      </c>
+      <c r="H89" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90" s="3">
+        <v>42598</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F90" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G90" s="30">
+        <v>44</v>
+      </c>
+      <c r="H90" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91">
+        <v>14</v>
+      </c>
+      <c r="C91" s="3">
+        <v>42598</v>
+      </c>
+      <c r="D91" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F91" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G91" s="30">
+        <v>44</v>
+      </c>
+      <c r="H91" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+      <c r="C92" s="3">
+        <v>42598</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="F92" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G92" s="30">
+        <v>29</v>
+      </c>
+      <c r="H92" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93">
+        <v>14</v>
+      </c>
+      <c r="C93" s="3">
+        <v>42598</v>
+      </c>
+      <c r="D93" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F93" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G93" s="30">
+        <v>38</v>
+      </c>
+      <c r="H93" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Create Conference Plan</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94">
+        <v>14</v>
+      </c>
+      <c r="C94" s="3">
+        <v>42598</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.90625</v>
+      </c>
+      <c r="F94" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="G94" s="30">
+        <v>29</v>
+      </c>
+      <c r="H94" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95">
+        <v>14</v>
+      </c>
+      <c r="C95" s="3">
+        <v>42599</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="F95" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G95" s="30"/>
+      <c r="H95" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96" s="3">
+        <v>42599</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F96" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G96" s="30">
+        <v>38</v>
+      </c>
+      <c r="H96" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Create Conference Plan</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97" s="3">
+        <v>42599</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F97" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G97" s="30">
+        <v>29</v>
+      </c>
+      <c r="H97" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98">
+        <v>14</v>
+      </c>
+      <c r="C98" s="3">
+        <v>42599</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F98" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G98" s="30">
+        <v>29</v>
+      </c>
+      <c r="H98" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations disablePrompts="1" count="1">
@@ -4429,10 +5106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,23 +5136,23 @@
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
@@ -4483,7 +5160,7 @@
     </row>
     <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>106</v>
@@ -4491,7 +5168,7 @@
     </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>106</v>
@@ -4499,178 +5176,206 @@
     </row>
     <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4687,7 +5392,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4786,11 +5491,11 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4798,27 +5503,27 @@
       </c>
       <c r="I2" s="30">
         <f t="array" ref="I2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J2" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Present about Experimental Design</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.39583333333333315</v>
+        <v>0.44791666666666663</v>
       </c>
       <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="5">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4837,7 +5542,7 @@
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Discuss my security questions</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -4857,11 +5562,11 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4869,15 +5574,15 @@
       </c>
       <c r="I3" s="30">
         <f t="array" ref="I3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.32291666666666663</v>
+        <v>0</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -4885,11 +5590,11 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4908,7 +5613,7 @@
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>What should I do with Prof. Barnes iOS app?</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4931,7 +5636,7 @@
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4939,15 +5644,15 @@
       </c>
       <c r="I4" s="30">
         <f t="array" ref="I4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles about research interests</v>
+        <v>Create Conference Plan</v>
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="L4" s="44" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -4955,11 +5660,11 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -4978,7 +5683,7 @@
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>How to balance GRA with programming?</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4997,11 +5702,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="5">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5009,27 +5714,27 @@
       </c>
       <c r="I5" s="30">
         <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Purchase tickets and hotel for conference</v>
+        <v>Sensus</v>
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.17708333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="5">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5037,18 +5742,18 @@
       </c>
       <c r="Q5" s="5">
         <f t="array" ref="Q5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="R5" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Get campus ID card</v>
+        <v>Sensus</v>
       </c>
       <c r="T5" s="5">
         <v>-4</v>
       </c>
       <c r="U5" t="str">
         <f t="array" ref="U5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>What do you want from me with Open mHealth?</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5067,11 +5772,11 @@
         <v>1.0312499999999998</v>
       </c>
       <c r="F6" s="5">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5079,11 +5784,11 @@
       </c>
       <c r="I6" s="30">
         <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>38</v>
-      </c>
-      <c r="J6" s="15" t="str">
+        <v>43</v>
+      </c>
+      <c r="J6" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Create Conference Plan</v>
+        <v>Open mHealth</v>
       </c>
       <c r="K6" s="50">
         <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
@@ -5095,11 +5800,11 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5107,11 +5812,11 @@
       </c>
       <c r="Q6" s="5">
         <f t="array" ref="Q6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R6" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Sign up for Payroll</v>
+        <v>Open mHealth</v>
       </c>
       <c r="T6" s="5">
         <v>-5</v>
@@ -5137,51 +5842,51 @@
         <v>0.62500000000000011</v>
       </c>
       <c r="F7" s="5">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30" t="str">
         <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>28</v>
-      </c>
-      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="J7" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Register for classes</v>
-      </c>
-      <c r="K7" s="50">
+        <v/>
+      </c>
+      <c r="K7" s="50" t="str">
         <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>2.083333333333337E-2</v>
+        <v/>
       </c>
       <c r="L7" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5" t="str">
         <f t="array" ref="Q7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>20</v>
-      </c>
-      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="R7" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Sign up for Health Insurance</v>
+        <v/>
       </c>
       <c r="T7" s="5">
         <v>-6</v>
@@ -5207,11 +5912,11 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="F8" s="5">
-        <v>-20</v>
+        <v>-19</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5235,23 +5940,23 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="5">
-        <v>-4</v>
+        <v>-19</v>
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" t="str">
         <f t="array" ref="Q8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>39</v>
-      </c>
-      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="R8" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Cancel BCBS OK Coverage</v>
+        <v/>
       </c>
       <c r="T8" s="5">
         <v>-7</v>
@@ -5277,11 +5982,11 @@
         <v>0.23958333333333337</v>
       </c>
       <c r="F9" s="5">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5291,7 +5996,7 @@
         <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J9" s="30" t="str">
+      <c r="J9" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -5305,11 +6010,11 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="5">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5347,11 +6052,11 @@
         <v>0.22916666666666663</v>
       </c>
       <c r="F10" s="5">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5361,7 +6066,7 @@
         <f t="array" ref="I10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J10" s="48" t="str">
+      <c r="J10" s="43" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -5375,11 +6080,11 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="5">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5417,11 +6122,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5431,7 +6136,7 @@
         <f t="array" ref="I11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J11" s="43" t="str">
+      <c r="J11" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -5445,11 +6150,11 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="5">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="O11" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5487,11 +6192,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5501,7 +6206,7 @@
         <f t="array" ref="I12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J12" s="30" t="str">
+      <c r="J12" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -5515,11 +6220,11 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="5">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5529,7 +6234,7 @@
         <f t="array" ref="Q12">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R12" s="30" t="str">
+      <c r="R12" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -5557,11 +6262,11 @@
         <v>0.94791666666666652</v>
       </c>
       <c r="F13" s="5">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5585,11 +6290,11 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="5">
-        <v>-16</v>
+        <v>-12</v>
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5599,18 +6304,32 @@
         <f t="array" ref="Q13">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="R13" s="30" t="str">
+      <c r="R13" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42585</v>
+      </c>
+      <c r="C14" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42592</v>
+      </c>
+      <c r="D14" s="49">
+        <f t="array" ref="D14">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0.4791666666666668</v>
+      </c>
       <c r="F14" s="5">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5634,11 +6353,11 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="5">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5654,12 +6373,26 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42592</v>
+      </c>
+      <c r="C15" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42599</v>
+      </c>
+      <c r="D15" s="49">
+        <f t="array" ref="D15">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>1.3854166666666665</v>
+      </c>
       <c r="F15" s="5">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5669,7 +6402,7 @@
         <f t="array" ref="I15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -5683,11 +6416,11 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="5">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5704,11 +6437,11 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F16" s="5">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5732,11 +6465,11 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="5">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5753,11 +6486,11 @@
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F17" s="5">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5781,11 +6514,11 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="5">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5802,11 +6535,11 @@
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F18" s="5">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5830,11 +6563,11 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="5">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5855,7 +6588,7 @@
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5883,7 +6616,7 @@
       </c>
       <c r="O19" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5904,7 +6637,7 @@
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5932,7 +6665,7 @@
       </c>
       <c r="O20" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5953,7 +6686,7 @@
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5981,7 +6714,7 @@
       </c>
       <c r="O21" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6013,7 +6746,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6044,7 +6777,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="54">
         <f>MAX(Periods[Finish])</f>
-        <v>42585</v>
+        <v>42599</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="13"/>
@@ -6089,17 +6822,17 @@
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v>Present about Experimental Design</v>
+        <v>Integrate into UVA System</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0.39583333333333315</v>
+        <v>0.44791666666666663</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F4" s="16"/>
       <c r="H4" s="17" t="str">
@@ -6115,12 +6848,12 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Integrate into UVA System</v>
+        <v>Read articles about research interests</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="52">
-        <v>0.32291666666666663</v>
+        <v>0</v>
       </c>
       <c r="E5" s="42" t="str">
         <v/>
@@ -6139,12 +6872,12 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Read articles about research interests</v>
+        <v>Create Conference Plan</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>0</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>
@@ -6163,19 +6896,19 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="str">
-        <v>Purchase tickets and hotel for conference</v>
+        <v>Sensus</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0.17708333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E7" s="41" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="10" t="str">
-        <v>Get campus ID card</v>
+        <v>Sensus</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -6187,7 +6920,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Create Conference Plan</v>
+        <v>Open mHealth</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6200,7 +6933,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="str">
-        <v>Sign up for Payroll</v>
+        <v>Open mHealth</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -6212,20 +6945,20 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Register for classes</v>
+        <v/>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="53">
-        <v>2.083333333333337E-2</v>
+      <c r="D9" s="53" t="str">
+        <v/>
       </c>
       <c r="E9" s="41" t="str">
-        <v>X</v>
+        <v/>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="str">
-        <v>Sign up for Health Insurance</v>
+        <v/>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -6250,7 +6983,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="13"/>
       <c r="H10" s="10" t="str">
-        <v>Cancel BCBS OK Coverage</v>
+        <v/>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -6465,7 +7198,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v/>
+        <v>Discuss my security questions</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -6482,7 +7215,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v/>
+        <v>What should I do with Prof. Barnes iOS app?</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -6499,7 +7232,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v/>
+        <v>How to balance GRA with programming?</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -6516,7 +7249,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v/>
+        <v>What do you want from me with Open mHealth?</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>Discuss my security questions</t>
+  </si>
+  <si>
+    <t>Working with Wes on Sensus</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1191,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H98" totalsRowShown="0">
-  <autoFilter ref="A1:H98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H101" totalsRowShown="0">
+  <autoFilter ref="A1:H101"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1227,8 +1230,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D15" totalsRowShown="0">
-  <autoFilter ref="A1:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D16" totalsRowShown="0">
+  <autoFilter ref="A1:D16"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Id" dataDxfId="32"/>
     <tableColumn id="2" name="Start" dataDxfId="31"/>
@@ -2338,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5089,6 +5092,90 @@
       <c r="H98" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99">
+        <v>15</v>
+      </c>
+      <c r="C99" s="3">
+        <v>42599</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F99" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G99" s="30">
+        <v>38</v>
+      </c>
+      <c r="H99" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Create Conference Plan</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100">
+        <v>15</v>
+      </c>
+      <c r="C100" s="3">
+        <v>42600</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F100" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G100" s="30">
+        <v>44</v>
+      </c>
+      <c r="H100" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101" s="3">
+        <v>42600</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F101" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G101" s="30">
+        <v>38</v>
+      </c>
+      <c r="H101" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Create Conference Plan</v>
       </c>
     </row>
   </sheetData>
@@ -5392,7 +5479,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,7 +5582,7 @@
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5511,7 +5598,7 @@
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.44791666666666663</v>
+        <v>0</v>
       </c>
       <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -5523,7 +5610,7 @@
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5566,7 +5653,7 @@
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5594,7 +5681,7 @@
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5636,7 +5723,7 @@
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5652,7 +5739,7 @@
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.25000000000000006</v>
+        <v>0.14583333333333343</v>
       </c>
       <c r="L4" s="44" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -5664,7 +5751,7 @@
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5706,7 +5793,7 @@
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5722,7 +5809,7 @@
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.64583333333333337</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -5734,7 +5821,7 @@
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5776,7 +5863,7 @@
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5804,7 +5891,7 @@
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5846,7 +5933,7 @@
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5874,7 +5961,7 @@
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5916,7 +6003,7 @@
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5944,7 +6031,7 @@
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -5986,7 +6073,7 @@
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6014,7 +6101,7 @@
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6056,7 +6143,7 @@
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6084,7 +6171,7 @@
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6126,7 +6213,7 @@
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6154,7 +6241,7 @@
       </c>
       <c r="O11" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6196,7 +6283,7 @@
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6224,7 +6311,7 @@
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6266,7 +6353,7 @@
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6294,7 +6381,7 @@
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6329,7 +6416,7 @@
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6357,7 +6444,7 @@
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6392,7 +6479,7 @@
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6420,7 +6507,7 @@
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6436,12 +6523,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42599</v>
+      </c>
+      <c r="C16" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42606</v>
+      </c>
+      <c r="D16" s="49">
+        <f t="array" ref="D16">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0.25000000000000011</v>
+      </c>
       <c r="F16" s="5">
         <v>-8</v>
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6469,7 +6570,7 @@
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6490,7 +6591,7 @@
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6518,7 +6619,7 @@
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6539,7 +6640,7 @@
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6567,7 +6668,7 @@
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6588,7 +6689,7 @@
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6616,7 +6717,7 @@
       </c>
       <c r="O19" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6637,7 +6738,7 @@
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6665,7 +6766,7 @@
       </c>
       <c r="O20" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6686,7 +6787,7 @@
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6714,7 +6815,7 @@
       </c>
       <c r="O21" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6745,8 +6846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6777,7 +6878,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="54">
         <f>MAX(Periods[Finish])</f>
-        <v>42599</v>
+        <v>42606</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="13"/>
@@ -6828,7 +6929,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0.44791666666666663</v>
+        <v>0</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
@@ -6877,7 +6978,7 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>0.25000000000000006</v>
+        <v>0.14583333333333343</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>
@@ -6901,7 +7002,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0.64583333333333337</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="204">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -445,9 +445,6 @@
     <t>The more abstract research question: Determining objectives through observation</t>
   </si>
   <si>
-    <t>Read articles about research interests</t>
-  </si>
-  <si>
     <t>Thinking about research interests</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
     <t>Register for UbiComp</t>
   </si>
   <si>
-    <t>Create Conference Plan</t>
-  </si>
-  <si>
     <t>Yes.</t>
   </si>
   <si>
@@ -583,9 +577,6 @@
     <t>Signing up for Insurance, Payroll and ID card</t>
   </si>
   <si>
-    <t>Open mHealth</t>
-  </si>
-  <si>
     <t>Open mHealth research and email</t>
   </si>
   <si>
@@ -632,6 +623,72 @@
   </si>
   <si>
     <t>Working with Wes on Sensus</t>
+  </si>
+  <si>
+    <t>Stochastic Systems</t>
+  </si>
+  <si>
+    <t>Intro to Systems</t>
+  </si>
+  <si>
+    <t>Linear Statistic Models</t>
+  </si>
+  <si>
+    <t>Prepping for classes</t>
+  </si>
+  <si>
+    <t>Sensus Building, Meeting with Wes and Barnes, Ohmage-omh</t>
+  </si>
+  <si>
+    <t>Prepping for classes, Scheduling Dr. Appointment</t>
+  </si>
+  <si>
+    <t>Sensus Building, Ohmage-omh</t>
+  </si>
+  <si>
+    <t>Text Books, Office Supplies, Collab</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Collab, Piazza and CATME</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Doctor's Appointment</t>
+  </si>
+  <si>
+    <t>UbiComp Preparation</t>
+  </si>
+  <si>
+    <t>Definition of Systems</t>
+  </si>
+  <si>
+    <t>Brief Bio</t>
+  </si>
+  <si>
+    <t>Pick Thesis Committee</t>
+  </si>
+  <si>
+    <t>Prepare Thesis Proposal</t>
+  </si>
+  <si>
+    <t>We want to be on their list of supported apps</t>
+  </si>
+  <si>
+    <t>It will be a challenge but he is at least verbally supportive of my concerns</t>
+  </si>
+  <si>
+    <t>Wes has mostly taken this one on and I haven't heard much else</t>
+  </si>
+  <si>
+    <t>I think we're good</t>
+  </si>
+  <si>
+    <t>Read articles</t>
   </si>
 </sst>
 </file>
@@ -1166,13 +1223,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F44" totalsRowShown="0">
-  <autoFilter ref="A1:F44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F48" totalsRowShown="0">
+  <autoFilter ref="A1:F48">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A31:F44">
+  <sortState ref="A31:F46">
     <sortCondition ref="E2:E41"/>
     <sortCondition ref="D2:D41"/>
     <sortCondition ref="F2:F41"/>
@@ -1191,8 +1248,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H101" totalsRowShown="0">
-  <autoFilter ref="A1:H101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H116" totalsRowShown="0">
+  <autoFilter ref="A1:H116"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1218,7 +1275,7 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:B34">
+  <sortState ref="A34:B34">
     <sortCondition ref="B1:B21"/>
   </sortState>
   <tableColumns count="2">
@@ -1607,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2091,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="30">
         <v>10</v>
@@ -2051,7 +2108,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="30">
         <v>10</v>
@@ -2068,7 +2125,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="30">
         <v>10</v>
@@ -2085,7 +2142,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="30">
         <v>10</v>
@@ -2119,7 +2176,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" s="30">
         <v>12</v>
@@ -2149,7 +2206,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="D32" s="30">
         <v>8</v>
@@ -2162,7 +2219,7 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" s="30">
         <v>12</v>
@@ -2177,7 +2234,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="D34" s="30">
         <v>12</v>
@@ -2222,7 +2279,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37" s="30">
         <v>13</v>
@@ -2252,7 +2309,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D39" s="30">
         <v>13</v>
@@ -2267,7 +2324,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D40" s="30">
         <v>13</v>
@@ -2277,49 +2334,97 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>43</v>
+        <v>6021</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D41" s="30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>42</v>
+        <v>6005</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="30"/>
+        <v>182</v>
+      </c>
+      <c r="D42" s="30">
+        <v>15</v>
+      </c>
       <c r="E42" s="30"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>22</v>
+        <v>6001</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="30"/>
+        <v>183</v>
+      </c>
+      <c r="D43" s="30">
+        <v>15</v>
+      </c>
       <c r="E43" s="30"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
       <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2341,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,7 +4027,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -3950,7 +4055,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -3978,7 +4083,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -4006,7 +4111,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B60">
         <v>12</v>
@@ -4034,7 +4139,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -4062,7 +4167,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -4090,7 +4195,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -4118,7 +4223,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B64">
         <v>12</v>
@@ -4146,7 +4251,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -4174,7 +4279,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B66">
         <v>12</v>
@@ -4202,7 +4307,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -4230,7 +4335,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68">
         <v>12</v>
@@ -4258,7 +4363,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69">
         <v>12</v>
@@ -4286,7 +4391,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -4314,7 +4419,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B71">
         <v>12</v>
@@ -4342,7 +4447,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B72">
         <v>12</v>
@@ -4370,7 +4475,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B73">
         <v>12</v>
@@ -4398,7 +4503,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B74">
         <v>12</v>
@@ -4426,7 +4531,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -4454,7 +4559,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -4482,7 +4587,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -4510,7 +4615,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B78">
         <v>13</v>
@@ -4529,16 +4634,16 @@
         <v>0.16666666666666674</v>
       </c>
       <c r="G78" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H78" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Open mHealth</v>
+        <v>Sensus</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B79">
         <v>13</v>
@@ -4566,7 +4671,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B80">
         <v>13</v>
@@ -4594,7 +4699,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B81">
         <v>14</v>
@@ -4622,7 +4727,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B82">
         <v>14</v>
@@ -4650,7 +4755,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B83">
         <v>14</v>
@@ -4673,12 +4778,12 @@
       </c>
       <c r="H83" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B84">
         <v>14</v>
@@ -4706,7 +4811,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B85">
         <v>14</v>
@@ -4734,7 +4839,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B86">
         <v>14</v>
@@ -4757,12 +4862,12 @@
       </c>
       <c r="H86" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B87">
         <v>14</v>
@@ -4790,7 +4895,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B88">
         <v>14</v>
@@ -4818,7 +4923,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B89">
         <v>14</v>
@@ -4846,7 +4951,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B90">
         <v>14</v>
@@ -4874,7 +4979,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B91">
         <v>14</v>
@@ -4902,7 +5007,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B92">
         <v>14</v>
@@ -4930,7 +5035,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B93">
         <v>14</v>
@@ -4953,12 +5058,12 @@
       </c>
       <c r="H93" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B94">
         <v>14</v>
@@ -4986,7 +5091,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B95">
         <v>14</v>
@@ -5012,7 +5117,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B96">
         <v>14</v>
@@ -5035,12 +5140,12 @@
       </c>
       <c r="H96" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B97">
         <v>14</v>
@@ -5068,7 +5173,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B98">
         <v>14</v>
@@ -5096,7 +5201,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B99">
         <v>15</v>
@@ -5119,12 +5224,12 @@
       </c>
       <c r="H99" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B100">
         <v>15</v>
@@ -5152,7 +5257,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B101">
         <v>15</v>
@@ -5175,7 +5280,427 @@
       </c>
       <c r="H101" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102">
+        <v>15</v>
+      </c>
+      <c r="C102" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E102" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F102" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="G102" s="30">
+        <v>29</v>
+      </c>
+      <c r="H102" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F103" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="G103" s="30">
+        <v>44</v>
+      </c>
+      <c r="H103" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104">
+        <v>15</v>
+      </c>
+      <c r="C104" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F104" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G104" s="30">
+        <v>38</v>
+      </c>
+      <c r="H104" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>UbiComp Preparation</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105">
+        <v>15</v>
+      </c>
+      <c r="C105" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F105" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G105" s="30">
+        <v>38</v>
+      </c>
+      <c r="H105" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>UbiComp Preparation</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="C106" s="3">
+        <v>42605</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E106" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F106" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G106" s="30">
+        <v>29</v>
+      </c>
+      <c r="H106" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107">
+        <v>15</v>
+      </c>
+      <c r="C107" s="3">
+        <v>42605</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F107" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G107" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H107" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Stochastic Systems</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108">
+        <v>15</v>
+      </c>
+      <c r="C108" s="3">
+        <v>42605</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E108" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F108" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>9.3750000000000056E-2</v>
+      </c>
+      <c r="G108" s="30">
+        <v>44</v>
+      </c>
+      <c r="H108" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109">
+        <v>15</v>
+      </c>
+      <c r="C109" s="3">
+        <v>42605</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F109" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="G109" s="30">
+        <v>6001</v>
+      </c>
+      <c r="H109" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Intro to Systems</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110">
+        <v>15</v>
+      </c>
+      <c r="C110" s="3">
+        <v>42605</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F110" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.13541666666666674</v>
+      </c>
+      <c r="G110" s="30">
+        <v>29</v>
+      </c>
+      <c r="H110" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="C111" s="3">
+        <v>42606</v>
+      </c>
+      <c r="D111" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F111" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="G111" s="30">
+        <v>6021</v>
+      </c>
+      <c r="H111" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Linear Statistic Models</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112">
+        <v>15</v>
+      </c>
+      <c r="C112" s="3">
+        <v>42606</v>
+      </c>
+      <c r="D112" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F112" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G112" s="30">
+        <v>29</v>
+      </c>
+      <c r="H112" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113" s="3">
+        <v>42606</v>
+      </c>
+      <c r="D113" s="6">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F113" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.1250000000000056E-2</v>
+      </c>
+      <c r="G113" s="30">
+        <v>29</v>
+      </c>
+      <c r="H113" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114">
+        <v>15</v>
+      </c>
+      <c r="C114" s="3">
+        <v>42606</v>
+      </c>
+      <c r="D114" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F114" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="G114" s="30">
+        <v>6001</v>
+      </c>
+      <c r="H114" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Intro to Systems</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>193</v>
+      </c>
+      <c r="B115">
+        <v>15</v>
+      </c>
+      <c r="C115" s="3">
+        <v>42606</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E115" s="6">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F115" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="G115" s="30">
+        <v>29</v>
+      </c>
+      <c r="H115" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate into UVA System</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>196</v>
+      </c>
+      <c r="B116">
+        <v>15</v>
+      </c>
+      <c r="C116" s="3">
+        <v>42606</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E116" s="6">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F116" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G116" s="30">
+        <v>6001</v>
+      </c>
+      <c r="H116" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Intro to Systems</v>
       </c>
     </row>
   </sheetData>
@@ -5195,8 +5720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,18 +5748,18 @@
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5303,18 +5828,18 @@
     </row>
     <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5335,10 +5860,10 @@
     </row>
     <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5351,10 +5876,10 @@
     </row>
     <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5439,30 +5964,42 @@
     </row>
     <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="B34" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +6016,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J12" sqref="A11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,7 +6050,7 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -5578,7 +6115,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id])</f>
@@ -5592,13 +6129,13 @@
         <f t="array" ref="I2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>29</v>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Integrate into UVA System</v>
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>0.44791666666666685</v>
       </c>
       <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -5606,7 +6143,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="5">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -5620,7 +6157,7 @@
         <f t="array" ref="Q2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>29</v>
       </c>
-      <c r="R2" t="str">
+      <c r="R2" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Integrate into UVA System</v>
       </c>
@@ -5629,7 +6166,7 @@
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>Discuss my security questions</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -5649,7 +6186,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id])</f>
@@ -5663,9 +6200,9 @@
         <f t="array" ref="I3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>33</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="43" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles about research interests</v>
+        <v>Read articles</v>
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
@@ -5677,7 +6214,7 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -5691,16 +6228,16 @@
         <f t="array" ref="Q3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>33</v>
       </c>
-      <c r="R3" t="str">
+      <c r="R3" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles about research interests</v>
+        <v>Read articles</v>
       </c>
       <c r="T3" s="5">
         <v>-2</v>
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>What should I do with Prof. Barnes iOS app?</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -5719,7 +6256,7 @@
         <v>0.25000000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id])</f>
@@ -5735,19 +6272,19 @@
       </c>
       <c r="J4" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.14583333333333343</v>
-      </c>
-      <c r="L4" s="44" t="str">
+        <v>0.2916666666666668</v>
+      </c>
+      <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -5763,14 +6300,14 @@
       </c>
       <c r="R4" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
       <c r="T4" s="5">
         <v>-3</v>
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>How to balance GRA with programming?</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -5789,7 +6326,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="5">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id])</f>
@@ -5803,13 +6340,13 @@
         <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>44</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Sensus</v>
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.10416666666666669</v>
+        <v>0.32291666666666674</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -5817,7 +6354,7 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="5">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -5840,7 +6377,7 @@
       </c>
       <c r="U5" t="str">
         <f t="array" ref="U5">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v>What do you want from me with Open mHealth?</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5859,7 +6396,7 @@
         <v>1.0312499999999998</v>
       </c>
       <c r="F6" s="5">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id])</f>
@@ -5871,15 +6408,15 @@
       </c>
       <c r="I6" s="30">
         <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>43</v>
+        <v>6021</v>
       </c>
       <c r="J6" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Open mHealth</v>
+        <v>Linear Statistic Models</v>
       </c>
       <c r="K6" s="50">
         <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="L6" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -5887,7 +6424,7 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -5899,11 +6436,11 @@
       </c>
       <c r="Q6" s="5">
         <f t="array" ref="Q6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>43</v>
+        <v>6021</v>
       </c>
       <c r="R6" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Open mHealth</v>
+        <v>Linear Statistic Models</v>
       </c>
       <c r="T6" s="5">
         <v>-5</v>
@@ -5929,7 +6466,7 @@
         <v>0.62500000000000011</v>
       </c>
       <c r="F7" s="5">
-        <v>-20</v>
+        <v>-7</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id])</f>
@@ -5937,19 +6474,19 @@
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
         <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J7" s="30" t="str">
+        <v>6005</v>
+      </c>
+      <c r="J7" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K7" s="50" t="str">
+        <v>Stochastic Systems</v>
+      </c>
+      <c r="K7" s="50">
         <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="L7" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -5957,7 +6494,7 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5">
-        <v>-20</v>
+        <v>-7</v>
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -5965,15 +6502,15 @@
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
         <f t="array" ref="Q7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R7" s="30" t="str">
+        <v>6005</v>
+      </c>
+      <c r="R7" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Stochastic Systems</v>
       </c>
       <c r="T7" s="5">
         <v>-6</v>
@@ -5999,7 +6536,7 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="F8" s="5">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6007,19 +6544,19 @@
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
         <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J8" s="30" t="str">
+        <v>6001</v>
+      </c>
+      <c r="J8" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K8" s="50" t="str">
+        <v>Intro to Systems</v>
+      </c>
+      <c r="K8" s="50">
         <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
+        <v>0.13541666666666652</v>
       </c>
       <c r="L8" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6027,7 +6564,7 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="5">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6035,15 +6572,15 @@
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="array" ref="Q8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R8" s="30" t="str">
+        <v>6001</v>
+      </c>
+      <c r="R8" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>Intro to Systems</v>
       </c>
       <c r="T8" s="5">
         <v>-7</v>
@@ -6069,7 +6606,7 @@
         <v>0.23958333333333337</v>
       </c>
       <c r="F9" s="5">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6083,7 +6620,7 @@
         <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J9" s="48" t="str">
+      <c r="J9" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -6097,7 +6634,7 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="5">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6139,7 +6676,7 @@
         <v>0.22916666666666663</v>
       </c>
       <c r="F10" s="5">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6153,7 +6690,7 @@
         <f t="array" ref="I10">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J10" s="43" t="str">
+      <c r="J10" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -6167,7 +6704,7 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="5">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6279,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6307,7 +6844,7 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="5">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6349,7 +6886,7 @@
         <v>0.94791666666666652</v>
       </c>
       <c r="F13" s="5">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6377,7 +6914,7 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="5">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6412,7 +6949,7 @@
         <v>0.4791666666666668</v>
       </c>
       <c r="F14" s="5">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6440,7 +6977,7 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="5">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6475,7 +7012,7 @@
         <v>1.3854166666666665</v>
       </c>
       <c r="F15" s="5">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6489,7 +7026,7 @@
         <f t="array" ref="I15">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J15" s="15" t="str">
+      <c r="J15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -6497,13 +7034,13 @@
         <f t="array" ref="K15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L15" s="45" t="str">
+      <c r="L15" s="44" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="5">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6535,10 +7072,10 @@
       </c>
       <c r="D16" s="49">
         <f t="array" ref="D16">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0.25000000000000011</v>
+        <v>1.3020833333333335</v>
       </c>
       <c r="F16" s="5">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6566,7 +7103,7 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="5">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6587,7 +7124,7 @@
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F17" s="5">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6615,7 +7152,7 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="5">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6636,7 +7173,7 @@
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F18" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id])</f>
@@ -6664,7 +7201,7 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="5">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id]) + 1</f>
@@ -6846,8 +7383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6929,7 +7466,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0</v>
+        <v>0.44791666666666685</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
@@ -6949,7 +7486,7 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Read articles about research interests</v>
+        <v>Read articles</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -6961,7 +7498,7 @@
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
-        <v>Read articles about research interests</v>
+        <v>Read articles</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -6973,19 +7510,19 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>0.14583333333333343</v>
+        <v>0.2916666666666668</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>Create Conference Plan</v>
+        <v>UbiComp Preparation</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -7002,7 +7539,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0.10416666666666669</v>
+        <v>0.32291666666666674</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -7021,12 +7558,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Open mHealth</v>
+        <v>Linear Statistic Models</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="53">
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="E8" s="41" t="str">
         <v/>
@@ -7034,7 +7571,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="str">
-        <v>Open mHealth</v>
+        <v>Linear Statistic Models</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -7046,12 +7583,12 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v/>
+        <v>Stochastic Systems</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="53" t="str">
-        <v/>
+      <c r="D9" s="53">
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="E9" s="41" t="str">
         <v/>
@@ -7059,7 +7596,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="str">
-        <v/>
+        <v>Stochastic Systems</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -7071,12 +7608,12 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v/>
+        <v>Intro to Systems</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="53" t="str">
-        <v/>
+      <c r="D10" s="53">
+        <v>0.13541666666666652</v>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -7084,7 +7621,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="13"/>
       <c r="H10" s="10" t="str">
-        <v/>
+        <v>Intro to Systems</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -7299,7 +7836,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v>Discuss my security questions</v>
+        <v/>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -7316,7 +7853,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v>What should I do with Prof. Barnes iOS app?</v>
+        <v/>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -7333,7 +7870,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v>How to balance GRA with programming?</v>
+        <v/>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -7350,7 +7887,7 @@
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="str">
-        <v>What do you want from me with Open mHealth?</v>
+        <v/>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="215">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Can I use my own branch in literature?</t>
   </si>
   <si>
-    <t>Integrate into UVA System</t>
-  </si>
-  <si>
     <t>I have a wedding in OKC on January 14th?</t>
   </si>
   <si>
@@ -625,15 +622,6 @@
     <t>Working with Wes on Sensus</t>
   </si>
   <si>
-    <t>Stochastic Systems</t>
-  </si>
-  <si>
-    <t>Intro to Systems</t>
-  </si>
-  <si>
-    <t>Linear Statistic Models</t>
-  </si>
-  <si>
     <t>Prepping for classes</t>
   </si>
   <si>
@@ -661,9 +649,6 @@
     <t>Doctor's Appointment</t>
   </si>
   <si>
-    <t>UbiComp Preparation</t>
-  </si>
-  <si>
     <t>Definition of Systems</t>
   </si>
   <si>
@@ -688,7 +673,55 @@
     <t>I think we're good</t>
   </si>
   <si>
-    <t>Read articles</t>
+    <t>Studying for 6005</t>
+  </si>
+  <si>
+    <t>Hobby Meeting</t>
+  </si>
+  <si>
+    <t>Scheduling Counselors Appointment</t>
+  </si>
+  <si>
+    <t>Prepping and Talking with Jared about Ohmage</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>Setting up Meeting Schedule</t>
+  </si>
+  <si>
+    <t>Prep for New Student House Party</t>
+  </si>
+  <si>
+    <t>Install R</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>UbiComp</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Integrate</t>
+  </si>
+  <si>
+    <t>SYS 7096</t>
+  </si>
+  <si>
+    <t>SYS 6021</t>
+  </si>
+  <si>
+    <t>SYS 6005</t>
+  </si>
+  <si>
+    <t>SYS 6001</t>
+  </si>
+  <si>
+    <t>Sensus Data Store Cleaning</t>
   </si>
 </sst>
 </file>
@@ -1223,13 +1256,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F48" totalsRowShown="0">
-  <autoFilter ref="A1:F48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Goals" displayName="Goals" ref="A1:F49" totalsRowShown="0">
+  <autoFilter ref="A1:F49">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A31:F46">
+  <sortState ref="A31:F49">
     <sortCondition ref="E2:E41"/>
     <sortCondition ref="D2:D41"/>
     <sortCondition ref="F2:F41"/>
@@ -1248,8 +1281,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H116" totalsRowShown="0">
-  <autoFilter ref="A1:H116"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H130" totalsRowShown="0">
+  <autoFilter ref="A1:H130"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1287,8 +1320,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Periods" displayName="Periods" ref="A1:D17" totalsRowShown="0">
+  <autoFilter ref="A1:D17"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Id" dataDxfId="32"/>
     <tableColumn id="2" name="Start" dataDxfId="31"/>
@@ -1664,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +2029,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="30">
         <v>4</v>
@@ -2030,7 +2063,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="30">
         <v>5</v>
@@ -2045,7 +2078,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="30">
         <v>2</v>
@@ -2076,7 +2109,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="30">
         <v>3</v>
@@ -2091,7 +2124,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="30">
         <v>10</v>
@@ -2108,7 +2141,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="30">
         <v>10</v>
@@ -2125,7 +2158,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="30">
         <v>10</v>
@@ -2142,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="30">
         <v>10</v>
@@ -2176,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="30">
         <v>12</v>
@@ -2193,7 +2226,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="D31" s="30">
         <v>4</v>
@@ -2206,7 +2239,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D32" s="30">
         <v>8</v>
@@ -2219,7 +2252,7 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="30">
         <v>12</v>
@@ -2234,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D34" s="30">
         <v>12</v>
@@ -2279,7 +2312,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="30">
         <v>13</v>
@@ -2309,7 +2342,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="30">
         <v>13</v>
@@ -2324,7 +2357,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40" s="30">
         <v>13</v>
@@ -2334,10 +2367,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>6021</v>
+        <v>7096</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D41" s="30">
         <v>15</v>
@@ -2347,10 +2380,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>6005</v>
+        <v>6021</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D42" s="30">
         <v>15</v>
@@ -2360,10 +2393,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>6001</v>
+        <v>6005</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D43" s="30">
         <v>15</v>
@@ -2373,21 +2406,23 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>42</v>
+        <v>6001</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="30"/>
+        <v>213</v>
+      </c>
+      <c r="D44" s="30">
+        <v>15</v>
+      </c>
       <c r="E44" s="30"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -2395,10 +2430,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
@@ -2406,10 +2441,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -2417,14 +2452,25 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
       <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2446,10 +2492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,7 +2810,7 @@
       </c>
       <c r="H11" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2848,7 +2894,7 @@
       </c>
       <c r="H14" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2881,7 +2927,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2909,7 +2955,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2937,7 +2983,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2965,7 +3011,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -2993,7 +3039,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -3021,7 +3067,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -3049,7 +3095,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -3075,7 +3121,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -3103,7 +3149,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -3131,7 +3177,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -3159,7 +3205,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -3187,7 +3233,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -3215,7 +3261,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -3243,7 +3289,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -3271,7 +3317,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -3294,12 +3340,12 @@
       </c>
       <c r="H30" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -3327,7 +3373,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -3355,7 +3401,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -3383,7 +3429,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -3411,7 +3457,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -3434,12 +3480,12 @@
       </c>
       <c r="H35" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -3467,7 +3513,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -3495,7 +3541,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -3523,7 +3569,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -3551,7 +3597,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -3579,7 +3625,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -3607,7 +3653,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3635,7 +3681,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3663,7 +3709,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -3691,7 +3737,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -3719,7 +3765,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -3747,7 +3793,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3770,12 +3816,12 @@
       </c>
       <c r="H47" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -3798,12 +3844,12 @@
       </c>
       <c r="H48" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3826,12 +3872,12 @@
       </c>
       <c r="H49" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3854,12 +3900,12 @@
       </c>
       <c r="H50" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -3882,12 +3928,12 @@
       </c>
       <c r="H51" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -3915,7 +3961,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -3943,7 +3989,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -3971,7 +4017,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -3994,12 +4040,12 @@
       </c>
       <c r="H55" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -4022,12 +4068,12 @@
       </c>
       <c r="H56" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -4055,7 +4101,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58">
         <v>9</v>
@@ -4083,7 +4129,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59">
         <v>9</v>
@@ -4111,7 +4157,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60">
         <v>12</v>
@@ -4139,7 +4185,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -4162,12 +4208,12 @@
       </c>
       <c r="H61" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -4195,7 +4241,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -4223,7 +4269,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64">
         <v>12</v>
@@ -4246,12 +4292,12 @@
       </c>
       <c r="H64" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -4279,7 +4325,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66">
         <v>12</v>
@@ -4307,7 +4353,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B67">
         <v>12</v>
@@ -4335,7 +4381,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68">
         <v>12</v>
@@ -4363,7 +4409,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69">
         <v>12</v>
@@ -4391,7 +4437,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -4414,12 +4460,12 @@
       </c>
       <c r="H70" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71">
         <v>12</v>
@@ -4447,7 +4493,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72">
         <v>12</v>
@@ -4475,7 +4521,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B73">
         <v>12</v>
@@ -4503,7 +4549,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B74">
         <v>12</v>
@@ -4531,7 +4577,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B75">
         <v>12</v>
@@ -4554,12 +4600,12 @@
       </c>
       <c r="H75" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76">
         <v>12</v>
@@ -4582,12 +4628,12 @@
       </c>
       <c r="H76" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -4610,12 +4656,12 @@
       </c>
       <c r="H77" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B78">
         <v>13</v>
@@ -4643,7 +4689,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79">
         <v>13</v>
@@ -4671,7 +4717,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80">
         <v>13</v>
@@ -4694,12 +4740,12 @@
       </c>
       <c r="H80" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B81">
         <v>14</v>
@@ -4727,7 +4773,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82">
         <v>14</v>
@@ -4755,7 +4801,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83">
         <v>14</v>
@@ -4778,12 +4824,12 @@
       </c>
       <c r="H83" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84">
         <v>14</v>
@@ -4811,7 +4857,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>14</v>
@@ -4834,12 +4880,12 @@
       </c>
       <c r="H85" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86">
         <v>14</v>
@@ -4862,12 +4908,12 @@
       </c>
       <c r="H86" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87">
         <v>14</v>
@@ -4895,7 +4941,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B88">
         <v>14</v>
@@ -4923,7 +4969,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89">
         <v>14</v>
@@ -4946,12 +4992,12 @@
       </c>
       <c r="H89" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90">
         <v>14</v>
@@ -4979,7 +5025,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91">
         <v>14</v>
@@ -5007,7 +5053,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B92">
         <v>14</v>
@@ -5030,12 +5076,12 @@
       </c>
       <c r="H92" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B93">
         <v>14</v>
@@ -5058,12 +5104,12 @@
       </c>
       <c r="H93" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B94">
         <v>14</v>
@@ -5086,12 +5132,12 @@
       </c>
       <c r="H94" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95">
         <v>14</v>
@@ -5117,7 +5163,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B96">
         <v>14</v>
@@ -5140,12 +5186,12 @@
       </c>
       <c r="H96" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B97">
         <v>14</v>
@@ -5168,12 +5214,12 @@
       </c>
       <c r="H97" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B98">
         <v>14</v>
@@ -5196,12 +5242,12 @@
       </c>
       <c r="H98" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B99">
         <v>15</v>
@@ -5224,12 +5270,12 @@
       </c>
       <c r="H99" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B100">
         <v>15</v>
@@ -5257,7 +5303,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101">
         <v>15</v>
@@ -5280,12 +5326,12 @@
       </c>
       <c r="H101" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B102">
         <v>15</v>
@@ -5308,12 +5354,12 @@
       </c>
       <c r="H102" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B103">
         <v>15</v>
@@ -5341,7 +5387,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B104">
         <v>15</v>
@@ -5364,12 +5410,12 @@
       </c>
       <c r="H104" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B105">
         <v>15</v>
@@ -5392,12 +5438,12 @@
       </c>
       <c r="H105" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B106">
         <v>15</v>
@@ -5420,12 +5466,12 @@
       </c>
       <c r="H106" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B107">
         <v>15</v>
@@ -5448,12 +5494,12 @@
       </c>
       <c r="H107" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Stochastic Systems</v>
+        <v>SYS 6005</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B108">
         <v>15</v>
@@ -5481,7 +5527,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B109">
         <v>15</v>
@@ -5504,12 +5550,12 @@
       </c>
       <c r="H109" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Intro to Systems</v>
+        <v>SYS 6001</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B110">
         <v>15</v>
@@ -5532,12 +5578,12 @@
       </c>
       <c r="H110" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B111">
         <v>15</v>
@@ -5560,12 +5606,12 @@
       </c>
       <c r="H111" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Linear Statistic Models</v>
+        <v>SYS 6021</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B112">
         <v>15</v>
@@ -5588,12 +5634,12 @@
       </c>
       <c r="H112" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B113">
         <v>15</v>
@@ -5616,12 +5662,12 @@
       </c>
       <c r="H113" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B114">
         <v>15</v>
@@ -5644,12 +5690,12 @@
       </c>
       <c r="H114" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Intro to Systems</v>
+        <v>SYS 6001</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B115">
         <v>15</v>
@@ -5672,12 +5718,12 @@
       </c>
       <c r="H115" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B116">
         <v>15</v>
@@ -5700,7 +5746,393 @@
       </c>
       <c r="H116" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Intro to Systems</v>
+        <v>SYS 6001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117">
+        <v>16</v>
+      </c>
+      <c r="C117" s="3">
+        <v>42606</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F117" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G117" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H117" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118">
+        <v>16</v>
+      </c>
+      <c r="C118" s="3">
+        <v>42607</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F118" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G118" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H118" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>186</v>
+      </c>
+      <c r="B119">
+        <v>16</v>
+      </c>
+      <c r="C119" s="3">
+        <v>42607</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F119" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G119" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H119" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120">
+        <v>16</v>
+      </c>
+      <c r="C120" s="3">
+        <v>42607</v>
+      </c>
+      <c r="D120" s="6">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E120" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F120" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="G120" s="30">
+        <v>44</v>
+      </c>
+      <c r="H120" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121">
+        <v>16</v>
+      </c>
+      <c r="C121" s="3">
+        <v>42607</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F121" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G121" s="30">
+        <v>29</v>
+      </c>
+      <c r="H121" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122">
+        <v>16</v>
+      </c>
+      <c r="C122" s="3">
+        <v>42607</v>
+      </c>
+      <c r="D122" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E122" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F122" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="G122" s="30">
+        <v>6001</v>
+      </c>
+      <c r="H122" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+      <c r="C123" s="3">
+        <v>42607</v>
+      </c>
+      <c r="D123" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F123" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G123" s="30">
+        <v>44</v>
+      </c>
+      <c r="H123" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124">
+        <v>16</v>
+      </c>
+      <c r="C124" s="3">
+        <v>42608</v>
+      </c>
+      <c r="D124" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F124" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G124" s="30"/>
+      <c r="H124" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>203</v>
+      </c>
+      <c r="B125">
+        <v>16</v>
+      </c>
+      <c r="C125" s="3">
+        <v>42608</v>
+      </c>
+      <c r="D125" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E125" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F125" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="G125" s="30">
+        <v>33</v>
+      </c>
+      <c r="H125" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Research</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126">
+        <v>16</v>
+      </c>
+      <c r="C126" s="3">
+        <v>42608</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E126" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F126" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G126" s="30">
+        <v>7096</v>
+      </c>
+      <c r="H126" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 7096</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>204</v>
+      </c>
+      <c r="B127">
+        <v>16</v>
+      </c>
+      <c r="C127" s="3">
+        <v>42608</v>
+      </c>
+      <c r="D127" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F127" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="G127" s="30">
+        <v>0</v>
+      </c>
+      <c r="H127" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>205</v>
+      </c>
+      <c r="B128">
+        <v>16</v>
+      </c>
+      <c r="C128" s="3">
+        <v>42609</v>
+      </c>
+      <c r="D128" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E128" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F128" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G128" s="30"/>
+      <c r="H128" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129">
+        <v>16</v>
+      </c>
+      <c r="C129" s="3">
+        <v>42609</v>
+      </c>
+      <c r="D129" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E129" s="6">
+        <v>0.59375</v>
+      </c>
+      <c r="F129" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G129" s="30">
+        <v>33</v>
+      </c>
+      <c r="H129" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Research</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>214</v>
+      </c>
+      <c r="B130">
+        <v>16</v>
+      </c>
+      <c r="C130" s="3">
+        <v>42609</v>
+      </c>
+      <c r="D130" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E130" s="6">
+        <v>0.71875</v>
+      </c>
+      <c r="F130" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="G130" s="30"/>
+      <c r="H130" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Miscellaneous</v>
       </c>
     </row>
   </sheetData>
@@ -5721,7 +6153,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5740,74 +6172,74 @@
     </row>
     <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5820,34 +6252,34 @@
     </row>
     <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5860,10 +6292,10 @@
     </row>
     <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5876,10 +6308,10 @@
     </row>
     <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5887,7 +6319,7 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5895,39 +6327,39 @@
         <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5935,15 +6367,15 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -5964,42 +6396,42 @@
     </row>
     <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6016,7 +6448,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="A11:J12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,7 +6482,7 @@
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -6062,7 +6494,7 @@
         <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
@@ -6083,7 +6515,7 @@
         <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q1" t="s">
         <v>44</v>
@@ -6115,11 +6547,11 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="5">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="G2" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6129,13 +6561,13 @@
         <f t="array" ref="I2">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>29</v>
       </c>
-      <c r="J2" s="48" t="str">
+      <c r="J2" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.44791666666666685</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6143,11 +6575,11 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="5">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="O2" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6159,7 +6591,7 @@
       </c>
       <c r="R2" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
       <c r="T2" s="5">
         <v>-1</v>
@@ -6186,11 +6618,11 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="G3" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6200,13 +6632,13 @@
         <f t="array" ref="I3">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>33</v>
       </c>
-      <c r="J3" s="43" t="str">
+      <c r="J3" s="48" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles</v>
+        <v>Research</v>
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6214,11 +6646,11 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="O3" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P3" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6230,7 +6662,7 @@
       </c>
       <c r="R3" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Read articles</v>
+        <v>Research</v>
       </c>
       <c r="T3" s="5">
         <v>-2</v>
@@ -6256,11 +6688,11 @@
         <v>0.25000000000000006</v>
       </c>
       <c r="F4" s="5">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="G4" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6270,13 +6702,13 @@
         <f t="array" ref="I4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>38</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="30" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.2916666666666668</v>
+        <v>0</v>
       </c>
       <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6284,11 +6716,11 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="5">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="O4" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6298,9 +6730,9 @@
         <f t="array" ref="Q4">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>38</v>
       </c>
-      <c r="R4" t="str">
+      <c r="R4" s="30" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
       <c r="T4" s="5">
         <v>-3</v>
@@ -6326,11 +6758,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="5">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="G5" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6340,13 +6772,13 @@
         <f t="array" ref="I5">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v>44</v>
       </c>
-      <c r="J5" s="15" t="str">
+      <c r="J5" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v>Sensus</v>
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.32291666666666674</v>
+        <v>0.13541666666666657</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6354,11 +6786,11 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="5">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="O5" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6396,11 +6828,11 @@
         <v>1.0312499999999998</v>
       </c>
       <c r="F6" s="5">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="G6" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6408,15 +6840,15 @@
       </c>
       <c r="I6" s="30">
         <f t="array" ref="I6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>6021</v>
-      </c>
-      <c r="J6" t="str">
+        <v>7096</v>
+      </c>
+      <c r="J6" s="15" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Linear Statistic Models</v>
+        <v>SYS 7096</v>
       </c>
       <c r="K6" s="50">
         <f t="array" ref="K6">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>5.2083333333333315E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L6" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6424,11 +6856,11 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="O6" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P6" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6436,11 +6868,11 @@
       </c>
       <c r="Q6" s="5">
         <f t="array" ref="Q6">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>6021</v>
+        <v>7096</v>
       </c>
       <c r="R6" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Linear Statistic Models</v>
+        <v>SYS 7096</v>
       </c>
       <c r="T6" s="5">
         <v>-5</v>
@@ -6466,11 +6898,11 @@
         <v>0.62500000000000011</v>
       </c>
       <c r="F7" s="5">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="G7" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6478,15 +6910,15 @@
       </c>
       <c r="I7" s="30">
         <f t="array" ref="I7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>6005</v>
+        <v>6021</v>
       </c>
       <c r="J7" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Stochastic Systems</v>
+        <v>SYS 6021</v>
       </c>
       <c r="K7" s="50">
         <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>5.208333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6494,11 +6926,11 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="5">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="O7" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P7" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6506,11 +6938,11 @@
       </c>
       <c r="Q7" s="5">
         <f t="array" ref="Q7">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>6005</v>
+        <v>6021</v>
       </c>
       <c r="R7" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Stochastic Systems</v>
+        <v>SYS 6021</v>
       </c>
       <c r="T7" s="5">
         <v>-6</v>
@@ -6536,11 +6968,11 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="F8" s="5">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="G8" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6548,15 +6980,15 @@
       </c>
       <c r="I8" s="30">
         <f t="array" ref="I8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>6001</v>
+        <v>6005</v>
       </c>
       <c r="J8" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Intro to Systems</v>
+        <v>SYS 6005</v>
       </c>
       <c r="K8" s="50">
         <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.13541666666666652</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="L8" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6564,11 +6996,11 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="5">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="O8" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6576,11 +7008,11 @@
       </c>
       <c r="Q8" s="5">
         <f t="array" ref="Q8">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v>6001</v>
+        <v>6005</v>
       </c>
       <c r="R8" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v>Intro to Systems</v>
+        <v>SYS 6005</v>
       </c>
       <c r="T8" s="5">
         <v>-7</v>
@@ -6606,27 +7038,27 @@
         <v>0.23958333333333337</v>
       </c>
       <c r="F9" s="5">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="G9" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="30" t="str">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
         <f t="array" ref="I9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="J9" s="30" t="str">
+        <v>6001</v>
+      </c>
+      <c r="J9" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K9" s="50" t="str">
+        <v>SYS 6001</v>
+      </c>
+      <c r="K9" s="50">
         <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v/>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="L9" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6634,23 +7066,23 @@
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="5">
-        <v>-20</v>
+        <v>-6</v>
       </c>
       <c r="O9" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P9" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="array" ref="Q9">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= ThisWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = ThisWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + ThisWeekTasks[[#This Row],[Index]] + 1)</f>
-        <v/>
-      </c>
-      <c r="R9" s="30" t="str">
+        <v>6001</v>
+      </c>
+      <c r="R9" t="str">
         <f>IF(ThisWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(ThisWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
-        <v/>
+        <v>SYS 6001</v>
       </c>
       <c r="T9" s="5">
         <v>-8</v>
@@ -6676,11 +7108,11 @@
         <v>0.22916666666666663</v>
       </c>
       <c r="F10" s="5">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="G10" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6704,11 +7136,11 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="5">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="O10" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P10" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6746,11 +7178,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="G11" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6760,7 +7192,7 @@
         <f t="array" ref="I11">INDEX(IF((Goals[Started] &gt; 0) * (Goals[Started] &lt;= LastWeekTasks[[#This Row],[Period]]) * ((Goals[Finished] = LastWeekTasks[[#This Row],[Period]]) + (Goals[Finished] =  0 )),  Goals[Id], "" ), COUNT(Goals[Id]) + LastWeekTasks[[#This Row],[Index]] + 1)</f>
         <v/>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="43" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 2, FALSE))</f>
         <v/>
       </c>
@@ -6774,11 +7206,11 @@
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="5">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="O11" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6816,11 +7248,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="G12" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6844,11 +7276,11 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="5">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="O12" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P12" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6886,11 +7318,11 @@
         <v>0.94791666666666652</v>
       </c>
       <c r="F13" s="5">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="G13" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6914,11 +7346,11 @@
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="5">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="O13" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P13" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6949,11 +7381,11 @@
         <v>0.4791666666666668</v>
       </c>
       <c r="F14" s="5">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="G14" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -6977,11 +7409,11 @@
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="5">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="O14" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7012,11 +7444,11 @@
         <v>1.3854166666666665</v>
       </c>
       <c r="F15" s="5">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="G15" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7034,17 +7466,17 @@
         <f t="array" ref="K15">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L15" s="44" t="str">
+      <c r="L15" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="5">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="O15" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P15" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7075,11 +7507,11 @@
         <v>1.3020833333333335</v>
       </c>
       <c r="F16" s="5">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="G16" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7097,17 +7529,17 @@
         <f t="array" ref="K16">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
         <v/>
       </c>
-      <c r="L16" s="45" t="str">
+      <c r="L16" s="44" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
         <v/>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="5">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="O16" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P16" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7122,13 +7554,27 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42606</v>
+      </c>
+      <c r="C17" s="3">
+        <f>Periods[[#This Row],[Start]] + (7)</f>
+        <v>42613</v>
+      </c>
+      <c r="D17" s="49">
+        <f t="array" ref="D17">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
+        <v>0.92708333333333315</v>
+      </c>
       <c r="F17" s="5">
         <v>-5</v>
       </c>
       <c r="G17" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7156,7 +7602,7 @@
       </c>
       <c r="O17" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P17" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7171,13 +7617,13 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F18" s="5">
         <v>-4</v>
       </c>
       <c r="G18" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7205,7 +7651,7 @@
       </c>
       <c r="O18" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P18" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7220,13 +7666,13 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F19" s="5">
         <v>-3</v>
       </c>
       <c r="G19" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7254,7 +7700,7 @@
       </c>
       <c r="O19" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P19" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7269,13 +7715,13 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F20" s="5">
         <v>-2</v>
       </c>
       <c r="G20" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7303,7 +7749,7 @@
       </c>
       <c r="O20" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P20" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7318,13 +7764,13 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F21" s="5">
         <v>-1</v>
       </c>
       <c r="G21" s="30">
         <f>MAX(Periods[Id])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="30" t="b">
         <f>LastWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7352,7 +7798,7 @@
       </c>
       <c r="O21" s="30">
         <f>MAX(Periods[Id]) + 1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P21" s="30" t="b">
         <f>ThisWeekTasks[[#This Row],[Goal]] &lt;&gt; ""</f>
@@ -7383,8 +7829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7415,7 +7861,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="54">
         <f>MAX(Periods[Finish])</f>
-        <v>42606</v>
+        <v>42613</v>
       </c>
       <c r="K1" s="55"/>
       <c r="L1" s="13"/>
@@ -7460,13 +7906,13 @@
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="str">
         <f t="array" ref="A4:A18">LastWeekTasks[Goal Description]</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>0.44791666666666685</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
@@ -7475,7 +7921,7 @@
       <c r="F4" s="16"/>
       <c r="H4" s="17" t="str">
         <f t="array" ref="H4:H18">ThisWeekTasks[Description]</f>
-        <v>Integrate into UVA System</v>
+        <v>Integrate</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -7486,19 +7932,19 @@
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
-        <v>Read articles</v>
+        <v>Research</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="52">
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E5" s="42" t="str">
         <v/>
       </c>
       <c r="F5" s="15"/>
       <c r="H5" s="32" t="str">
-        <v>Read articles</v>
+        <v>Research</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -7510,19 +7956,19 @@
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="str">
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>0.2916666666666668</v>
+        <v>0</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="10" t="str">
-        <v>UbiComp Preparation</v>
+        <v>UbiComp</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -7539,7 +7985,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0.32291666666666674</v>
+        <v>0.13541666666666657</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -7558,12 +8004,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="str">
-        <v>Linear Statistic Models</v>
+        <v>SYS 7096</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="53">
-        <v>5.2083333333333315E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E8" s="41" t="str">
         <v/>
@@ -7571,7 +8017,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="13"/>
       <c r="H8" s="10" t="str">
-        <v>Linear Statistic Models</v>
+        <v>SYS 7096</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -7583,12 +8029,12 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="str">
-        <v>Stochastic Systems</v>
+        <v>SYS 6021</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="53">
-        <v>5.208333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="41" t="str">
         <v/>
@@ -7596,7 +8042,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10" t="str">
-        <v>Stochastic Systems</v>
+        <v>SYS 6021</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -7608,12 +8054,12 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="str">
-        <v>Intro to Systems</v>
+        <v>SYS 6005</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="53">
-        <v>0.13541666666666652</v>
+        <v>0.17708333333333326</v>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -7621,7 +8067,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="13"/>
       <c r="H10" s="10" t="str">
-        <v>Intro to Systems</v>
+        <v>SYS 6005</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -7633,12 +8079,12 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="str">
-        <v/>
+        <v>SYS 6001</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="53" t="str">
-        <v/>
+      <c r="D11" s="53">
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="E11" s="41" t="str">
         <v/>
@@ -7646,7 +8092,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="13"/>
       <c r="H11" s="10" t="str">
-        <v/>
+        <v>SYS 6001</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="218">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -721,7 +721,16 @@
     <t>SYS 6001</t>
   </si>
   <si>
-    <t>Sensus Data Store Cleaning</t>
+    <t>Cleaning up rucker.net for use in Sensus</t>
+  </si>
+  <si>
+    <t>Becoming familiar with DataStore classes</t>
+  </si>
+  <si>
+    <t>Researching Significant Changes</t>
+  </si>
+  <si>
+    <t>Stochastic Homework 1</t>
   </si>
 </sst>
 </file>
@@ -1281,8 +1290,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H130" totalsRowShown="0">
-  <autoFilter ref="A1:H130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H134" totalsRowShown="0">
+  <autoFilter ref="A1:H134"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -2492,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5965,7 +5974,9 @@
         <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
         <v>0.10416666666666669</v>
       </c>
-      <c r="G124" s="30"/>
+      <c r="G124" s="30">
+        <v>0</v>
+      </c>
       <c r="H124" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>Miscellaneous</v>
@@ -6075,7 +6086,9 @@
         <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="G128" s="30"/>
+      <c r="G128" s="30">
+        <v>0</v>
+      </c>
       <c r="H128" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>Miscellaneous</v>
@@ -6129,10 +6142,124 @@
         <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
         <v>7.291666666666663E-2</v>
       </c>
-      <c r="G130" s="30"/>
+      <c r="G130" s="30">
+        <v>44</v>
+      </c>
       <c r="H130" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
-        <v>Miscellaneous</v>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>215</v>
+      </c>
+      <c r="B131">
+        <v>16</v>
+      </c>
+      <c r="C131" s="3">
+        <v>42609</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F131" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G131" s="30">
+        <v>44</v>
+      </c>
+      <c r="H131" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132">
+        <v>16</v>
+      </c>
+      <c r="C132" s="3">
+        <v>42610</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E132" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F132" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G132" s="30">
+        <v>44</v>
+      </c>
+      <c r="H132" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133">
+        <v>16</v>
+      </c>
+      <c r="C133" s="3">
+        <v>42610</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E133" s="6">
+        <v>0.65625</v>
+      </c>
+      <c r="F133" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G133" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H133" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>217</v>
+      </c>
+      <c r="B134">
+        <v>16</v>
+      </c>
+      <c r="C134" s="3">
+        <v>42610</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F134" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="G134" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H134" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
       </c>
     </row>
   </sheetData>
@@ -6778,7 +6905,7 @@
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.13541666666666657</v>
+        <v>0.35416666666666646</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -6988,7 +7115,7 @@
       </c>
       <c r="K8" s="50">
         <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.17708333333333326</v>
+        <v>0.26041666666666652</v>
       </c>
       <c r="L8" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7567,7 +7694,7 @@
       </c>
       <c r="D17" s="49">
         <f t="array" ref="D17">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>0.92708333333333315</v>
+        <v>1.1562499999999998</v>
       </c>
       <c r="F17" s="5">
         <v>-5</v>
@@ -7985,7 +8112,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0.13541666666666657</v>
+        <v>0.35416666666666646</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -8059,7 +8186,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="53">
-        <v>0.17708333333333326</v>
+        <v>0.26041666666666652</v>
       </c>
       <c r="E10" s="41" t="str">
         <v/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -731,6 +731,15 @@
   </si>
   <si>
     <t>Stochastic Homework 1</t>
+  </si>
+  <si>
+    <t>Case Report #39</t>
+  </si>
+  <si>
+    <t>Review Notes</t>
+  </si>
+  <si>
+    <t>iOS Development Environment Setup</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1299,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H134" totalsRowShown="0">
-  <autoFilter ref="A1:H134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H143" totalsRowShown="0">
+  <autoFilter ref="A1:H143"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1709,7 +1718,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B44" sqref="B41:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6258,6 +6267,258 @@
         <v>6005</v>
       </c>
       <c r="H134" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135">
+        <v>16</v>
+      </c>
+      <c r="C135" s="3">
+        <v>42611</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F135" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="G135" s="30">
+        <v>6021</v>
+      </c>
+      <c r="H135" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6021</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>217</v>
+      </c>
+      <c r="B136">
+        <v>16</v>
+      </c>
+      <c r="C136" s="3">
+        <v>42611</v>
+      </c>
+      <c r="D136" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E136" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F136" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>7.2916666666666685E-2</v>
+      </c>
+      <c r="G136" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H136" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137">
+        <v>16</v>
+      </c>
+      <c r="C137" s="3">
+        <v>42611</v>
+      </c>
+      <c r="D137" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E137" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F137" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G137" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H137" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138">
+        <v>16</v>
+      </c>
+      <c r="C138" s="3">
+        <v>42611</v>
+      </c>
+      <c r="D138" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E138" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F138" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="G138" s="30">
+        <v>6001</v>
+      </c>
+      <c r="H138" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139">
+        <v>16</v>
+      </c>
+      <c r="C139" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D139" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E139" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F139" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G139" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H139" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140">
+        <v>16</v>
+      </c>
+      <c r="C140" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D140" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E140" s="6">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F140" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G140" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H140" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141">
+        <v>16</v>
+      </c>
+      <c r="C141" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D141" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E141" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F141" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="G141" s="30">
+        <v>44</v>
+      </c>
+      <c r="H141" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142">
+        <v>16</v>
+      </c>
+      <c r="C142" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D142" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E142" s="6">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F142" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="G142" s="30">
+        <v>6001</v>
+      </c>
+      <c r="H142" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>217</v>
+      </c>
+      <c r="B143">
+        <v>16</v>
+      </c>
+      <c r="C143" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D143" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E143" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F143" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G143" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H143" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>SYS 6005</v>
       </c>
@@ -6575,7 +6836,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6905,7 +7166,7 @@
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.35416666666666646</v>
+        <v>0.45833333333333315</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7045,7 +7306,7 @@
       </c>
       <c r="K7" s="50">
         <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="L7" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7115,7 +7376,7 @@
       </c>
       <c r="K8" s="50">
         <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.26041666666666652</v>
+        <v>0.53125</v>
       </c>
       <c r="L8" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7185,7 +7446,7 @@
       </c>
       <c r="K9" s="50">
         <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>5.2083333333333259E-2</v>
+        <v>0.22916666666666652</v>
       </c>
       <c r="L9" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7694,7 +7955,7 @@
       </c>
       <c r="D17" s="49">
         <f t="array" ref="D17">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>1.1562499999999998</v>
+        <v>1.7604166666666667</v>
       </c>
       <c r="F17" s="5">
         <v>-5</v>
@@ -7957,7 +8218,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8112,7 +8373,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0.35416666666666646</v>
+        <v>0.45833333333333315</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -8161,7 +8422,7 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="53">
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="E9" s="41" t="str">
         <v/>
@@ -8186,7 +8447,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="53">
-        <v>0.26041666666666652</v>
+        <v>0.53125</v>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -8211,7 +8472,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="53">
-        <v>5.2083333333333259E-2</v>
+        <v>0.22916666666666652</v>
       </c>
       <c r="E11" s="41" t="str">
         <v/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="222">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>iOS Development Environment Setup</t>
+  </si>
+  <si>
+    <t>UbiComp Reading</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1302,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H143" totalsRowShown="0">
-  <autoFilter ref="A1:H143"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H144" totalsRowShown="0">
+  <autoFilter ref="A1:H144"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -2510,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6521,6 +6524,34 @@
       <c r="H143" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144">
+        <v>16</v>
+      </c>
+      <c r="C144" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D144" s="6">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E144" s="6">
+        <v>0.78125</v>
+      </c>
+      <c r="F144" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G144" s="30">
+        <v>38</v>
+      </c>
+      <c r="H144" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>UbiComp</v>
       </c>
     </row>
   </sheetData>
@@ -7096,7 +7127,7 @@
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7955,7 +7986,7 @@
       </c>
       <c r="D17" s="49">
         <f t="array" ref="D17">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>1.7604166666666667</v>
+        <v>1.8020833333333335</v>
       </c>
       <c r="F17" s="5">
         <v>-5</v>
@@ -8349,7 +8380,7 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="227">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -743,6 +743,21 @@
   </si>
   <si>
     <t>UbiComp Reading</t>
+  </si>
+  <si>
+    <t>Should I go to a security session at UbiComp?</t>
+  </si>
+  <si>
+    <t>Sensus architecture. Dependency Injection.  Composition over Inheritance.  Transaction over Table over Domain models.</t>
+  </si>
+  <si>
+    <t>Meeting with Dr. Gerber</t>
+  </si>
+  <si>
+    <t>Good/Bad Systems</t>
+  </si>
+  <si>
+    <t>Advice about my role on the Sensus project</t>
   </si>
 </sst>
 </file>
@@ -1302,8 +1317,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H144" totalsRowShown="0">
-  <autoFilter ref="A1:H144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H152" totalsRowShown="0">
+  <autoFilter ref="A1:H152"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -1323,8 +1338,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B34" totalsRowShown="0">
-  <autoFilter ref="A1:B34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Questions" displayName="Questions" ref="A1:B37" totalsRowShown="0">
+  <autoFilter ref="A1:B37">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -1721,7 +1736,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B41:D44"/>
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6554,6 +6569,230 @@
         <v>UbiComp</v>
       </c>
     </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>186</v>
+      </c>
+      <c r="B145">
+        <v>16</v>
+      </c>
+      <c r="C145" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D145" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E145" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F145" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="G145" s="30">
+        <v>6021</v>
+      </c>
+      <c r="H145" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6021</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>217</v>
+      </c>
+      <c r="B146">
+        <v>16</v>
+      </c>
+      <c r="C146" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D146" s="6">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="F146" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="G146" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H146" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>221</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E147" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F147" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G147" s="30">
+        <v>38</v>
+      </c>
+      <c r="H147" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>UbiComp</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>189</v>
+      </c>
+      <c r="B148">
+        <v>16</v>
+      </c>
+      <c r="C148" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E148" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F148" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="G148" s="30">
+        <v>29</v>
+      </c>
+      <c r="H148" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Integrate</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149">
+        <v>16</v>
+      </c>
+      <c r="C149" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F149" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="G149" s="30">
+        <v>44</v>
+      </c>
+      <c r="H149" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>224</v>
+      </c>
+      <c r="B150">
+        <v>16</v>
+      </c>
+      <c r="C150" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F150" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="G150" s="30">
+        <v>33</v>
+      </c>
+      <c r="H150" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Research</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151">
+        <v>16</v>
+      </c>
+      <c r="C151" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E151" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F151" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G151" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H151" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>225</v>
+      </c>
+      <c r="B152">
+        <v>16</v>
+      </c>
+      <c r="C152" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D152" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F152" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="G152" s="30">
+        <v>6001</v>
+      </c>
+      <c r="H152" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6001</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations disablePrompts="1" count="1">
@@ -6569,10 +6808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6851,6 +7090,21 @@
       </c>
       <c r="B34" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6866,8 +7120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,7 +7240,7 @@
       </c>
       <c r="K2" s="50">
         <f t="array" ref="K2">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>6.25E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="L2" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7017,7 +7271,7 @@
       </c>
       <c r="U2" t="str">
         <f t="array" ref="U2">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Advice about my role on the Sensus project</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -7057,7 +7311,7 @@
       </c>
       <c r="K3" s="50">
         <f t="array" ref="K3">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>9.375E-2</v>
+        <v>0.11458333333333326</v>
       </c>
       <c r="L3" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7088,7 +7342,7 @@
       </c>
       <c r="U3" t="str">
         <f t="array" ref="U3">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Sensus architecture. Dependency Injection.  Composition over Inheritance.  Transaction over Table over Domain models.</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -7127,7 +7381,7 @@
       </c>
       <c r="K4" s="50">
         <f t="array" ref="K4">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>4.166666666666663E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="L4" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7158,7 +7412,7 @@
       </c>
       <c r="U4" t="str">
         <f t="array" ref="U4">IF(ISERR(INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1)), "", INDEX(IF(ISBLANK(Questions[Answer]), Questions[Question], "" ), COUNTA(Questions[Question]) + ThisWeekQuestions[[#This Row],[Index]] + 1))</f>
-        <v/>
+        <v>Should I go to a security session at UbiComp?</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -7197,7 +7451,7 @@
       </c>
       <c r="K5" s="50">
         <f t="array" ref="K5">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.45833333333333315</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="L5" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7337,7 +7591,7 @@
       </c>
       <c r="K7" s="50">
         <f t="array" ref="K7">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>5.2083333333333315E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="L7" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7407,7 +7661,7 @@
       </c>
       <c r="K8" s="50">
         <f t="array" ref="K8">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.53125</v>
+        <v>0.59375000000000011</v>
       </c>
       <c r="L8" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7477,7 +7731,7 @@
       </c>
       <c r="K9" s="50">
         <f t="array" ref="K9">IF(LastWeekTasks[[#This Row],[Goal]] = "", "", SUM((Times[Period] = LastWeekTasks[[#This Row],[Period]]) * (Times[Goal] = LastWeekTasks[[#This Row],[Goal]]) * (Times[Hours])))</f>
-        <v>0.22916666666666652</v>
+        <v>0.24999999999999989</v>
       </c>
       <c r="L9" s="45" t="str">
         <f>IF(LastWeekTasks[[#This Row],[Goal]] = "", "", IF(NOT(ISBLANK(VLOOKUP(LastWeekTasks[[#This Row],[Goal]], Goals[], 5, FALSE))), "X", ""))</f>
@@ -7986,7 +8240,7 @@
       </c>
       <c r="D17" s="49">
         <f t="array" ref="D17">SUM((Times[Period] = Periods[[#This Row],[Id]]) * Times[Hours])</f>
-        <v>1.8020833333333335</v>
+        <v>2.0833333333333339</v>
       </c>
       <c r="F17" s="5">
         <v>-5</v>
@@ -8248,8 +8502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8331,7 +8585,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="51">
         <f t="array" ref="D4:D12">LastWeekTasks[Hours]</f>
-        <v>6.25E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="E4" s="41" t="str">
         <f t="array" ref="E4:E18">LastWeekTasks[Done]</f>
@@ -8356,7 +8610,7 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="52">
-        <v>9.375E-2</v>
+        <v>0.11458333333333326</v>
       </c>
       <c r="E5" s="42" t="str">
         <v/>
@@ -8380,7 +8634,7 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="53">
-        <v>4.166666666666663E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="E6" s="41" t="str">
         <v/>
@@ -8404,7 +8658,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="53">
-        <v>0.45833333333333315</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="E7" s="41" t="str">
         <v/>
@@ -8453,7 +8707,7 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="53">
-        <v>5.2083333333333315E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="E9" s="41" t="str">
         <v/>
@@ -8478,7 +8732,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="53">
-        <v>0.53125</v>
+        <v>0.59375000000000011</v>
       </c>
       <c r="E10" s="41" t="str">
         <v/>
@@ -8503,7 +8757,7 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="53">
-        <v>0.22916666666666652</v>
+        <v>0.24999999999999989</v>
       </c>
       <c r="E11" s="41" t="str">
         <v/>
@@ -8701,7 +8955,7 @@
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="str">
         <f t="array" ref="A21:A30">ThisWeekQuestions[Question]</f>
-        <v/>
+        <v>Advice about my role on the Sensus project</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -8718,7 +8972,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
-        <v/>
+        <v>Sensus architecture. Dependency Injection.  Composition over Inheritance.  Transaction over Table over Domain models.</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -8735,7 +8989,7 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="str">
-        <v/>
+        <v>Should I go to a security session at UbiComp?</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>

--- a/updates/Updates.xlsx
+++ b/updates/Updates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goals" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="228">
   <si>
     <t>Install JabRef on my personal machine</t>
   </si>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>Advice about my role on the Sensus project</t>
+  </si>
+  <si>
+    <t>Lab 1</t>
   </si>
 </sst>
 </file>
@@ -1317,8 +1320,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H152" totalsRowShown="0">
-  <autoFilter ref="A1:H152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Times" displayName="Times" ref="A1:H156" totalsRowShown="0">
+  <autoFilter ref="A1:H156"/>
   <tableColumns count="8">
     <tableColumn id="4" name="Work"/>
     <tableColumn id="9" name="Period"/>
@@ -2528,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,6 +6794,118 @@
       <c r="H152" s="6" t="str">
         <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
         <v>SYS 6001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153">
+        <v>17</v>
+      </c>
+      <c r="C153" s="3">
+        <v>42614</v>
+      </c>
+      <c r="D153" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E153" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F153" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="G153" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H153" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>186</v>
+      </c>
+      <c r="B154">
+        <v>17</v>
+      </c>
+      <c r="C154" s="3">
+        <v>42614</v>
+      </c>
+      <c r="D154" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E154" s="6">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F154" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G154" s="30">
+        <v>6005</v>
+      </c>
+      <c r="H154" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>199</v>
+      </c>
+      <c r="B155">
+        <v>17</v>
+      </c>
+      <c r="C155" s="3">
+        <v>42614</v>
+      </c>
+      <c r="D155" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E155" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F155" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>6.2500000000000056E-2</v>
+      </c>
+      <c r="G155" s="30">
+        <v>44</v>
+      </c>
+      <c r="H155" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>Sensus</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156">
+        <v>17</v>
+      </c>
+      <c r="C156" s="3">
+        <v>42614</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F156" s="6">
+        <f>Times[[#This Row],[End]]-Times[[#This Row],[Start]]</f>
+        <v>5.2083333333333259E-2</v>
+      </c>
+      <c r="G156" s="30">
+        <v>6021</v>
+      </c>
+      <c r="H156" s="6" t="str">
+        <f>VLOOKUP(Times[[#This Row],[Goal]], Goals[], 2, FALSE)</f>
+        <v>SYS 6021</v>
       </c>
     </row>
   </sheetData>
@@ -8502,7 +8617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
